--- a/news_data/2019_02.xlsx
+++ b/news_data/2019_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,72 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도관광협회, 제주관광 블로그기자단 9기 모집</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광체육위 전문위원에 소연주씨 임용</t>
+  </si>
+  <si>
+    <t>제주도의회, 4급 문화관광체육전문위원에 소연주씨 임용</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 2019년도 제1차 이사회 및 대의원총회 개최</t>
+  </si>
+  <si>
+    <t>제주도관광협회 2019년 이사회 및 대의원 총회 개최</t>
+  </si>
+  <si>
+    <t>제주도 가볼만한곳 '광해 애월점' 그 뷰가 아름다워 관광객들의 발걸음 끊이지...</t>
+  </si>
+  <si>
+    <t>제주도내 관광숙박업 5년새 갑절 급증 과잉공급 위기</t>
+  </si>
+  <si>
+    <t>3월 제주도 여행 10선...놓치면 후회할 봄 관광명소는?</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주-오키나와 교류 관광 추진</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주종합관광안내센터 친절 캠페인</t>
+  </si>
+  <si>
+    <t>한라산 길목 제주도 펜션 아이로제주, 겨울 제주 관광객에 인기</t>
+  </si>
+  <si>
+    <t>효리의단골집 SNS화제 서귀포갈치조림, 제주도 중문 관광단지 맛집 어디?</t>
+  </si>
+  <si>
+    <t>홍성군-제주도 문화관광개발 단체관광교류 활성화 '맞손'</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본 고부가가치 관광객 유치</t>
+  </si>
+  <si>
+    <t>중문관광단지 활성화 해법은? 현장 찾는 제주도의회</t>
+  </si>
+  <si>
+    <t>토러스증권 “롯데관광개발, 제주도 카지노 이전 및 확장 허가 가능성↑”</t>
+  </si>
+  <si>
+    <t>제주도, 세대 맞춤형 마케팅 전략으로 관광객 유치</t>
+  </si>
+  <si>
+    <t>[제주도 미세먼지 좋음] 자연관광지 곳곳서 매화축제…마을에선 새봄 맞이 제...</t>
+  </si>
+  <si>
+    <t>효리의단골집 '이조은식당' 제주도 중문 관광단지 맛집 중 가성비 1등</t>
+  </si>
+  <si>
+    <t>제주도, 스마트관광 서비스 비콘 폐지…하루 평균 1명 이용</t>
+  </si>
+  <si>
+    <t>'스마트관광' 하려다 예산만 날리고…제주도 '비콘' 폐지</t>
+  </si>
+  <si>
+    <t>불과 3년만에 접게 된 원희룡 제주도정의 '스마트 관광'</t>
+  </si>
+  <si>
     <t>카지노업관광협회 7일 제주도의회 조례 반박 의견서 제출</t>
   </si>
   <si>
@@ -52,28 +118,94 @@
     <t>배 댈 곳 없는 제주항…제주도 뱃길 관광 활성화 '구호만'</t>
   </si>
   <si>
-    <t>카지노업관광협회 7일 제주도의회 조례 반박 의견서 제출 - 베이비타임즈 × 전체기사 출산육아 전체 임신·출산 육아 워킹맘 다문화 산업 전체 보육·교육 패션·뷰티 산업·유통 건강·의료 금융·재테크 전체 금융 보험 증권 부동산 생활문화 전체 웨딩·홈 여행·맛집 반려동물 공연·문화 취업·창업 정치·사회 전체 정치 사회·일반 정책 오피니언 전체 인터뷰 칼럼 인물·동정 취재수첩 행사이벤트 전체 산모교실 다문화 행복동행 아이지킴이 UPDATED. 2022-10-04 09:45 (화) 로그인 회원가입 모바일웹 전체 출산육아 임신·출산 육아 워킹맘 다문화 산업 보육·교육 패션·뷰티 산업·유통 건강·의료 금융·재테크 금융 보험 증권 부동산 생활문화 웨딩·홈 여행·맛집 반려동물 공연·문화 취업·창업 정치·사회 정치 사회·일반 정책 오피니언 인터뷰 칼럼 인물·동정 취재수첩 포토영상 포토 동영상 행사이벤트 산모교실 다문화 행복동행 아이지킴이 기사검색 검색 이전 다음 카지노업관광협회 7일 제주도의회 조례 반박 의견서 제출 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치·사회 사회·일반 카지노업관광협회 7일 제주도의회 조례 반박 의견서 제출 김복만 기자 승인 2019.02.07 17:25 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × “카지노 영업장 선택권 박탈은 직업의 자유 침해·과잉금지원칙 위반” 제주도의회 전경.(사진제공=한국카지노업관광협회) [베이비타임즈=김복만 기자] 한국카지노업관광협회는 제주도의회 이상봉 의원이 입법예고한 ‘카지노사업장 이전 제한’ 내용의 조례개정안에 반대하는 의견서를 도의회에 제출했다고 7일 밝혔다. 카지노업관광협회는 의견서를 통해 “제주도 외국인전용 카지노의 이전을 사실상 원천봉쇄하는 내용의 도 조례 개정안은 관광산업 발전을 저해할 것”이라며 우려를 표명했다. 카지노업관광협회는 “제주도 외국인전용 카지노의 이전을 사실상 원천봉쇄하는 내용의 도 조례 개정안으로, 관광산업 육성 및 관광 진흥이라는 상위 규범의 입법 목적에 반한다”고 지적했다. 협회는 또 “제주도 카지노사업자의 규모 확대를 저지하는 데 목적이 있을 뿐이므로 입법 목적의 정당성이 인정되지 않고, 카지노사업자의 영업장소 선택권 박탈은 목적 달성의 수단이 지나치게 직업의 자유를 침해하므로 과잉금지원칙에도 위반한다”고 강조했다. 협회는 “최근 아시아 국가들이 자국민의 외화유출 방지와 재정 수입을 위해 국가차원에서 경쟁적으로 카지노가 포함된 복합리조트 조성을 확대하고 있는 세계적인 추세에도 맞지 않는다”고 덧붙였다. 글로벌 카지노 업체들이 대규모 자금을 투입해 대형화, 테마화, 차별화를 통한 경쟁력 제고에 주력하고 있는 상황에서 글로벌 흐름과 동떨어진 제주도의회의 입법예고안은 제주도 관광산업 발전을 저해한다는 지적이다. 카지노업 관계자들은 조례 개정안과 관련해 “세계적인 관광지 제주도가 지속 발전하려면 오히려 복합리조트 등 관광인프라를 더 조성하여야 하는 데 이에 역행하는 것”이라면서 “위임입법 일탈, 법률유보의 원칙과 과잉금지 원칙에 위배하는 등 법률적으로 큰 문제가 있다”며 큰 우려를 나타냈다. 앞서 제주도의회 이상봉 의원(더불어민주당)은 지난달 28일 건물의 대수선·재건축·멸실 등 불가항력에 의한 경우에만 카지노사업장 이전을 허용하는 내용을 담은 개정 카지노업 관련 조례개정안을 입법 예고했다. Tag #카지노업 #한국카지노업관광협회 #카지노업관광협회 #제주관광산업 #제주도의회 #카지노사업장 #조례개정안 #카지노사업자 #과잉금지원칙 #이상봉의원 #제주도 저작권자 © 베이비타임즈 무단전재 및 재배포 금지 김복만 기자 다른기사 보기 관련기사 카지노관광협회 “제주카지노산업 규제보다 정책적 육성해야” 한국카지노업관광협회 2018년 대학생 서포터즈 출범 [기자수첩] 제주관광산업 발전 막는 카지노사업장 이전제한 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기뉴스 1이동환·고철용, ‘원당4구역 668억원 환수’ 손잡고 길 텄다 2“유보통합, 장애영유아 의무교육부터 실현해야” 3hy, 24시간 운영 무인 매장 ‘프레딧샵’ 오픈...서울 양천구에 ‘첫 선’ 4유한킴벌리, 온 가족용 ‘그린핑거 포레스트 핸드케어’ 출시 5[사람과 법률] 대학교 내 조경관리 업무 중 뇌출혈 발병 사건 6양천구 목사랑시장, 전통시장 활성화 유공 중기부장관상 수상 7블랙야크 키즈, 토들러 라인 첫선…“타겟 확장할 것” 8세 번째 교육부장관 후보에 이주호 전 교육과학기술부 장관 지명 9[여성기업인 인터뷰④] “뚜벅뚜벅 진실된 모습과 꼼꼼한 결과로 승부했다” 10NBA키즈, ‘스니커즈 라인’ 론칭…“키즈 종합 패션으로” 카드뉴스 서울시, ‘상생주택‘ 2026년까지 공급 본격화 서울시, ‘상생주택‘ 2026년까지 공급 본격화 ‘원인불명’ 원숭이두창, 대체 뭐길래? ‘원인불명’ 원숭이두창, 대체 뭐길래? 안전하고 건강한 일상, 코로나19 후유증 바로 알기 안전하고 건강한 일상, 코로나19 후유증 바로 알기 고위험군 소아, 코로나19 예방접종 꼭 해야하는 이유는? 고위험군 소아, 코로나19 예방접종 꼭 해야하는 이유는? 식약처 ‘주사제 유리 앰플’ 사용법 안내 식약처 ‘주사제 유리 앰플’ 사용법 안내 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 영등포구 선유로 13길 25 에이스하이테크시티 2차 408호 대표전화 : 070-7756-6500 청소년보호책임자 : 지태섭 법인명 : ㈜베이비타임즈 제호 : 베이비타임즈 등록번호 : 서울 다 10520 등록일 : 2012-09-18 발행일 : 2012-10-02 발행인 : 송계신 편집인 : 송계신 베이비타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 베이비타임즈. All rights reserved. mail to bbtimes@babytimes.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 체험 실내관광지 ‘제주실탄사격장’, 차별화된 색다른 경험 제공 - 아이티비즈 × 전체기사 뉴스 전체 SW 보안 인터넷 통신 네트워크 모바일·콘텐츠 산업/경제 문화/생활 기획&amp;정책 전체 특집 업체탐방 인터뷰 리뷰 이슈분석 트렌드 비즈니스모델 리서치&amp;오피니언 전체 선호도조사 만족도조사 수요조사 시장조사 디지털경제 전체 금융 통신 공공 제조·유통 서비스 의료 교육 제약·물류 라이프 전체 컬럼 기고 문화생활 피플&amp;포토 전체 인사 동정 부음 축하 사무실이전 신간 이벤트 전체 세미나 포럼 조찬회 어워드 UPDATED. 2022-10-04 10:21 (화) 로그인 회원가입 기사제보 모바일웹 전체 최신뉴스 SW 보안 인터넷 통신 네트워크 모바일·콘텐츠 산업/경제 문화/생활 기획&amp;정책 특집 업체탐방 인터뷰 리뷰 이슈분석 트렌드 비즈니스모델 리서치&amp;오피니언 선호도조사 만족도조사 수요조사 시장조사 디지털경제 금융 통신 공공 제조·유통 서비스 의료 교육 제약·물류 라이프 컬럼 기고 문화생활 피플&amp;포토 인사 동정 부음 축하 사무실이전 신간 기사검색 검색 이전 다음 제주도 체험 실내관광지 ‘제주실탄사격장’, 차별화된 색다른 경험 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 라이프 문화생활 제주도 체험 실내관광지 ‘제주실탄사격장’, 차별화된 색다른 경험 제공 김종영 기자 승인 2019.02.04 10:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 연중무휴 사시사철 각종 이색체험과 볼거리가 가득해 언제나 관광객들로 붐비는 우리나라 휴양지 제주도는 지금 설 연휴시즌에 더욱 인기가 높아지고 있다. 이에 제주도 체험 실내관광지로 알려진 ‘제주실탄사격장’에서는 연예인과 유명인들이 다수 방문하는 등 색다른 경험을 제공한다고 밝혔다. ‘제주실탄사격장’ 관계자에 따르면 “주차장이 비교적 넓고 전기차 충전기 또한 구비하는 등 찾아오는 손님들의 편의를 많이 고려하였고 실내가 넓고 쾌적하며 휴게실도 구비되어 있어 간단한 차와 자판기용 음료를 마실 수 있게 조성하였다. 따라서 가족여행객이 찾아오더라도 보다 간편하게 체험을 진행할 수 있도록 돕고 있다”라고 전했다. 이어 “직원들이 서비스를 돕고 있으며 처음 체험을 진행하는 고객들에게도 비교적 쉽게 다가갈 수 있도록 하고 있다. 또한 체험장의 장소가 중문에 위치해 있어 주변 관광지를 다녀온 후에도 쉽게 올 수 있어 여행코스로 적합하다”고 말했다. ‘제주실탄사격장’은 현재 실탄사격(신분증 필수, 14세 이상 가능)과 비비탄사격, 시뮬레이션사격 등 총 세가지로 구분된다. 실탄사격의 경우 방탄조끼와 헤드폰을 쓰고 총의 조준높이를 과녁의 십자에 맞춰 발사하면 되고 사격 이후에는 종이를 카운터로 가져와 점수 확인이 가능하다. 물론 실탄 및 탄피는 절대 외부반출이 금지되고 있다. 비비탄사격은 개머리판을 어깨에 고정하여 편하게 자세를 취한 후 가름쇠를 가늠자 안의 정중앙에 위치시키는 등 실제 사격의 자세에 임하여 체험해볼 수 있도록 도와 남녀노소 누구나 진행할 수 있도록 하고 있다. 또한 시뮬레이션사격은 다양한 화면이 나와서 지루하지 않고 마치 게임을 하듯 재미가 있어 가족단위 여행객에게 적합하다. 한편 ‘제주실탄사격장’은 연중무휴로 운영되어지고 있으며 총 8사로를 구비해 체험사격을 진행 중이다. 저작권자 © 아이티비즈 무단전재 및 재배포 금지 김종영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1이통3사, 아이폰 14 시리즈 사전예약 시작…마케팅 경쟁 돌입 2엔비디아, 중앙 집중식 차량용 컴퓨터 ‘드라이브 토르’ 공개 3네이버파이낸셜, 소상공인 위한 '정책지원금 추천' 서비스 시작 4매스아시아, 中 홍지그룹과 E-모빌리티 사업 협력 5KT, 글로벌 AI 경쟁력 키운다…캐나다 ‘벡터연구소’와 파트너십 6한국레노버, 씽크북 16p 3세대 출시 7'디지털금융 2.0 시대 연다'…하나銀-네이버파이낸셜, 혁신금융 맞손 8LG전자, 6G 시대 주도권 선점 나선다…글로벌 산학연 전문가 한자리에 9‘클라우드 엑스포 코리아 2022’, 28일 부산에서 열려 10태니엄 “XEM 플랫폼·클라우드 솔루션 통해 국내 시장 공략” 최신기사 네이버, 2.3조에 북미 패션 플랫폼 ‘포쉬마크’ 샀다…글로벌 C2C 시장 선점 가속화 나스미디어, KT넥스알과 데이터 관리 플랫폼 고도화 LG전자, ‘코드제로 오브제컬렉션 R9’ 출시 SKT, 이프랜드서 매일 새로운 메타버스 콘텐츠 선보인다 KT, 가정용 공유기 ‘기가 와이파이 프리미엄6E’ 출시 LG유플러스, '오비고'에 72억 투자…커넥티드카 시장 경쟁력 강화 LG전자, 97형 올레드 TV 앞세워 북미 프리미엄 시장 공략 가속화 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (우)02825 서울특별시 성북구 아리랑로5길 85, 101동 1901호 대표전화 : 02-919-8363 청소년보호책임자 : 김건우 명칭 : 아이티비즈랩 제호 : 아이티비즈 등록번호 : 서울 아02297 등록일 : 2012-10-18 발행일 : 2012-10-18 발행인 : 박미숙 편집인 : 박미숙 아이티비즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 아이티비즈. All rights reserved. mail to webmaster@it-b.co.kr 위로</t>
-  </si>
-  <si>
-    <t>올해 설 연휴 관광객, 제주도 대신 해외 선택했다 - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 올해 설 연휴 관광객, 제주도 대신 해외 선택했다 해외 항공권 예약 18% 증가…日 오사카·후쿠오카 1∼2위 디지털뉴스부 입력: 2019-02-03 09:56 올해 설 연휴, 제주도 보다 해외여행을 선택한 관광객들이 지난해 대비 늘어난 것으로 나타났다. 3일 모바일커머스 티몬에 따르면 설 연휴 일주일(1월 31∼2월 6일) 동안 자사의 국내외 항공권 예약 건수를 분석한 결과, 해외여행 항공권은 지난해 설 연휴 기간(2018년 2월 12∼18일)보다 18% 증가했다. 반면 제주도 항공권 예약 건수는 이 기간 18% 감소했다. 올해 설 연휴 해외 인기 여행지 1∼2위는 지난해와 마찬가지로 일본 오사카와 후쿠오카가 나란히 차지했다. 대만 타이베이, 베트남 다낭, 일본 도쿄 등이 그 뒤를 이었다. 추운 지역으로 떠나는 관광객이 늘었다는 것도 특징이다. 일본 삿포로 항공권 예약은 75%, 러시아 블라디보스토크행 예약은 46% 증가하는 등 우리나라보다 춥지만, 이색적인 지역이 인기 여행지로 새롭게 떠올랐다.디지털뉴스부기자 dtnews@dt.co.kr 일본 홋카이도 오타루시. 연합뉴스 제공. [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 좌표찍기·언론탄압? 대통령실, 4년전 靑대변인 본받았다면…[한기호의 정치박박] [The Car] “해외서는 G80보다 우위”…입지 공고해지는 제네시스 G70 中 20차 당대회 끝나면 대만이 위험하다[박영서의 글로벌 아이] [THE GAME] 넥슨, 신작 잭팟에 인재 채용… 흥행 영수증 잇는다 이 시간 핫클릭 김기현 폭발, 이재명 겨냥 “형수에 욕설 퍼붓고도 큰소리 뻥뻥…기가 찰 노릇” 김건희 박사 논문, 심사위원 5명 필적 "동일인 추정" 감사원 `서해피살` 문 전대통령 정조준…與 "`월북 명예살인` 규명 당연" 국힘 "MBC 尹 발언 왜곡보도후 美백악관에 이간질까지…`바이든` 자막의도 밝혀야" 가장 많이 본 기사 문화일보 핫 뉴스1이스라엘 유적지서 동로마시대 금화 무더기 발굴 2국무총리 정세균?...포항지진피해심의위, 홈페이지 방치하고 태풍 힌남노 복구 기간에 지원금 환수 절차 3“상상도 못할 말로 우릴 씹어대”…박연수, 가족 험담에 분노 4노벨 생리의학상에 ‘인류 진화’ 연구자 스반테 페보 5영국발 금융위기론 촉발한 대규모 감세 정책, 열흘 만에 ‘백기’든 신임 총리 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
-  </si>
-  <si>
-    <t>제주도 중문 관광단지 맛집 통갈치구이 효리의단골집을 찾아서 ‘이조은식당’ &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문 관광단지 맛집 통갈치구이 효리의단골집을 찾아서 ‘이조은식당’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 중문 관광단지 맛집 통갈치구이 효리의단골집을 찾아서 ‘이조은식당’ 기자명 장준영 기자 승인 2019.02.03 10:00 댓글 0 조회수 : 5334 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 외국으로 나가지 않아도 이국적인 휴양지의 느낌을 물씬 느낄 수 있는 제주도는 천혜의 자연경관과 함께 즐길거리 먹거리가 풍부해 사시사철, 남녀노소 인기인 곳이다. 제주도필수여행코스로는 한라산의 백록담과 오설록티뮤지엄, 대포주상절리, 용머리해안 등이 있다. 제주도의 곳곳을 다니고 싶다면 제주공항근처에 숙소를 정하는것도 추천한다. 교통이 편리하고 제주공한 근처로 이호테우해변, 용담해안도로, 용두암 등 관광지가 많고 애월,한림,서귀포 등 제주도 대표 관광지까지 쉽게 다닐 수 있기 때문이다. 제주도 겨울여행지로 손꼽히는 제주 중문 관광단지는 중문해수욕장을 비롯해 천제연폭포, 여미지 식물원 등 볼거리와 놀거리가 충분하며, 여러 고급 숙박시설까지 자리해 단기는 물론 장기 여행에도 적합하다는 평이 많다. 때문에 중문관광단지 인근에는 관광하며 허기진 배를 채울 수 있는 음식점도 즐비한데 그중 제주 중문 맛집 ‘이조은식당’이 영양소가 풍부함은 물론, 최근 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 눈길을 끌고 있다. 이 곳은 2대째 이어온 제주 서귀포 갈치조림 맛집으로 갈치조림과 함께 갈치 회, 갈치구이를 다루며, 이를 보다 합리적으로 맛볼 수 있는 정식 메뉴도 판매하고 있다. 대표 메뉴는 갈치 회, 갈치조림을 기본으로 제공하면서 갈치구이와 고등어구이 중 하나를 선택해 총 세가지 메뉴를 즐길 수 있게 한 갈치 정식으로, 이 밖에도 네가지 정식 메뉴와 스페셜 메뉴 한 가지를 선보이고 있다. 이 외에도 1인, 혹은 2인이서 주문할 수 있는 식사류를 다루고 있다. 갈치조림과 고등어조림은 2인이서 즐길 수 있는 대표 식사류로, 그 밖에 고등어구이, 전복뚝배기, 전복죽, 성게국, 갈치덮밥, 한치회덮밥 등 해산물을 주재료로 한 메뉴를 다양하게 판매한다. 제주 서귀포 맛집 이조은식당 관계자는 “갈치조림과 갈치 회를 비롯해 다양한 갈치 요리를 저렴하게 제공하고 있는데 이같은 합리적인 가격과 정성 담아 맛을 한껏 살린 요리들로 제주도민과 제주 중문관광단지를 찾는 관광객들로부터 입소문을 타 중문관광단지 맛집으로 알려지고 있다. 제주도에 거주하는 연예인도 자주 방문한다”고 전했다. 이어 “중문관광단지 인근에 있어 관광 전후로 방문하기 용이하며, 관광지 근처인 특성상 편의시설이나 교통편도 잘돼있다. 연말을 맞아 한 해를 마무리하기 위해 많은 여행객이 찾고있는데 관광과 함께 맛있는 음식을 즐기며 잊지 못할 추억을 만들고 가기 바란다”고 덧붙였다. '이조은식당'은 가까이에 위치한 여러 관광지때문에 천지연폭포 맛집, 쇠소깍 맛집,카멜리아힐 맛집,표선해수욕장 맛집, 중문색달해수욕장 맛집, 화순금모래해수욕장 맛집 등 다양한 수식어로 불리며 제주도 맛집 베스트 10에 속한다. 한편, 제주도 중문 가볼만한 곳으로는 중문색달해수욕장과 실탄사격장, 박물관은 살아있다, 플레이케이팝, 미로파크, 어촌체험, 테디베어박물관 등이 더불어 인기다. 장준영 기자 pamir63@busaneconomy.com 장준영 기자 pamir63@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 부산 사상구의회 ‘골목상권 공동체 육성 및 활성화 지원’ 조례 제정 더불어민주당 부산시당, “경남이 걷어찬 부울경 메가시티, 대통령실이 정리해야” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 선배가 들려주는 창업… 말랑하니의 ‘성장 스토리’ 르노코리아차, SM6 필 트림 새롭게 출시 부산 치의학 인재 양성 지산학 협력… 30호 브랜치 ㈜디오에 개소 XM3, 부산공장 생산 20만대 돌파 인기뉴스 1 HJ중공업, 거제공장 개장…일감 증가에 조선부문 투자확대 2 [인터뷰] “인기절정 신혼여행지 몰디브, 사전예약 통해 알뜰하고 지혜롭게” 3 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 4 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” 5 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 6 국립해양박물관 소장 ‘감로도’, 부산시 문화재 지정 7 BNK캐피탈 “AI챗봇으로 고객편의·업무효율 제고” 8 캠코, 2384억원 규모 압류재산 공매…부산 32건 포함 포토뉴스 부산인터넷방송국, 2022 우수벤처기업 선정 올해 하반기 부산시 산하 공공기관 채용 경쟁률 44대 1 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 최신뉴스 부산인터넷방송국, 2022 우수벤처기업 선정 올해 하반기 부산시 산하 공공기관 채용 경쟁률 44대 1 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>관광객·이주민 외면받는 제주도, 이유는 :: 공감언론 뉴시스통신사 :: 2022.10.04 (화) 서울 16℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹, NSC참석...한미일 안보협력 수준 상향 협의 지시 [속보]안보실 尹참석 NSC 개최 "北 도발 묵과 못해...대가 반드시 따를것" [속보]최강욱 '채널A 기자 명예훼손 혐의' 1심서 무죄 [속보]"北 탄도미사일, 4000㎞ 이상 비행…日 동쪽 약 3000km 해역 낙하 가능성" NHK [속보]尹 "서해공무원 사건 성역없는 수사가 일반 원칙" [속보]尹"北, 4천km미사일 발사...국제사회 결연히 대응할 것" [속보]尹 "대통령 외교는 국익위한 것...순방서 많은 성과 거양" [속보]尹, 감사원 文조사 논란에 "감사원은 독립기관…대통령이 언급 부적절" [속보]美 "北, 올해 탄도미사일 39발 발사…한·일 안보 약속 의심 말라" [속보]기시다 日총리 "北 탄도미사일 발사는 폭거" 강력 비난 [속보]日 관방장관 "북 미사일 동북상공 통과…EEZ 밖으로 낙하 추정" [속보]합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 오전까지 전국 가을비…비 그친 뒤 낮부터 기온 '뚝' 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 관광객·이주민 외면받는 제주도, 이유는 등록 2019.02.03 09:30:21 작게 크게 제주 찾는 내국인 관광객·이주민 급격하게 줄어 부동산가격 급등·생활환경 악화·범죄 우려 등 원인 【제주=뉴시스】제주공항 여객기들이 이륙을 준비하고 있다. 2019.02.03. (사진=뉴시스DB) 【제주=뉴시스】배상철 기자 = 가보고 싶은 섬, 살아보고 싶은 섬으로 인기를 끌었던 제주도가 외면받고 있다. 관광객은 발길을 돌렸고 제주살이 열풍은 언제 그랬냐는 듯 시들해졌다. 다양한 진단이 나오고 있는 가운데 해결방안 모색이 시급하다는 목소리가 나온다. 3일 제주관광협회에 따르면 지난 2018년 말 기준 제주를 찾은 관광객은 1431만3961명으로 전년(1475만3236명)명에 비해 3%(43만9275명) 줄었다. 이 기간 내국인 관광객은 1352만2632명에서 1308만9129명으로 3.2%(43만3503명) 줄어 감소세를 이끌었다. 외국인 관광객은 0.5%(5772명) 줄었다. 내국인 관광객 증감이 하락세로 돌아선 것은 지난 2004년 이후 14년 만이다. 그간 제주를 찾는 내국인이 매년 100만명 이상 증가할 정도로 관광지로서 각광을 받았다는 점을 고려하면 이례적인 현상이다. 관광객이 발길을 돌리기 시작한 데는 복합적인 요인이 작용했다는 분석이다. 우선 해외여행의 가격 접근성이 낮아지면서 경쟁이 심화하고 있는 데다 국내 지자체들도 관광객 유치에 적극적으로 나서면서 제주로 올 이유가 없어졌다는 지적이다. 【제주=뉴시스】배상철 기자 = 제주 방문 내국인 관광객수. 2019.02.03. (사진=제주관광협회 제공) bsc@newsis.com 최근 계속해서 전해지는 범죄 소식도 제주가 안전하지 않다는 인식을 줘 관광객의 발길을 돌리게 했다. 실제로 매년 제주를 여행한다는 황정민(31·경기)씨는 “관광객을 대상으로 하는 범죄가 연일 발생하고 있어 여행이 꺼려지는 것이 사실”이라며 “올해는 다른 곳으로 갈까 고민하고 있다”고 말했다. 이외에도 제주공항의 항공기 수용능력 포화와 골프장에 대한 개별소비세 감면혜택 폐지 등도 영향을 미쳤다. 관광객뿐만 아니라 제주에 살겠다는 이주민도 급격하게 줄었다. 통계청에 따르면 지난 2018년 기준 제주로 전입한 인구에서 전출한 인구를 뺀 순이동 인구는 8853명으로 전년(1만4005명)보다 36.8%(5152명) 감소했다. 지난 2010년을 시작으로 8년간 증가세를 보이던 순이동 인구가 감소세로 돌아선 것이다. 특히 지난해 1월 1038명이었던 순유입 인구가 12월에는 47명으로 급감할 정도로 제주로의 이주열풍은 시들해지고 있다. 【제주=뉴시스】한산한 제주공항. 2019.02.03. (사진=뉴시스DB) 이주민이 줄어들고 있는 원인으로는 그간 급격한 인구 증가에 따른 부동산 가격 상승과 이로 인한 생활환경 악화가 손에 꼽힌다. 제주 부동산 가격은 순이동 인구의 증가세와 맞물려 지난 2010년부터 상승하기 시작했고 2015년부터는 매년 10% 이상 급증했다. 지난해 행정시별 표준지 공시지가 상승률의 경우 서귀포시가 17.23%, 제주시가 15.79%로 전국 시군구 가운데 가장 높은 수준을 기록할 정도다. 쓰레기 처리 시설과 주차 공간 부족 등 급격하게 증가한 인구를 따라가지 못하는 시설도 제주를 외면받게 했다. 4년째 제주에서 살고 있다는 이주민 김모(34)씨는 “처음 이주해 올 때만 해도 교통체증과 주차난이 이렇게까지 심각하지 않았다”면서 “쓰레기 처리 문제도 그렇고 제주가 직면한 문제들을 빨리 해결해야 할 것”이라고 말했다. bsc@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 엔저쇼핑 러시 이제는 마약오염국 위기의 금융시장 오피니언 부부듀오 '선과영' 어른의 노래로 전하는 뭉근한 위로 담았죠 전재훈 기자 무심코 쓴 마약 신조어 범죄 경각심 낮춘다 뉴시스 PIC 中 국경절 중화인민공화국 성립 73주년 행사 거행 사진으로 보는 지난 주말 가을비 속에... 우비 입은 수문장의 임명의식 '기다려'... 기다려대회를 아시나요? 이시간 핫 뉴스 고우리, 5세 연상 사업가와 오늘 결혼 제니·뷔 '사생활 유출'에…YG, 결국 공식입장 내놨다 홍현희, 바로 둘째 임신?…사진 한장에 김지민 화들짝 성유리 "바람 피우는 사람 더 보수적"…외도에 분노 러시아인 안현수, 푸틴 징집령 이후 국내서 포착 "딸 송지아 가슴에 피멍"…박연수, 가족 험담에 분노 75세 女-38세 男 '다정한 부부' 유튜버 혼인신고 살찐 구혜선 몰라보겠네…"마음이 힘들었다" 오늘의 헤드라인 "北 탄도미사일, 4500여km 비행日상공 통과…한때 주민 대피령 북한이 최근 10일 동안 5차례 미사일 도발을 강행하며 위협 수위를 높이고 있다. 특히 앞선 4차례 미사일 발사와 달리 이번에는 일본 상공 넘어로 중거리 탄도미사일을 발사하며 동아시아 안보에 큰 위협이 되고 있다. 4일 합동참모본부는 오전 7시23분경 북한 자강도 무평리 일대에서 동쪽 방향으로 중거리 탄도미사일 1발이 발사됐다고 밝혔다. 해당 "尹 "감사원은 헌법기관…대통령이 언급 부적절" "한미연합사 평택 기지로 이전 개시…이달말 완료 "재정준칙 없으면 2060년 1인당 나랏빚 1억 넘는다 "억대 외제차 굴리며 임대주택…'가짜 서민' 수두룩 "금융위 "증안펀드·공매도 금지 등 전문가 논의 중" "확진 1만6423명…사망 19명, 63일만에 20명 밑돌아 "네이버, 미국판 당근마켓 '포쉬마크' 2.3조에 인수 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1박유진, 16세 첫 출산→18세 새남친과 임신…'친정과 갈등' 분가 18세 엄마 박유진이 어린 나이에 출산한 뒤 새 가정을 꾸리게 된 사연을 털어놓는다. 4일 오후 10시20분 방송하는 MBN 예능 '어른들은 모르는 고딩엄빠2(이하 고딩엄빠2)' 18회에서는 박유진이 출연해 파란만장한 인생사를 솔직하게 들려준다. 박유진은 14세 중1 시절 박유진은 평소 친하게 지내던 남사친에게 고백을 받아 진지하게 만나기 시작한다. 그러나 1년 뒤 남자친구는 180도 달라진 모습을 보이고 급기야 박유진을 협박하는 극단적 행동까지 해 스튜디오를 충격에 빠뜨린다. 결국 박유진은 남자친구와 이별하지만, 2"12세 겨울 두만강 건너 탈북"…'펜트하우스' 장명진, 추위 안타는 이유 3"미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 4황보라, 하정우 동생과 혼인신고 "시험관 시술 준비" 5합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 1합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 합동참모본부(합참)는 4일 북한이 동쪽 방향으로 미상의 탄도미사일을 발사했다고 밝혔다. 현재 군 당국은 미사일의 제원, 고도, 속도, 비거리 등을 정밀 조사하고 있다. 북한의 미사일 도발은 지난 1일 이후 3일 만에 다시 재개된 것으로, 최근 10일 동안 총 5번의 미사일 도발을 감행했다. 지난달 25일 지대지 단거리 탄도미사일(SRBM) 1발을 평북 태천 일대에서 발사했고, 28일에는 평양 순안 일대에서 SRBM 2발을 발사했다. 29일에는 평안남도 순천 일대에서 SRBM 2발을 발사한 바 있다. 지난 1일 2"한국인 다수, 美 대북 메시지보다 인플레법 중시" 3북한, 동쪽으로 탄도미사일 발사…3일만에 미사일 도발 재개(2보) 4尹정부 첫 국정감사…與 '文 때리기' vs 野 '尹 무능론' 격돌 5용적률 완화에 건물 간 이격거리 '협소'…대형 화재 매년 증가 1"미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 우크라이나 전쟁과 관련 블라디미르 푸틴 러시아 대통령의 핵무기 사용 위협에 직면한 미국이 대응 방법을 검토중이라고 미 CNN이 3일(현지시간) 보도했다. 미국은 전쟁 초기부터 푸틴이 핵과시 공격을 시도할 가능성에 대응하는 비상계획을 준비하기 시작했다. 이와 관련 한 당국자는 러시아가 자포리자 원자력 발전소를 공격하거나 핵무기를 고공 또는 비거주지역에 폭발시키는 방안 등이 이에 해당된다고 밝혔다. 당국자들은 러시아의 핵공격 준비 움직임은 포착되지 않았다고 밝혔다. 그러나 전문가들은 러시아의 우크라이나 점령 실패와 우 2"한국인 다수, 美 대북 메시지보다 인플레법 중시" 3"푸틴의 핵위협 심각하게 받아들여야" WSJ 4OPEC+, 대규모 감산 검토…"유가 100달러 복귀 전망"(종합) 5美 '역대급' 허리케인 이언 사망자 100명 넘어…"복구에 상당한 시일" 1보호무역주의·패권경쟁 속 생존법은? '수출로 먹고사는 나라'. 우리나라의 경제 발전 과정을 설명할 때 자주 소개되는 문장이다. 그만큼 수출이 우리 경제에서 차지하는 비중은 크다. 당장 코로나19 위기를 겪었던 지난해 4%대 성장률을 기록할 수 있었던 것은 수출이 든든한 버팀목 역할을 했기 때문이다. 올해 상황은 다르다. 무역수지 적자 규모가 역대 가장 클 것이라는 전망도 나온다. 우리나라가 수출로 돈을 벌지 못한다는 뜻인데, 이는 글로벌 금융위기를 겪던 2008년 이후 14년 만이다. 여러 이유가 있겠지만 보호무역주의와 주요국 패권 경쟁에 따른 글 2금융·증권(10월4일 화요일) 3경제(10월4일 화요일) 4경매시장 '꽁꽁'…서울 아파트 낙찰가율 2년 6개월만 '최저' 5하나증권, 현직 임원 48억 배임 고소…내부 감사서 파악 1자영업자 채무조정 지원 '새출발기금', 오늘 공식 출범 코로나19 극복과정에서 불가항력적 피해를 입은 소상공인·자영업자를 돕기 위한 최대 30조원 규모의 맞춤형 채무조정 프로그램 '새출발기금'이 4일 공식 출범했다. 이날부터 전국 76개소에 마련된 오프라인 현장창구와 온라인 플랫폼을 통해 새출발기금을 신청할 수 있다. 금융위원회와 한국자산관리공사(캠코)는 이날 서울 캠코 양재타워에서 19개 금융협회·금융기관이 참석한 가운데 '새출발기금 업무협약'을 맺었다고 밝혔다. 출범식에는 백혜련 정무위원장, 이영 중소벤처기업부장관, 김주현 금융위원장, 새출발기금 이사진, 금융협회장 및 금융 2금융·증권(10월4일 화요일) 3지니언스 "EDR 제품 첫 국정원 보안기능확인서 획득" 4하나증권, 현직 임원 48억 배임 고소…내부 감사서 파악 5미 증시 랠리에 비트코인도 급등…2800만원대 1'마지막 손실보상' 9일까지 홀짝제…확인요청·보상 신청 올해 2분기(4~6월) 소상공인 손실보상 신청 5부제가 4일부터 해제된다. 이날 오프라인 신청이 시작되는 가운데 9일까지 사업자등록번호 끝자리를 기준으로 '홀짝제'가 운영된다. 확인요청·확인보상 신청도 이날부터 가능하다. 손실보상금은 소상공인지원법에 따라 방역조치 이행에 따른 손실금을 분기별로 지급하는 것이다. 일회성 지원금인 '손실보전금'과는 다르다. 사회적 거리두기 조치가 지난 4월17일자로 해제돼 보상금 지급은 이번이 마지막이다. 중소벤처기업부(중기부)에 따르면 이날부터 사업자등록번호 끝자리 기준 5부제 손실보상 신 2보호무역주의·패권경쟁 속 생존법은? 34족 보행로봇 구경오세요…로봇세일페스타 7~9일 4 국내 유통 '일본산' 가전·주류 가격 내렸을까 51억 넘는 외제차 굴리며 임대주택 거주…'가짜 서민' 수두룩 1네이버, 북미 1위 패션플랫폼 포쉬마크에 2.3조 '베팅'…"실리콘밸리서 진검승부" 네이버는 북미 최대 패션 소비자대소비자(C2C) 커뮤니티 포쉬마크(Poshmark, Inc.)를 인수한다고 4일 밝혔다. 취득 금액은 2조3441억원 규모다. 최수연 대표가 네이버 경영을 맡은 후 던진 최대 승부수로로, 네이버 역사상 가장 큰 규모의 빅딜이다. 네이버는 포쉬마크의 순기업 가치를 주당 17.9 달러, 순기업가치 12억 달러로 평가했다. 포쉬마크가 보유한 현금 5.8억 달러에 대한 대가를 포함한 총 인수대금은 16억 달러이다. 네이버는 이번 인수가 버티컬 플랫폼으로의 진화가 빨라지고 있는 글로벌 C2C 2'일반 증인' 없는 과기정통부 국감, 망사용료·5G 현안 정조준 3폭발 화재 화일약품 "매출 피해 최소화할 것…재발 방지 최선" 4최수연號 네이버, 창사 이래 최대 빅딜…북미 C2C 정조준(종합) 5셀트리온, 27조 휴미라 시장 대체사용 추진…유럽 3상 승인 1합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 합동참모본부(합참)는 4일 북한이 동쪽 방향으로 미상의 탄도미사일을 발사했다고 밝혔다. 현재 군 당국은 미사일의 제원, 고도, 속도, 비거리 등을 정밀 조사하고 있다. 북한의 미사일 도발은 지난 1일 이후 3일 만에 다시 재개된 것으로, 최근 10일 동안 총 5번의 미사일 도발을 감행했다. 지난달 25일 지대지 단거리 탄도미사일(SRBM) 1발을 평북 태천 일대에서 발사했고, 28일에는 평양 순안 일대에서 SRBM 2발을 발사했다. 29일에는 평안남도 순천 일대에서 SRBM 2발을 발사한 바 있다. 지난 1일 2조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 3북한, 동쪽으로 탄도미사일 발사…3일만에 미사일 도발 재개(2보) 4오늘부터 요양병원 대면면회 재개…외출·외박도 허용 5"직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 1합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 합동참모본부(합참)는 4일 북한이 동쪽 방향으로 미상의 탄도미사일을 발사했다고 밝혔다. 현재 군 당국은 미사일의 제원, 고도, 속도, 비거리 등을 정밀 조사하고 있다. 북한의 미사일 도발은 지난 1일 이후 3일 만에 다시 재개된 것으로, 최근 10일 동안 총 5번의 미사일 도발을 감행했다. 지난달 25일 지대지 단거리 탄도미사일(SRBM) 1발을 평북 태천 일대에서 발사했고, 28일에는 평양 순안 일대에서 SRBM 2발을 발사했다. 29일에는 평안남도 순천 일대에서 SRBM 2발을 발사한 바 있다. 지난 1일 2조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 3북한, 동쪽으로 탄도미사일 발사…3일만에 미사일 도발 재개(2보) 4인천, 오전까지 30~60㎜ 비…낮부터 비 그치고 '쌀쌀' 5경기남부 오전까지 비온 뒤 '쌀쌀'...바람도 강해 14족 보행로봇 구경오세요…로봇세일페스타 7~9일 국내 로봇산업 신기술을 확인하고, 4족 보행로봇 시연도 볼 수 있는 행사가 창원에서 열린다. 경남도·창원시 주최, 경남로봇랜드재단 주관 '2022 로봇세일페스타' 행사가 오는 7일부터 9일까지 창원시 마산합포구 마산로봇랜드 일원에서 펼쳐진다. 다양한 최신 로봇 기술을 접할 수 있는 전시회로, 로봇기업들 제품 홍보 및 판로 확대, 로봇랜드 테마파크를 찾은 관람객들에게 로봇 신기술과 체험 기회를 제공하기 위해 마련했다. 첫날인 7일에는 국내 서비스로봇 발전을 논하는 '경남서비스로봇발전포럼'이 오전 10시부터 오후 23년간 외국산 삼결살·목살 국내산 둔갑시켜 판매한 업자 '집유' 3학교 손소독기 납품 알선, 계약금 절반 꿀꺽한 업자 집유 4제주 오후까지 비 최대 30㎜…낮 최고기온 24~26도 5‘제27회 부산국제영화제’ 화려한 개막…3년 만의 정상 개최 1조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 한국만화영상진흥원이 주최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림이 전시돼 논란이 일고 있다. 4일 한국만화영상진흥원에 따르면 전날 폐막한 제23회 부천국제만화축제 전시장에 ‘윤석열차’라는 제목의 만화가 전시됐다. 이 작품은 고등학생이 그린 카툰으로, 윤 대통령의 얼굴을 한 열차가 연기를 내뿜으며 달리자 시민들이 놀라 달아나는 모습을 담고 있다. 또 조종석 위치에는 윤 대통령의 부인 김건희 여사로 추정되는 인물이 자리하고 있으며 나머지 열차에는 검사복을 입은 이들이 칼을 들고 서 있었다. 이 작품은 2'푸에르자 부르타', 안방서도 본다…오늘 온라인 스트리밍 3국립극장 여우락과 협업…주영한국문화원, 'K-뮤직 페스티벌' 4임동민·케이트 리우·아르멜리니, 쇼팽으로 뭉친 세 피아니스트 5‘제27회 부산국제영화제’ 화려한 개막…3년 만의 정상 개최 1최지훈, 관중과 언쟁 이유는…"어린이팬 잘못 없어요" KIA 타이거즈와 SSG 랜더스의 경기가 열린 지난 1일 광주-기아 챔피언스필드. SSG가 3-2로 앞선 9회말 1사 2루 상황에서 KIA 최형우가 친 타구가 우중간 펜스 쪽으로 날아갔다. 우중간을 갈라 2루타가 될 수도 있는 타구였는데, 당시 우익수로 나서있던 최지훈이 빠르게 달려가 정확하게 점프해 타구를 낚아챘다. 타구를 잡은 최지훈은 재빨리 내야 쪽으로 송구했다. 문제는 그 다음이었다. 타구를 잡은 뒤 펜스에 부딪힌 최지훈은 갑자기 외야 관중석 쪽을 바라보며 불만을 드러냈다. 수비를 위해 우중간 쪽으로 달려왔 2'2주 연속 우승' 김수지, 세계랭킹 38위로 점프 3무라카미, 일본인 최다 56홈런+트리플크라운…30억 집이 선물로 4올해 크리스마스 씰 주인공은 손흥민 5인니 참사로 부각된 축구장 안전…반입 금지 품목은? 1박유진, 16세 첫 출산→18세 새남친과 임신…'친정과 갈등' 분가 18세 엄마 박유진이 어린 나이에 출산한 뒤 새 가정을 꾸리게 된 사연을 털어놓는다. 4일 오후 10시20분 방송하는 MBN 예능 '어른들은 모르는 고딩엄빠2(이하 고딩엄빠2)' 18회에서는 박유진이 출연해 파란만장한 인생사를 솔직하게 들려준다. 박유진은 14세 중1 시절 박유진은 평소 친하게 지내던 남사친에게 고백을 받아 진지하게 만나기 시작한다. 그러나 1년 뒤 남자친구는 180도 달라진 모습을 보이고 급기야 박유진을 협박하는 극단적 행동까지 해 스튜디오를 충격에 빠뜨린다. 결국 박유진은 남자친구와 이별하지만, 2"12세 겨울 두만강 건너 탈북"…'펜트하우스' 장명진, 추위 안타는 이유 3황보라, 하정우 동생과 혼인신고 "시험관 시술 준비" 4"널 사왔다"며 용돈 100만원 받는 백수남편…'결혼지옥' 5블랙핑크·레드벨벳…K팝, '클래식 샘플링' 다시 주목하는 이유 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 새출발기금 채무조정에 3410명 사전신청…5361억 규모 부산교육청, 2023학년도 전·후기고 입학전형 안내 민주, 감사원 文조사 계기…'문재명 지키기' 총력 [산청소식]군·실크연구원, 축제 콘텐츠 발굴 협약 등 코로나 꺽이니 간호인력 구조조정…경북대 106명 감축 [속보]尹, NSC참석...한미일 안보협력 수준 상향 협의 지시 해조류 '바다대나무'서 피부질환 유발 염증 억제 효능 발견 [속보]안보실 尹참석 NSC 개최 "北 도발 묵과 못해...대가 반드시 따를것" 로이킴, 선공개 싱글 '그때로 돌아가' 14일 발매…2년5개월만 마사회 부경본부, 말과 교감하며 환자 마음 치료 경남, 3일 975명 신규 확진…이틀 연속 세자릿 수 HSD엔진, 삼성중공업 선박 엔진 공급 계약 체결 민주, 감사원 文조사 계기…'문재명 지키기' 총력 코로나 꺽이니 간호인력 구조조정…경북대 106명 감축 [속보]尹, NSC참석...한미일 안보협력 수준 상향 협의 지시 [속보]안보실 尹참석 NSC 개최 "北 도발 묵과 못해...대가 반드시 따를것" 이창양 "美에 IRA 차별 반대 입장 전달…수출강화전략 추진" 권영세, 獨 숄츠 총리 만나 "한반도 평화·통일 지지" 당부 "정부, 식량자급 목표 달성 번번이 실패…적정 농지 확보 계획 부실" [속보]최강욱 '채널A 기자 명예훼손 혐의' 1심서 무죄 이상민 장관 "변화 기민대응 위해 정부 운영체계 개편" 北, 일본 상공 넘어로 중거리 탄도미사일 발사…10일 동안 5차례(종합) 주호영 "정부조직개편안, 국감 중 발표될 수도…정기국회 중 결론" 민주 "尹정권, 문재인·이재명 죽이기로 무능 가리려 해"(종합) 아이티서 콜레라환자 발생..9700명 사망 2010년 악몽 재현되나 권영세, 獨 숄츠 총리 만나 "한반도 평화·통일 지지" 당부 머스크, 트위터서 우크라 평화안 투표 논란…"크름반도는 러 영토" "푸틴의 핵위협 심각하게 받아들여야" WSJ 中 국경절 중화인민공화국 성립 73주년 행사 거행 크렘린 "우크라 나토 가입 시도 예의주시" 9월 일본 자금공급량 6285조원 3.3%↓..."감소 10년5개월 만에" "미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 엔화, 북한 미사일 발사에 1달러=144엔대 중반 상승 출발 日관방장관 "北미사일 약 20분간 4000㎞ 이상 비행…안보리 결의 위반" 구글 "중국서 번역 서비스 중단"…5년 만에 철수 美 "北 발사 상황 평가 중…올해 들어 탄도미사일 39발 발사" HSD엔진, 삼성중공업 선박 엔진 공급 계약 체결 이창양 "美에 IRA 차별 반대 입장 전달…수출강화전략 추진" "정부, 식량자급 목표 달성 번번이 실패…적정 농지 확보 계획 부실" 머스크, 트위터서 우크라 평화안 투표 논란…"크름반도는 러 영토" "규제지역 풀렸다"…10월 분양 물량, 전년 동월 대비 3배 '껑충' 셀트리온, 유플라이마 유럽 임상 3상 시험계획 승인 네이버, 美 중고 패션 플랫폼 포쉬마크 2.3조 인수 9월 일본 자금공급량 6285조원 3.3%↓..."감소 10년5개월 만에" 김문수 경사노위 위원장 취임…"노동개혁 중심축 될 것" 공공분양주택 청약 미달 30% 달해…"공급량만 채운 결과" 전국 LH 어린이집 34곳서 석면 검출…10곳 중 1곳 비율 대우건설, 독립유공자 후손 노후주택 개선 HSD엔진, 삼성중공업 선박 엔진 공급 계약 체결 신한은행, 취약차주 지원 '기업 포괄 채무조정 프로그램' 신설 김주현 "증안펀드·공매도 금지 등 전문가들과 논의 중" 네이버·F&amp;F 셀트리온, 유플라이마 유럽 임상 3상 시험계획 승인 네이버, 美 중고 패션 플랫폼 포쉬마크 2.3조 인수 유진투자선물, 해외선물 실전투자대회 개최 삼성전자·SK하이닉스 4%↑…미 증시 급등 영향 SC제일은행, 현대카드와 개인·기업 제휴카드 출시 케이뱅크, 800만 고객 돌파…3분기 여수신 1조↑ 엔화, 북한 미사일 발사에 1달러=144엔대 중반 상승 출발 신보, 삼성重 '반도체 설비 구축 프로젝트' 협력업체에 보증 지원 해조류 '바다대나무'서 피부질환 유발 염증 억제 효능 발견 이창양 "美에 IRA 차별 반대 입장 전달…수출강화전략 추진" "정부, 식량자급 목표 달성 번번이 실패…적정 농지 확보 계획 부실" 청호나이스, 정수기 4종 'IDEA 디자인 어워드' 본상 수상 전남에 전국 첫 '저메탄 조사료' 종합유통센터 들어선다 LG 구광모, 폴란드 총리 만나 부산엑스포 지지 요청 삼성전자, KES 2022서 맞춤형 '스마트싱스' 활용법 공개 "이색 가전 직접 경험"…LG전자, KES 2022서 혁신 제품 공개 김문수 경사노위 위원장 취임…"노동개혁 중심축 될 것" 삼성SDI, '친환경경영' 선언…"2050년 탄소중립 달성" 공공분양주택 청약 미달 30% 달해…"공급량만 채운 결과" '유미의 세포들'이 전하는 침대피로…한샘 'SNS 마케팅' KT엠모바일, 'e심' 특화 요금제 7종 출시…'양심' 브랜드도 선봬 에이비엘바이오 "이중항체 'ABL301' 美 임상 1상 신청" 삼성이 찜한 블록체인회사 '해치랩스', 120억 투자 유치 조이시티 자회사 로드비웹툰, ‘조이플 엔터테인먼트’로 사명 변경 컴투스 '멤버십 NFT 프로젝트', '붕어빵 타이쿤'으로 출발 콩스튜디오, '가디언 테일즈' 닌텐도 스위치 버전 출시 뱅크웨어글로벌, 마스턴투자운용 ERP 2차 구축 완료 KT, '올레 tv'→'지니 TV'로 바꾼다…미디어 계열사 시너지 강화 '위조 성적서' 받은 부적합 방송통신기자재 회수률 고작 5.4% '유미의 세포들'이 전하는 침대피로…한샘 'SNS 마케팅' 파수, 악성메일 모의훈련 ‘마인드 셋’에 보안 교육 서비스 결합 유유제약, 美 안과학회서 안구건조증 신약 홍보 부산교육청, 2023학년도 전·후기고 입학전형 안내 울산 학교들은 지금, 시나브로 말·글·얼 한글 교육 활발 충북 소방설비 오작동 빈번…소방차 헛걸음 하루 평균 10건 [인사]지디넷코리아 [속보]최강욱 '채널A 기자 명예훼손 혐의' 1심서 무죄 이상민 장관 "변화 기민대응 위해 정부 운영체계 개편" GH, 청년형 매입임대주택 228가구 입주자 모집 삐딱하게 주차해 놓곤..."조수석으로 타면 되지 않냐"는 벤츠 차주 北, 일본 상공 넘어로 중거리 탄도미사일 발사…10일 동안 5차례(종합) 전북병무청, 하반기 병역판정검사 시행…12월 7일까지 신규확진 1만6423명…사망 19명 '63일만에 20명 아래'(종합) 학벌없는시민모임 "광주시교육청, 사회적기업 제품 구매 저조" 용인시, 장애인 직업재활 '기흥직업지원센터' 개선 민·관 맞손 인천스타트업파크, 대학생 인턴십 프로그램 '성과' GH, 청년형 매입임대주택 228가구 입주자 모집 北, 일본 상공 넘어로 중거리 탄도미사일 발사…10일 동안 5차례(종합) 경기도, '황복' 양식 도전…성장기간 단축·상품성 제고 경기, 3일 하루 확진자 4792명, 사망 3명 한국도자재단, '한국 현대 도예 작품' 17일까지 공개 구입 경기경제자유구역청, '제53회 한국전자전'서 투자유치 한미연합사 평택 기지로 이전 개시…미래 연합방위체제 발전기반 구축 가톨릭대, 유네스코 지속가능발전교육 감사패 수상 인천환경공단, 찾아가는 VR안전체험 교육 실시 IPA, ‘2022년 인천시 포워더 인센티브’ 지원기업 모집 이장우 대전시장 "선거 관여 공직자 앞으로 불이익 없을 것" 최재형 보은군수, 청소년들과 소통의 시간 가져 새출발기금 채무조정에 3410명 사전신청…5361억 규모 부산교육청, 2023학년도 전·후기고 입학전형 안내 코로나 꺽이니 간호인력 구조조정…경북대 106명 감축 마사회 부경본부, 말과 교감하며 환자 마음 치료 황규철 옥천군수 주민과 소통 창구 '도와줘OK' 호응 울산 학교들은 지금, 시나브로 말·글·얼 한글 교육 활발 충북 소방설비 오작동 빈번…소방차 헛걸음 하루 평균 10건 하동군, 군민편의 위한 '스피드 행복민원 서비스' 시행 LH 매입임대주택 빈집 방치, 광주 124채·전남 20채 ‘2022년 건설·교통 신기술 순회 전시회’ 5일 부산시청서 전북대 '한국의 헬렌켈러' 구경선 작가 초청 전시 [인사]지디넷코리아 전주박물관·전북태권도협회, '명품 태권도 시범공연' 9일 개최 임형주, 천주교서울대교구와 평화콘서트…12일 예술의전당 "국제회의복합지구와 국제회의집적시설 지정 신청하세요" 녹유의 '오늘의 운세 2022년 10월 5일 수요일(음력 9월 10일 신묘) 국립중앙박물관, 10월 매주 수요일 '큐레이터와의 대화' 사진으로 봤던 국보·보물 등 100건 3D로 만난다 문체부, 청년정책 위한 '2030 자문단' 공모 '반 클라이번 최연소 우승' 임윤찬, '황제' 실황 앨범 11월 발매 제24회 김상열연극상에 류주연 연출가 바다가 갈라진다, 보령 ‘무창포 신비의 바닷길 축제’ 월드컵 1승 제물 가나 '만만찮네'…주축들 EPL서 맹활약 '꼴찌에 발목' SSG, 우승 축포 어디서…숙소? 잠실? FC서울, 레알·바르샤보다 경기당 패스 많이 했다 '홀란 해트트릭 벤치서 보던' 호날두, 내년 1월 맨유 떠나나 인도네시아 참사로 본 축구장 비극의 역사 호날두 부진해도 걱정 없는 포르투갈, 레앙 잠재력 폭발 테니스 세계 8위 노리, 코리아오픈 기권 이유는? '월드컵서 한국 상대 해트트릭' 이과인, 그라운드 떠난다 인니 참사로 부각된 축구장 안전…반입 금지 품목은? '올해만 3번째' 애런 저지, AL 이달의 선수 수상 손흥민, 5일 프랑크푸르트 상대로 UCL 시즌 첫 골 도전 올해 크리스마스 씰 주인공은 손흥민 로이킴, 선공개 싱글 '그때로 돌아가' 14일 발매…2년5개월만 코요태 빽가, 지석진과 한솥밥…우쥬록스 합류 잔나비, 11월부터 전국투어…'판타스틱 올드 패션드 송년회' DC 원조 히어로 군단 공개…'블랙 아담' 임형주, 천주교서울대교구와 평화콘서트…12일 예술의전당 '배틀 트립' 시즌2로 돌아온다…성시경→이미주 MC 트레저, 오늘 컴백…전 세계 팬들에 외칠 'Hello' 기안84, '나혼산' PD와 새 예능 함께…'태어난 김에 세계 일주' 이보람 "야구선수와 결혼?…너무 황당" 루머 해명 빨간머리 찰떡이네…박지훈 '디 앤서' 무드 프리뷰 공개 레드벨벳 슬기, 오늘 솔로 데뷔…'28 리즌스' 원위, 오늘 '기어이 또'…팬들 위한 용훈·강현 선물 많이 본 기사 14족 보행로봇 구경오세요…로봇세일페스타 7~9일 23년간 외국산 삼결살·목살 국내산 둔갑시켜 판매한 업자 '집유' 3학교 손소독기 납품 알선, 계약금 절반 꿀꺽한 업자 집유 4제주 오후까지 비 최대 30㎜…낮 최고기온 24~26도 5‘제27회 부산국제영화제’ 화려한 개막…3년 만의 정상 개최 6현대 아웃렛 화재 참사 당시 1t 트럭에 시동 걸려 있었다 7광주서 중앙선 침범사고 낸 무면허 10대 숨져 1박유진, 16세 첫 출산→18세 새남친과 임신…'친정과 갈등' 분가 2"12세 겨울 두만강 건너 탈북"…'펜트하우스' 장명진, 추위 안타는 이유 3"미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 4[속보]합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 5황보라, 하정우 동생과 혼인신고 "시험관 시술 준비" 6"한국인 다수, 美 대북 메시지보다 인플레법 중시" 7"널 사왔다"며 용돈 100만원 받는 백수남편…'결혼지옥' 기자수첩 무심코 쓰는 마약 신조어, 범죄 경각심 낮춘다 거대 양당, 극단의 정치에 빠지지 말아야 피플 알렉 벤자민, 역시 팝 스토리텔러…"K팝 아티스트 직업정신 투철하죠" "세계 5위 암센터 서울아산병원, 통합진료로 폐암 치료 길 활짝" 세상에 이런 일이 8차선 도로서 자고 있던 남성..."누구 인생 망치려고" "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 접근금지 결정 위반, 전 여친 스토킹한 20대 집유 동거녀 상해·감금 20대 男, 집행유예 쏠쏠정보 사진으로 봤던 국보·보물 등 100건 3D로 만난다 주민등록번호 유출땐 온라인으로도 변경신청 가능 마누라·외다리…네이버, 어학사전에 차별표현 '주의' 문구 표시 "외국인도 안전 귀갓길"…안심이앱, 영‧중‧일어 서비스 DMZ·행리단길 숙박, 체험 할인…'경기도 여행상품 통합 기획전' 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
-  </si>
-  <si>
-    <t>제주4‧3평화재단, 제주도관광협회에 감사패 전달 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주4‧3평화재단, 제주도관광협회에 감사패 전달 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주4‧3평화재단, 제주도관광협회에 감사패 전달 제주CBS 김대휘기자 메일보내기 2019-02-01 11:44 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주4·3평화재단 이사장 양조훈(왼쪽)이 제주도관광협회 김영진 회장에게 감사패를 전달했다. 제주4·3평화재단이 제주4‧3 70주년인 지난해 4·3의 역사적 진실을 널리 알리는데 공헌한 제주도관광협회에 감사패를 전달했다. 제주4·3평화재단(이사장 양조훈)은 31일 재단 대회의실에서 제주도관광협회(회장 김영진) 주요 임원들이 참석한 가운데 감사패 전달식을 가졌다. 제주도관광협회는 4·3 70주년 2018년 제주방문의 해를 맞아 언론매체 및 블로거 취재지원, 대규모 이벤트를 유치하는 등 제주4·3을 올바르게 인식할 수 있는 기회를 제공했다.특히 개별‧단체관광객에게 IT기술을 활용해 할인쿠폰 및 기념품을 제공한 모바일 스탬프투어, 우수 4‧3엽서 수기공모 이벤트, 사진전시회 관람 등을 통해 다크투어 프로그램과 인센티브 관광 향상에 일조했다는 평가를 받고 있다.제주도관광협회를 비롯 도내외 유관기관의 협조로 4·3 70주년인 2018년 제주4·3평화공원 방문객은 전년대비 21만명이 증가(91%?)한 43만5000명을 기록했다 감사패를 받은 뒤 김영진 회장은 "앞으로도 제주4‧3이 추구하는 화해와 치유라는 가치에 관광협회 직원들이 적극 동참할 것"이라며 "현재 관광협회가 추진하고 있는 SNS(소셜 네트워크 서비스) 마케팅에 제주4‧3을 포함시켜 올해도 전년과 같은 방문객 증가를 이끌 수 있도록 노력하겠다"고 소감을 말했다. 양조훈 이사장은 "앞으로도 제주4‧3평화공원이 평화와 인권을 대표하는 역사의 산 교육장이 되도록 관광협회에 많은 협조를 바란다"고 밝혔다. 더 클릭 다음 정권에 '1기 신도시' 넘긴 尹정부…주민들, '항의집회' 예고 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 "월급 줄 돈 없어"…기증받은 인체조직 헐값에 판 공공기관 北, 자강도서 IRBM 발사…일본 상공 통과해 태평양 낙하 가상화폐 뒷광고 딱 걸린 킴 카다시안, 18억원 '벌금 폭탄' '尹비속어' 이어 '文서면조사' 까지…여야 국감서 '전면전' 英트러스 정부, 부자 감세 '철회'…뉴욕증시 반등 인플레감축법 美산업계는 '면제' 요구…누더기 되나 북핵·국감·경기악화, 尹 '위기의 10월' …"민생 전념하겠다" 尹 "北 무모한 도발, 국제사회 결연한 대응 직면할 것" 제주CBS 김대휘기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
-  </si>
-  <si>
-    <t>카지노업관광협회 "제주도의회 카지노 조례 개정안, 관광산업 발전 역행" 로그인 회원가입 UP2030 창업리그 일자리카페 청년리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 뉴스 정치사회 글로벌 문화 연예 스포츠 AT미디어센터 포럼&amp;컨퍼런스 PDF 보기 2022년 10월 04일 Tuesday 로그인 ㅣ 회원가입 UP2030 창업리그 일자리 카페 청년 리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 AT미디어센터 뉴스 정치사회 글로벌 문화 연예 스포츠 포럼&amp;컨퍼런스 PDF 지면보기 기사제보 공지.사고 UP2030 스페셜 리포트 기업과 경제 오피니언 전국네트워크 포럼&amp;컨퍼런스 PDF보기 AT미디어센터 포럼&amp;컨퍼런스 PDF보기 카지노업관광협회 "제주도의회 카지노 조례 개정안, 관광산업 발전 역행" 박소연 입력 2019-02-02 19:24 수정 2019-02-01 19:59 (사진제공=한국카지노업관광협회) [아시아타임즈=박소연 기자] 한국카지노업관광협회는 제주도 내 카지노 확장의 이전을 사실상 원천 금지하는 내용의 도 조례 개정안이 '관광산업 발전을 저해할 것'이라고 우려했다. 1일 카지노관광협회는 보도자료를 통해 "최근 입법예고된 조례 개정안은 롯데관광개발 등이 제주지역에 건설 중인 제주드림타워에 카지노 영업장이 들어서는 것을 막기 위한 시대착오적인 발상"이라고 주장했다. 도 의회는 지난달 28일 대수선과 재건축, 멸실 등 불가항력한 경우에만 카지노사업장 이전을 한정하는 내용의 '도 카지노업 관리 및 감독에 관한 조례 일부개정조례안'을 입법예고했다. 카지노의 대형화를 막겠다는 것이 이 조례의 취지인데, 도내 외국인전용 카지노의 이전을 사실상 원천봉쇄하고 특히 외국인이 많이 찾는 세계적인 관광지인 제주특별자치도의 관광산업 발전을 저해할 우려가 크다는게 협회의 주장이다. 카지노관광협회는 "카지노복합리조트 사업은 미래의 먹거리임에 틀림없다"며 "외국인전용 카지노의 특성을 감안해 제주도 카지노산업에 대해 과도한 규제보다는 정책적인 육성이 필요하다"고 주장했다. 또한 카지노관광협회는 이번 개정안이 고용창출과 지역경제 기여효과, 세수확대에 정면으로 역행하고, 관광산업을 육성해 관광진흥에 이바지하는 것을 목적으로 한 관광진흥법의 취지에도 반한다고 강조했다. 제주지역 카지노는 세계에서 유일한 외국인 전용으로 외국인 관광객 유치와 외화획득을 목적으로 하는 관광진흥법에서 정한 관광사업의 한 종류로 규정되어 있다. 제주특별자치도의 카지노는 총 8개로 모두 외국인전용 카지노이며, 대부분의 업체들은 호텔부속시설로서 소규모로 호텔의 한 공간을 임차해 영업하고 있다. 또한 중국인과 일본인이 주요 고객인 한국 카지노산업의 특성상 최근의 메르스 사태와 중국발 사드보복 등과 같은 부정적인 외부변수로 인해 매출 하락의 직격탄을 날렸다. 2017년 제주지역 카지노 입장객은 약 16만5천명으로 전년대비 약 22% 줄었으며, 매출액은 약 1300억원으로 전년대비 약 26% 감소했다. 영업이익 또한 2017년에 마이너스 680여억원으로 적자를 면하지 못하고 있다. 카지노관광협회는 "제주지역의 카지노는 단순한 도박이 아닌 주요 세수로, 이를 늘려 지역관광 활성화와 동시에 고용 창출과 지역소비 창출에 기여하도록 해야 하다"면서 "외국인 고객의 호텔 및 면세점, 골프장, 렌트카, 식당 이용 등으로 인한 지역경제 활성화로 이어지는 산업으로 더욱 발전시켜야 할 것"이라고 강조했다. 이어 "이는 최근 제주신화월드 개장 등으로 증명됐다고 할 수 있다"면서 "법인세 등의 일반세금과는 별도로 카지노의 매출액에 부과되고 있는 제주관광기금은 제주지역 주요 조세수입으로서 도 운영에 상당한 도움이 되고 있다"고 덧붙였다. 박소연 편집부 다른기사 보기 asiatimes@asiatime.co.kr [저작권자ⓒ 아시아타임즈. 무단전재-재배포 금지] - 띄어 쓰기를 포함하여 250자 이내로 써주세요. - 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 0 /250 등록 중요기사 [단독] 이스타항공, 고용안정 강조하더니⋯육아휴직자, 복직에 ‘해고’칼날 국제유가, OPEC+ 대규모 감산 가능성에 상승…WTI 5.2% ↑ 경계 허문 '보더리스 패션' 열풍…영역 넓힌다 벤츠 타는 곽재선 KG그룹 회장, 쌍용차로 '확' 바꿀까 "가격 폭등에 IRA 후폭풍까지"…K배터리, 리튬 찾아 지구 한 바퀴 손흥민 내세운 '메가커피'•정해인 발탁한 '컴포즈커피'…저가커피 공세 [단독] 이스타항공, 고용안정 강조하더니⋯육아휴직자, 복직에 ‘해고’칼날 이스타항공 육아휴직자들, 복직 신청하니 돌아온 건 해고 통지서 해고도 서러운데 회사, 자진퇴사로 고용당국 보고⋯항의하니 수정 이스타항공 "2년 전 해고대상자는 육휴 후 퇴사 처리돼야"⋯노무사는 "문제 있어" [아시아타임즈=김영봉 기자] 지난 2020년 10월 이스타항공에는 대규모 정리해고의 칼바람이 불었었죠. 당시 해고 대상자로 통보받았다가 육아휴직(육휴)으로 해고의 칼날을 피한 직원들도 있었는데요. 그런데 해고는 끝난 것이 아니었습니다. 이스타항공의 주인이 성정으로 바뀌고 2년이 지난 시점, 육휴 중 복직을 신청한 직원들에게 곧바로 해고를 통보한 것으로 드러났습니다. 더욱 황당한 것은 이스타항공이 육휴 후 복직 신청을 한 직원들에게 정리해고를 통보해 놓고 고용당국에는 ‘자진퇴사’로보고했다는 점입니다. 해고된 직원이 실업급여와 육휴 사후지급금이라도 받기위해 고용당국에 전화하는 과정에서 밝혀진 것인데요. 해고된 직원이 항의하자 그제 서야 회사는 실수였다며 ‘비자발적 퇴사’로 바꿨습니다. 이스타항공은 육휴 했더라도 2년 전의 해고 대상자는 아직 해고가 유효하다는 입장입니다. 그러나 회사가 지난 7월 3일 입장문을 통해 새로운 항공사로서 재직자의 ‘고용안정’을 강조한 것과는 다른 모습이라 논란이 될 것으로 보입니다. 지워지지 않은 해고명부 아시아타임즈는 지난 29일 경기도 일산 한 카페에서 육휴 중 복직신청을 했다가 해고된 이스타항공 운항승무원 A씨와 B씨를 만나 이야기를 들었습니다. 이들은 지난 2020년 10월 해고대상자에서 포함됐다가 육휴를 신청해 해고를 피할 수 있었는데요 . 남녀고용평등법 상 육휴자는 해고할 수 없다는 규정 덕분이었습니다. 그러나 2년이 지난 현재, 새로운 회사가 됐다던 이스타항공은 7월 말 육휴 중 복직을 신청한 승무원들에게 복직도 하기전에 해고를 통보했습니다. A씨의 경우 7월27일 조기 복직 신청(8월29일 복직 희망)을 냈고, 이틀 후(29일) 회사는 기다렸다는 듯 ‘해고일정 변경통지서’를 보낸 것입니다. B씨 역시 7월 말 복직 신청서를 내고, 8월3일 회사로부터 해고 통지서를 받았습니다. A씨 통지서에는 “귀하는 2020년 10월14일자로 회사의 경영상 이유에 의해 해고대상자에 해당 됐으나, 당시 육휴 사용으로 인해 기 통보된 해고 일자가 육아휴직 종료시점 이후인 2022년 8월 29일자로 변경됨을 알려드립니다”고 돼있었습니다. B씨 역시 내용은 같습니다. 육휴자들 “참담, 회생 종료되고 긴박한 경영 문제 사라졌는데...”…자진퇴사 보고 논란도 A씨와 B씨는 회사의 정리해고에 대해 어느 정도 인지하고 있었다면서도 부당하다고 토로했습니다. 당시 경영상 어려움과 지금은 달라졌고, 이스타항공이 올해 3월 회생절차에서 졸업하고 주인이 완전히 바뀌면서 긴박한 경영상 어려움은 해소돼 현재 해고를 실행할 이유가 없다는 주장입니다. A씨는 "참담한 심정이다. 회생종료가 됨으로써 긴박한 경영상의 이유가 사라졌기 때문에 조기복직을 신청한 것”이라며 “우리는 복직원을 제출했지 퇴직원을 내지 않았다”고 하소연했습니다. A씨는 8월29일 해고가 된 후 더욱 황당한 일을 겪었다고 성토했습니다. 그는 “회사가 복직과 동시에 자른다고 하니, 실업급여라도 신청할 수밖에 없었다”며 “그런데 고용당국에 연락했더니, 4대보험 상실신고가 ‘자진퇴사’로 되어 있었다는사실을 알게 됐고, 실업급여와 육아휴직 사후지급금을 받지 못한다는 말을 들었다”고 설명했습니다. 이어 “알고 보니 회사가 자진퇴사로 보고한 것”이라며 “회사에 항의한 끝에 실수라는 사과와 함게 비자발적 퇴사로 수정했는데, 정리해고를 당한 것도 힘든데 (회사가)두번 죽이는 구나하는 생각까지 들었다”고 토로했습니다. B씨는 복직원을 내고 해고통지서가 날아오자 “올 것이 왔구나하는 생각이 들었다” 고 말문을 열었습니다. 그는 “한 번 해고 통보를 받은 상태였다가 우여곡절 끝에 육아휴직이 됐는데, 다시 해고 통지서를 받으니 착잡하다”며 “회사의 긴박한 경영상황은 회생졸업으로 사라지지 않았냐”고 재차 강조했습니다. 이스타항공 “2년전 해고대상자, 퇴사 처리는 당연” vs 노무사 “문제 있어” 이스타항공은 육휴자는 2년 전 정리해고 대상자라며 해고는 당연하다고 주장합니다. 이들이 해고되지 않으면 당시 해고됐던 605명과 형평성이 맞지 않다는 식의 논리입니다. 이스타항공 측은 기자와 연락을 통해 “2년 전 정리해고 통보를 받은 후 육휴를 사용한 경우 종료후 퇴사 처리가 돼야 한다”면서 “육휴 중에는 절차가 진행될 수 없기 때문”이라고 말했습니다. 이어 “(육휴자의 경우) 퇴직금 수령을 위해 조기 복직 후 절차가 진행된 경우가 있다"며 "정상화 이후 공정한 절차로 퇴직자를 우선채용할 것”이라고 덧붙였습니다. 참고로 대량해고 후 지방노동위원회는 이들 육아휴직자에 대해 남녀고용평등법에 의해 해고할 수 없다는 판결을 내린바 있습니다. 그럼 노동전문가는 이에 대해 어떻게 생각할까요? 기자는 두 명의 노무사로부터 이스타항공의 육휴자 해고에 대해 문제가 있다는 답변을 받았습니다. 특히 직장갑질 119 최혜인 노무사는 “2020년 경영 상태와 지금이 다를 수 있기 때문에 그 당시 해고 대상자였다고 해서 지금 정리해고 대상자로 선정한다는 것은 문제가 있다”며 “근로기준법상 정리해고 요건이 있고, 또 해고는 합리적 근거를 가지고 대상자를 선정해야 하다"고 지적했습니다. 이어 "해당 회사가 그런 기준을 수립하지 않고 2년 전 대상자니까 해고를 단행한다는 것은 해고 대상자 선정의 합리성이 결여된 것으로 보여진다"고 말했습니다. 한편 이스타항공은 지난 7월3일 입장문을 통해 “매월 수십억 원의 운영자금을 지출하면서 회사 정상화 및 이를 통한 재직자의 ‘고용안전, 복직을 간절하게 원하고 있는 수백 명의 퇴직자들의 재고용 등을 위해 불철주야 노력하고 있다”고 밝힌 바 있습니다. 국제유가, OPEC+ 대규모 감산 가능성에 상승…WTI 5.2% ↑ 국제유가, OPEC+의 대규모 감산 가능성에 상승 마감 100만 배럴 이상 합의할 시, 지난달 감산폭의 10배 이상에 해당 국제유가, 경기 침체 여파 등으로 4개월 연속 하락세 [아시아타임즈=전소연 기자] 국제유가가 석유수출국기구(OPEC)와 러시아 등 비(非) 산유국 협의체인 OPEC+의 대규모 감산 가능성에 상승 마감했다. 3일(현지시간) 뉴욕상업거래소(NYMEX)에서 11월물 미국 서부텍사스산원유(WTI)는 전일 대비 4.14 달러(5.2%) 상승한 배럴당 83.63 달러에 거래를 마감했다. 12월물 브렌트유는 3.72 달러(4.4%) 오른 배럴당 88.86 달러로 집계됐다. 시장은 OPEC+가 오는 5일 개최하는 회의에서 하루 최대 100만 배럴 이상 감산에 합의할 가능성에 주목하고 있다. 만일 이들이 100만 배럴 이상 감산에 합의한다면 이는 지난달 결정한 감산폭의 약 10배 이상에 달한다. 전문가들은 OPEC+의 대규모 감산 이유로 유가 하락 대응을 꼽고 있다. 유가는 올해 초 러시아의 우크라이나 침공에 따라 폭등한 뒤 중국의 신종 코로나바이러스감염증(코로나19)에 따른 도시 봉쇄, 경기 침체 우려 등으로 인해 지난 6월부터 4개월 연속 하락세를 보이고 있다. 경계 허문 '보더리스 패션' 열풍…영역 넓힌다 패션업계, 젠더리스·보더리스 트렌드 확대 스포츠 의류·속옷·레깅스·교복도 '젠더리스'…매출도 쑥쑥 "'젠더리스' 키워드가 소비 시장에 새로운 패러다임 제시" [아시아타임즈=류빈 기자] 패션업계에 경계를 허문 ‘보더리스(borderless)’ 열풍이 영역을 확장해나가고 있다. 특히 성별 경계를 없앤 ‘젠더리스’ 트렌드는 기존에 캐주얼 의류에 한정됐다면 이제는 스포츠웨어, 학생복 등 다양한 의류 카테고리로 번지고 있는 추세다. 3일 패션업계에 따르면 보더리스 트렌드 중 가장 대표적을 손꼽히는 것은 성별을 구분 짓지 않는 ‘젠더리스(genderless)’ 패션이다. 세계적 팝스타인 해리 스타일스가 2020년 영국의 대표 음악 시상식인 '브릿 어워드'에 레이스 셔츠, 보라색 니트와 진주 목걸이를 걸치고 등장해 눈길을 끌었다. 국내에서는 배우 이정재가 최근 처음 감독을 맡은 영화 '헌트' 홍보 차 출연한 TV 예능 프로그램에 진주 목걸이를 착용한 채로 출연했다. 여성 패션의 전유물로 손꼽히던 진주 목걸이, 레이스 등이 소위 ‘옷 잘 입는 남자’들로 손꼽히는 셀럽들에게 핫한 패션 아이템으로 떠오른 것이다. 젠더리스는 단순히 하이패션과 셀럽들의 패션에만 국한된 것이 아니다. 젠더리스 패션은 소비자의 접근성을 높여 다양한 패션 카테고리에 적용되고 있다. 최근에는 스포츠와 속옷 의류에도 젠더리스 바람이 불고 있다. 지난 7월 글로벌 스포츠 브랜드 나이키는 서울 마포구 홍대에 ‘나이키 스타일 홍대’를 오픈했다. 이 매장은 성별 구분이 없는 ‘젠더 플루이드(Gender-Fluid)’ 콘셉트의 매장이다. 총 3층 규모로 구성됐다. 남성용, 여성용이 아닌 스타일별로 아이템을 진열했으며, ‘오버사이즈 S, ‘루즈핏 L’ 등으로 상품을 구분해 각자의 취향에 따라 선택할 수 있도록 했다. 신세계인터내셔날이 운영하는 라이프스타일 브랜드 ‘자주’는 지난해 여성용 사각팬티를 처음 선보였다. 최근 여성 소비자들이 몸에 딱 달라붙는 하의 보다 품이 넓은 편안한 패션을 즐겨 입고, 속옷 역시 달라붙지 않은 편안한 속옷을 선호하게 되면서 기존 남성용 트렁크나 드로즈로만 출시됐던 사각팬티가 여성용으로도 나오게 된 것이다. 반면, 몸에 딱 달라붙는 레깅스는 남성 소비자들의 수요가 늘고 있다. 국내 1위 레깅스 업체 젝시믹스는 2분기 매출 528억원을 기록한 가운데, 이 중 남성 레깅스·이너웨어 매출액이 109억원을 차지했다. 또 다른 국내 레깅스 업체 안다르는 지난 2분기에 남성 레깅스 매출로 102억원을 기록했다. 여성복 브랜드가 남성복 시장에 진출하는 경우도 등장했다. 1977년 론칭해 1세대 여성복 브랜드로 손꼽히는 신세계인터내셔날의 '스튜디오 톰보이'는 45년 만에 남성복 시장에 진출했다. 2019년 젠더리스 트렌드 따라 론칭한 남성 제품이 큰 인기를 얻어 본격적으로 남성복 사업을 확장하겠다는 계획이다. 실제로 남성 제품은 여성복 매장에서 함께 판매됐음에도 불구하고 올해 상반기 매출이 전년 동기 대비 85% 증가하며 좋은 반응을 나타냈다. 스튜디오 톰보이는 14일 대구 신세계백화점에 매장을 여는 등 올 하반기 롯데·신세계·현대백화점 등에 총 10개 남성 단독 매장을 오픈할 계획이다. 학생복 업계도 성 고정관념에서 벗어나 소비자 선택의 폭을 확대하고 있다. 최근 ‘편한 교복’ 트렌드에 따라 바지 교복을 선호하는 여학생이 늘고 있다는 점에 주목해, 여학생용 교복 바지 출시가 이어지고 있는 것이다. 형지엘리트의 교복 브랜드 엘리트학생복은 지난 5월 ‘에어 소프트 웜스판’ 바지를 새롭게 출시하며 라인업을 강화했다. 기존 ‘소프트 웜스판’ 바지의 장점은 그대로 살리고 보온성과 경량성을 더욱 높인 것이 특징이다. 폴리에스터와 레이온 혼방 소재에 신축성이 좋은 라이크라 원사를 더했으며, 투명 페트병에서 추출한 원사를 적용해 친환경적 요소를 가미했다. 주름이 적게 생기는 ‘링클 프리 구김방지’ 가공법을 통해 장시간 깔끔하게 착용할 수 있는 것도 장점이다. 업계 관계자는 “최근 MZ 세대를 중심으로 남녀 성별에 얽매이지 않는 '젠더리스'가 트렌드로 자리 잡고 있다”며 “​남성들의 전유물로 여겨졌던 슈트가 여자들 사이에서 인기를 끌고 화장품 광고 속에 남자 모델이 등장하는 등 점차 '젠더리스'라는 키워드가 소비 시장에 새로운 패러다임을 제공하고 있다”고 말했다. 전문가의 목소리 박상덕 칼럼 UN의 24/7 CFE 운동 권강주 칼럼 청산에 머루 다래는 부모님께 드리옵고 임규관 칼럼 ‘아! 가을인가’ 부르기 정균화 칼럼 승리의 언어 신문사소개 개인정보취급방침 이용약관 청소년보호정책 기사제보 제휴문의 공지.사고 서울특별시 중구 퇴계로31길 27 프라임빌딩 8층 대표전화 : 02-801-1800 FAX : 02-801-1819 제 호 : 아시아타임즈 정기간행물번호 : 서울 가 09927 등록일 : 2008-07-16 인터넷신문 : 서울 아 00624 발행인 대표이사 : 조용하 편집국장 : 송남석 청소년보호관리책임자 : 조주현 『열린보도원칙』 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 : 김재현 / TEL : 02-801-1842 / email : s891158@asiatime.co.kr 본 콘텐츠의 저작권은 아시아타임즈 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 2019 아시아타임즈 All rights reserved. email : asiatimes@asiatime.co.kr HOME LOG IN Copyright ⓒ 2019 아시아타임즈 All rights reserved.</t>
-  </si>
-  <si>
-    <t>KB국민카드, 제주도 주요 관광지 바코드 결제 서비스 제공 &lt; 카드 &lt; 금융 &lt; 기사본문 - 파이낸셜투데이 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-04 10:08 (화) 기사제보 로그인 회원가입 전체메뉴 버튼 전체기사 경제 거시 재계 산업 자동차·항공 게임 4차산업혁명 IT·전자 건설 중공업·에너지 금융 일반 은행 증권 보험 카드 시사 정치 사회 소비자 유통 식음료 뷰티·패션 레저·관광 헬스·바이오 교육 오피니언 칼럼 기자수첩 피플 파투만평 기사검색 검색 실시간 [인사] ABL생명 황운하 “론스타·외환은행 거래, 국민 혈세로 벌인 돈잔치” LG헬로비전, 지역채널 ‘2022 헬로콘서트 좋은날’ 성황리 진행 ‘만년적자’ 농협김치, 지난해 국내시장 점유율 3.8% 불과 [부고]송영수 전 한진중공업 사장 별세 증여성 해외송금, 5년간 25조원 넘어…연간 5조원 규모 지난해 조부모 1세 이하 손자녀 대상 증여재산 1천억원…전년比 700억원 증가 강준현 의원 “尹 정부, 공공기관 재정건전화 명분 주요 부동산 자산 졸속 매각 우려” 우리은행, 디지털 웹진 ‘Hello, DT!’ 발간 HUG 전세보증 감정평가서 이용 사고액, 올해만 1천억원 본문영역 이전 기사보기 다음 기사보기 KB국민카드, 제주도 주요 관광지 바코드 결제 서비스 제공 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 금융 카드 KB국민카드, 제주도 주요 관광지 바코드 결제 서비스 제공 기자명 이진명 기자 승인 2019.02.01 10:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ‘리브 메이트(Liiv Mate)’바코드 결제 시 최대 67% 할인 사진=KB국민카드 KB국민카드가 제주 여행 전문업체인 ‘제주 모바일’과 함께 제주도 내 250여개 관광지, 체험상품, 호텔·음식점 이용권을 사전 예매 없이 현장에서 바코드 결제로 최대 67% 할인된 가격에 구매할 수 있는 ‘리브 메이트(Liiv Mate) 제주 관광지 할인 서비스’를 제공한다고 1일 밝혔다. 이 서비스는 제주도 관광지 이용권을 사전에 구매하는 번거로움 또는 예매한 티켓의 취소 부담 없이 현지에서 KB금융그룹의 통합 멤버십 플랫폼인 ‘리브 메이트’ 바코드 결제 기능을 활용해 간편하게 구매하고 즉시 할인받을 수 있는 것이 특징이다. 현재 바코드 결제로 구매 가능한 상품은 ▲소인국테마파크, 제주민속촌 등 관광지 입장권 70여개 ▲마라도잠수함, 제트보트 등 체험상품 70여개 ▲호텔 뷔페 등 음식점 60여개 ▲공연, 스파, 테라피 관련 상품 40여개 등 총 250여개다. 상품별 할인율 등 자세한 사항은 ‘리브 메이트’내 ‘제주 관광지 할인 서비스 가맹점 보기’ 메뉴에서 확인 가능하다. 서비스 이용을 희망하는 고객은 ‘리브 메이트’내 간편결제 아이콘 선택→바코드 결제 탭에서 바코드 생성 및 비밀번호 입력→현지 가맹점에서 바코드 스캔 과정을 거치면 결제 및 즉시 할인 혜택을 받을 수 있다. 한편 KB국민카드는 이 서비스 시행을 기념해 이달 말까지 ‘리브 메이트’ 최초 가입회원에게 포인트 2000점을 제공하고 바코드 결제 서비스 이용금액의 10%(월 최대 1만점)를 포인트로 적립해 주는 이벤트를 진행한다. 파이낸셜투데이 이진명 기자 이진명 기자 unitrock@ftoday.co.kr 다른기사 보기 저작권자 © 파이낸셜투데이 무단전재 및 재배포 금지 당신만 안 본 뉴스 KFC, 10월1일 단 하루 치킨 메뉴 1+1 제공 “이제 4% 금리 상품도 흔하다”…저축은행, 금리인상 경쟁 ‘치열’ 금리 인상 ‘직격탄’ 맞은 리츠…‘저점 매수’ 괜찮을까? 韓 게임업계, 애플 ‘인앱결제 인상’ 선포에도 ‘가격 유지’ 가닥 그라비티 ‘라그나로크 아레나’, 출시 첫 주 성적표는 ‘완만한 상승곡선’ ‘어벤저스’부터 ‘금융 플랫폼’까지, 게임社의 가지각색 사업 다각화 코스피, 장중 2300선 붕괴…7월 이후 2개월만 KFC, 10월1일 단 하루 치킨 메뉴 1+1 제공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 황운하 “론스타·외환은행 거래, 국민 혈세로 벌인 돈잔치” ‘만년적자’ 농협김치, 지난해 국내시장 점유율 3.8% 불과 증여성 해외송금, 5년간 25조원 넘어…연간 5조원 규모 지난해 조부모 1세 이하 손자녀 대상 증여재산 1천억원…전년比 700억원 증가 강준현 의원 “尹 정부, 공공기관 재정건전화 명분 주요 부동산 자산 졸속 매각 우려” HUG 전세보증 감정평가서 이용 사고액, 올해만 1천억원 최신뉴스 황운하 “론스타·외환은행 거래, 국민 혈세로 벌인 돈잔치” LG헬로비전, 지역채널 ‘2022 헬로콘서트 좋은날’ 성황리 진행 ‘만년적자’ 농협김치, 지난해 국내시장 점유율 3.8% 불과 증여성 해외송금, 5년간 25조원 넘어…연간 5조원 규모 지난해 조부모 1세 이하 손자녀 대상 증여재산 1천억원…전년比 700억원 증가 포토뉴스 [파투만평] 퇴직연금 천국 [파투만평] 디폴트 [파투만평] 역성장 인기뉴스 1 KFC, 10월1일 단 하루 치킨 메뉴 1+1 제공 2 “이제 4% 금리 상품도 흔하다”…저축은행, 금리인상 경쟁 ‘치열’ 3 금리 인상 ‘직격탄’ 맞은 리츠…‘저점 매수’ 괜찮을까? 4 韓 게임업계, 애플 ‘인앱결제 인상’ 선포에도 ‘가격 유지’ 가닥 5 그라비티 ‘라그나로크 아레나’, 출시 첫 주 성적표는 ‘완만한 상승곡선’ 6 ‘어벤저스’부터 ‘금융 플랫폼’까지, 게임社의 가지각색 사업 다각화 7 코스피, 장중 2300선 붕괴…7월 이후 2개월만 8 SPC 파리바게뜨, 10월의 ‘파바데이’ 프로모션 진행 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 마포구 백범로31길 8, 201동 6층 (공덕SK리더스뷰) 대표전화 : 02-2672-7114 팩스 : 02-868-7114 청소년보호책임자 : 한종민 법인명 : (주)파이낸셜투데이 제호 : 파이낸셜투데이 등록번호 : 서울 아01915 등록일 : 2005-05-21 대표이사 : 한병인 편집국장 : 김영권 파이낸셜투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 파이낸셜투데이. All rights reserved. mail to ftodayhan@hanmail.net 위로 전체메뉴 전체기사 경제 전체 거시 재계 전국 산업 전체 자동차·항공 게임 4차산업혁명 IT·전자 건설 중공업·에너지 금융 전체 일반 은행 증권 보험 카드 소비자 전체 유통 식음료 뷰티·패션 레저·관광 헬스·바이오 교육 시사 전체 정치 사회 오피니언 전체 칼럼 기자수첩 피플 파투만평 피플 전체메뉴닫기</t>
+    <t>제주도관광협회, 제주관광 블로그기자단 9기 모집 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주관광 블로그기자단 9기 모집 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광협회, 제주관광 블로그기자단 9기 모집 기자명 강지환 기자 입력 2019.02.28 10:52 수정 2019.02.28 11:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회(회장 김영진)가 '제주관광 블로그기자단 제주맹글이' 9기를 모집하고 있다고 28일 밝혔다.이번 제주관광 블로그기자단 9기 모집 대상은 자체 블로그·네이버 포스트·브런치 등을 운영하며 제주도를 홍보하고 있는 블로거다.모집은 지난 21일부터 시작했으며 오는 3월 5일 오후 6시까지 계속된다.이번 모집의 선정된 기자단은 매월 여행 트렌드에 부합한 제주 관련 콘텐츠를 제작 및 자체 플랫폼에 게시하고 제작 콘텐츠를 협회에 제공해야 한다. 이어 도내 이색 관광 상품을 합동 체험하는 특별취재도 수행한다.더불어 위촉장과 함께 월별 소정의 취재지원비를 지원받는다.자세한 내용은 도관광협회 홈페이지((www.visitjeju.or.kr) 공지사항을 통해 확인할 수 있다.한편 제주관광 블로그기자단은 신뢰성 있는 제주관광 정보 제공과 활성화를 위해 제주특별자치도와 도관광협회가 제주 전문 블로거를 육성·지원하는 사업이다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N1 이전 다음 제주도의회 문화관광체육위 전문위원에 소연주씨 임용 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 정치 제주도의회 문화관광체육위 전문위원에 소연주씨 임용 홍석준 기자 승인 2019.02.27 09:29 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 개방형 직위 공모 결과 9대1 경쟁률 뚫고 최종 임용 36년 공직생활 기간 중 4년 동안 의회 재직 경력도 김태석 제주도의회 의장이 신임 소연주 문화관광체육위 전문위원에게 임용장을 전달하고 있다. /사진=제주특별자치도의회 [미디어제주 홍석준 기자] 제주도의회 문화관광체육위원회 전문위원으로 소연주 제주자치도 안전정책팀장(57)이 임용됐다. 제주특별자치도의회는 공석중인 문화관광체육위 전문위원에 개방형 직위 공모를 거쳐 소연주 팀장을 26일자로 임용했다고 밝혔다. 신임 소 전문위원은 1983년 공직에 입문, 서귀포시청 예래동사무소를 시작으로 36년 동안 서귀포시 관광상품팀장, 도 골목상권살리기총괄팀장, 도의회 경리팀장 등을 거쳐 도민안전실 안전정책팀장으로 근무하던 중 최근 도의회 개방형 직위에 응모해 9대1의 치열한 경쟁률을 뚫고 최종 임용됐다. 지난 2005년부터 2년 반 동안 도의회 행정자치위 전문위원실, 2014년부터 2016년까지 1년 6개월 등 도의회에서 4년여 기간 동안 근무한 경력도 있다. 김태석 도의회 의장은 “이번에 임용되는 문화관광체육위 전문위원은 개방형 직위로 임용하는 것으로 의회 인사·조직권 독립의 기틀을 다지게 됐다”면서 “강화된 도의회 위상에 걸맞게 적극적인 의정지원 활동을 펼쳐줄 것을 기대한다”고 밝혔다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도의회, 4급 문화관광체육전문위원에 소연주씨 임용 &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도의회, 4급 문화관광체육전문위원에 소연주씨 임용 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 제주도의회, 4급 문화관광체육전문위원에 소연주씨 임용 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2019.02.26 14:26 댓글 4 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 소연주 문화관광체육전문위원. ⓒ제주의소리 공석인 제주도의회 문화관광체육전문위원(4급 상당)에 소연주(57) 전 제주도 안전정책팀장이 임용됐다.김태석 의장은 26일 오전 의장실에서 개방형 직위 공모를 통해 최종 합격한 소연주 문화관광체육전문위원에게 임용장을 수였다.신임 소연주 문화관광체육전문위원은 1983년부터 현재까지 36년 동안 서귀포시청 예래동사무소를 시작으로 서귀포시 관광상품팀장, 제주도 골목상권살리기총괄팀장, 제주도의회 경리팀장 등을 역임했다최근까지 제주도 도민안전실 안전정책팀장으로 재직하다 개방형직위에 응모해 9대1의 경쟁을 뚫고 최종 합격했다.제주도의회는 소 전문위원이 2005년부터 2년6개월 동안 도의회 행정자치전문위원실, 2014년부터 2016년까지 1년6개월 등 총 4년2개월을 제주도의회에서 근무한 경력을 갖고 있어 의정지원 활동에 일조할 것으로 기대하고 있다.김태석의장은 “이번에 임용되는 문화관광체육전문위원은 개방형직위로 임용하는 것으로 의회 인사․조직권 독립의 기틀을 다지는 것으로 강화된 도의회의 위상에 걸맞게 보다 더 적극적인 의정지원 활동을 펼쳐줄 것으로 기대한다”고 말했다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 2019년도 제1차 이사회 및 대의원총회 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 2019년도 제1차 이사회 및 대의원총회 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 2019년도 제1차 이사회 및 대의원총회 개최 문유미 기자 승인 2019.02.24 12:26 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 김영진)는 지난 22일 팔레스호텔 연회장에서 2019년도 제1차 이사회와 대의원총회를 연이어 개최, 주요 업무보고와 함께 임원 변경과 지난해 사업 및 예산 결산 등 안건을 의결했다. 이날 이사회에서는 서귀포시관광협의회와의 상생 발전을 위한 관계 구축과 함께 회원사로서 전략적 지원 방안 등에 대한 논의가 이뤄졌다. 김영진 회장은 이날 “대내·외 환경변화로 인해 관광업계의 어려움이 가중되고 있는 가운데 국내·외 관광객 유치에 박차를 가하고, 지역과 상생하는 사회적 책임을 다하는 데 적극 앞장서 나가겠다”고 말했다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 2019년 이사회 및 대의원 총회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 2019년 이사회 및 대의원 총회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회 2019년 이사회 및 대의원 총회 개최 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2019.02.23 13:30 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 창립 58주년을 맞은 제주특별자치도관광협회(회장 김영진) 2019년 제1차 이사회와 대의원총회가 22일 제주시 팔레스호텔에서 열렸다.이날 총회에서는 주요 업무보고와 함께, 임원 변경의 건, 2018년도 제57기 사업 및 예산 결산안 등이 심사돼 의결됐다.김영진 회장은 인사말을 통해 "제주에 대한 관심 저하, 북한관광 재개 조짐, 최저임금 인상, 숙박업 공급과잉 등으로 관광업계의 어려움이 가중되고 있다"면서, "국내외 관광객 유치에 박차를 가하고, 지역과 상생하는 사회적 책임을 다하는데 적극 앞장서 나가겠다"고 말했다.또 "관광관련 현안들을 제주관광포럼을 통해 토론하고, 여기서 도출된 의견들은 관광정책으로 연결될 수 있도록 행정과 긴밀한 협조 체계를 구축함으로서 예상 가능한 문제들을 해결할 것"이라고 밝혔다. 이날 이사회에서는 서귀포시관광협의회와의 상생발전을 위한 관계 구축과 함께 회원사로써 전략적 지원방안도 논의됐다. 김태엽 서귀포시 부시장은 서귀포 시티투어의 활성화를 위한 협조를 건의했다. 양기철 제주특별자치도 관광국장은 "대의원총회에서 여행 트렌드 변화에 예의주시 해야 할 것"이라면서 "유튜브, 인스타그램, 페이스북 등 온라인을 활용한 마케팅 강화와 함께 업계의 어려운 현장의 소리를 경청하고 소통할 수 있도록 노력할 것"이라고 말했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 가볼만한곳 ‘광해 애월점’ 그 뷰가 아름다워 관광객들의 발걸음 끊이지 않아.. - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 가볼만한곳 ‘광해 애월점’ 그 뷰가 아름다워 관광객들의 발걸음 끊이지 않아.. 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 제주도 가볼만한곳 ‘광해 애월점’ 그 뷰가 아름다워 관광객들의 발걸음 끊이지 않아.. 김대일 승인 2019.02.23 11:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × (사진제공=제주광해 애월점) 테라스 그리고 실내에서도 보이는 푸른 바다, 푸른 제주 바다에서 잡은 싱싱한 해산물. 제주광해 애월점을 즐겨 찾는 사람들에게는 눈에 떠오르는 이미지이다.  제주 애월 맛집인 제주광해 애월점은 갈치조림, 갈치구이, 전복뚝배기 등 다양한 제주 향토음식을 판매하는 전문점이다. 갈치조림을 주문하면  돼지목살구이, 쌈채소, 우렁된장이 밑반찬으로 제공되는 것이 특징이며, 해산물과 가래떡이 적절히 들어 있기에 갈치의 맛을 제대로 음미할 수 있다고 제주광해 애월점 측은 말했다. 갈치는 비린 맛도 전혀 없고, 다른 재료들과 조화를 잘 이루었기에 간이 잘 되었다는 게 제주광해 애월점 단골고객들의 일반적인 평이다. 애월점을 찾은 손님은 “제주 바다를 보면서 갈치조림, 고등어구이 등을 다 같이 먹으니 너무 좋다.”며 “제주도에 놀러 올 때마다 늘 찾는 제주 맛집”이라고 말했다. 또 다른 단골 손님은 “갈치조림의 국물은 매콤하면서 달콤하기에 밥에 비벼 먹으면 한 공기를 더 시킬 정도로 식욕을 돋운다”며 “갈치살을 강된장에 찍어 채소에 쌈을 싸서 먹거나 고등어구이, 돼지목살구이와 같이 먹을 수 있다”고 말했다. ‘제주광해 애월점’ 관계자는 “애월점은 식당 전체가 통유리창으로 되어 있기에 테라스뿐만 아니라 실내에서도 바다가 잘 보인다”며 “손님들이 바다도 바라보면서 갓 잡은 해산물로 만든 음식을 드시기에 만족도가 높다”고 전했다. 김대일 기자  kdichb@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김대일 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도내 관광숙박업 5년새 갑절 급증 과잉공급 위기 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도내 관광숙박업 5년새 갑절 급증 과잉공급 위기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도내 관광숙박업 5년새 갑절 급증 과잉공급 위기 기자명 김용현 기자 입력 2019.02.21 16:19 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 1월 기준 5180곳 7만1790실 2013년 대비 126%와 97% 늘어제주도 불법업소 단속강화, 숙박업 수급관리, 업종 전환 등 유도제주도내 관광숙박업이 5년새 갑절이상 급증하는 등 공급 과잉으로 위기에 몰렸다. 결국 제주도가 나서 대책마련에 나선다.제주특별자치도에 따르면 올해 1월말을 기준으로 도내 숙박업체 수는 5180곳에 객실이 7만1790실인 것으로 집계됐다. 이는 지난 2013년 2292곳·3만6335실과 비교해 5년간 업체수는 126.0%, 객실수는 97.6%나 증가한 것이다.업종별로는 △관광숙박업 416곳·3만2195실 △휴양펜션업 97곳·857실 △일반(생활)숙박업 783곳·2만6087실 △농어촌민박업 3865곳·1만1809실 △유스호스텔 19곳·842실이다.이와 반대로 제주를 찾은 관광객은 2016년 1585만명으로 정점을 찍은 후 2017년 1475만명, 지난해 1433만명으로 2년 연속 감소세를 보이고 있다.2017년부터 진행중인 중국의 사드(고고도미사일방어체계) 보복으로 제주방문 관광객이 크게 줄면서 숙박업소의 공급과잉 현상은 당분간 지속될 전망이다. 더구나 정부가 도심지역 공유숙박(민박)도 허용할 계획이어서 출혈경쟁은 더욱 심해질 수밖에 업삳.이에 따라 도는 숙박업계 회생을 위해 불법 숙박업소 단속 강화, 숙박업소 수급관리에 역량을 집중키로 했다.우선 노후 숙박시설 업종 전환을 유도하고, 착공하지 않거나 준공하지 않는 관광숙박사업장은 행정처분 절차를 적극 밟을 계획이다.아울러 불법 숙박업 시설에 대해서도 행정시와 자치경찰, 제주도관광협회 주관으로 '불법숙박업소 신고센터'와 '불법숙박 단속 보안관'제를 운영하는 등 상시 감시체제로 기능을 강화한다. 김용현 기자 김용현 기자 noltang@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>3월 제주도 여행 10선...놓치면 후회할 봄 관광명소는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 3월 제주도 여행 10선...놓치면 후회할 봄 관광명소는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 3월 제주도 여행 10선...놓치면 후회할 봄 관광명소는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2019.02.20 09:26 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사 3월 제주관광 10선 발표 제주관광공사(사장 박홍배)는 20일 ‘봄날, 꽃길 그리고 제주의 화양연화’라는 테마를 주제로 관광지, 자연, 체험, 축제, 음식 등 다양한 분야에서 놓치지 말아야 할 2019년 3월 제주 관광 추천 10선을 발표했다. 1. 샛별 닮은 들불이 밝히는 ‘입춘대길’– 제주들불축제 2019 제주의 봄은 눈부신 들불로 제 존재를 드러낸다. 봄기운을 오롯이 받아내 생명을 틔우려면 해묵은 것들을 태워야 하기 때문이다. 중산간 초지의 해묵은 풀과 해충을 없애기 위해 불을 놓는 ‘방애’라는 제주 풍습을 현대화하여 발전시킨 제주들불축제에서 타오르는 불에 새로운 희망을 담아 날려 보내보자. 22회째를 맞은 제주들불축제는 3월 7일부터 10일까지 진행된다. 4일간 삼성혈부근과 새별오름에서 들불 불씨 봉송퍼레이드, 소원달집 만들기 및 태우기, 내 소원문구 레이저 쇼 등 다채로운 들불행사가 마련될 예정이다. 축제의 하이라이트 ‘오름불 놓기’는 셋째 날 진행되니, 오름 전체가 불타오르는 장관을 보고 싶다면 잊지 말고 9일 날 새별오름으로 향하시라. 밤하늘을 수놓는 들불로 장식될 봄날의 추억을 가득 담아가길.▸ 새별오름 : 제주시 애월읍 봉성리 58-12. 유채 바다에서 봄을 유영하다– 유채꽃 봄이면 제주에는 샛노란 바다가 물결친다. 흐드러지게 핀 유채꽃은 바닷바람을 파도삼아 이리저리 흔들리며 사람들을 유혹한다. 추위에 강한 유채는 초봄부터 늦봄까지 노란 얼굴을 보여줘 잠시 머물다 가는 봄을 길고 진하게 만끽하도록 해준다. 산방산 주변, 성산의 유채꽃재배단지, 한담해변의 산책로에 유채꽃을 만날 수 있다. 산방산의 포토스팟은 유채꽃 뒤로 산방산이 보이는 곳이고, 성산의 유채꽃재배단지와 한담해안산책로의 포토스팟은 유채꽃과 함께 푸르른 바다가 한 프레임에 담기는 곳이다. 봄을 열렬히 환영하는 듯 꽃망울을 쉼 없이 터트리는 유채가 만든 샛노란 바다의 한가운데서 봄을 유영하는 기분을 경험해보시길 바란다.▸ 산방산 : 서귀포시 안덕면 산방산▸ 유채꽃재배단지 : 서귀포시 성산읍 고성리▸ 한담해안산책로 : 제주시 애월읍 한담해안산책로3. 꽃물 스민 손끝으로 만드는 예쁜 추억– 플라워 원데이 클래스 힐링의 섬, 제주에 찾아온 봄을 마주하는 새로운 방법으로 플라워 원데이 클래스를 추천한다. 색색의 꽃을 취향에 맞게 꽂다보면 어느새 손끝은 꽃으로 물들고, 봄을 어루만지는 착각마저 든다. 제주시에 위치한 ‘돌담길 옆 꽃낭’과 ‘얼리스프링플라워’, 한경면 두모리의 ‘미레이나’는 플라워 원데이 클래스를 운영하고 있다. 원데이 클래스를 신청하고 싶다면 1, 2주 전에 미리 예약해야하고, 세 곳 모두 주문 제작도 가능하니 참고할 것. 특히 미레이나는 꽃으로 데코레이션한 카페를 함께 운영하고 있다. 고소한 커피 향과 은은한 꽃내음을 음미하며 잠시 쉬어가도 좋다. 올 봄, 제주에서 웨딩촬영이나 스냅사진 촬영을 계획하고 있다면, 직접 만든 꽃다발로 사진을 더욱 아름답게 꾸며보는 건 어떨까. 사진마다 제주의 봄과 꽃향기가 스며들도록.▸ 미레이나 : 제주시 한경면 두모3길 17 12:00~6:00 ▸ 돌담길 옆 꽃낭 : 제주시 노형3길 6-9 11:00~19:00 ▸ 얼리스프링플라워 : 제주시 구남동2길45-12 1층 11:00~19:004. 입 한가득 퍼지는 꽃내음, 봄을 마시다– 꽃차 카페 봄은 한 순간에 오지 않는다. 찬바람을 천천히 밀어내며 온기가 대지에 스며들도록 정성을 기울인다. 봄이 오는 모양새는 꽃차를 빼어 닮았다. 건조되어 움츠린 꽃에 온수를 부으면 조금씩 꽃잎이 펼쳐지고, 가득 머금은 향과 오묘한 빛깔로 찻물을 천천히 물들인다. 꽃차를 한입 머금었을 때, 입 안 가득 피어나는 꽃의 맛. 마셔보지 않으면 그 매력을 감히 상상하기 힘들다. 용담동의 무상찻집과 오라동의 위치한 도리화과에서 꽃차를 경험해보자. 무상찻집은 생강나무 꽃차, 금송화차, 목련꽃차가 메인 메뉴로 11:00~21:00까지 운영하고 휴무일은 수요일. 도리화과는 복숭아 꽃잎으로 만든 도화차를 비롯해 홍차, 보이차, 허브차 등 다양한 차가 구비되어 있다. 운영 시간은 12:00~20:00까지, 화요일 휴무다. 꽃차 카페에서 제주의 찬란한 봄을 마셔보자. ▸ 무상찻집 : 제주시 서광로5길 10 11:00~21:00 수요일 휴무▸ 도리화과 : 제주시 아연로 194 12:00~20:00 화요일 휴무5. 천 가지 기쁨이 샘솟는 동네– 낙천리 아홉굿마을 봄빛이 제주에 닿으면 겨우내 움츠렸던 생명들이 온기로 가득 찬 세상을 기쁘게 맞이한다. 낙천리는 하늘에서 내려준 천 가지 기쁨을 간직한 곳으로 생기를 머금는 봄이 되면 더욱 반짝인다. 이곳에 아홉 개의 굿이 있다는 ‘아홉굿마을’이 있다. 제주말 ‘굿’은 연못처럼 물이 고인 곳이란 뜻. 마을 초입에서 큰 연못을 볼 수 있다. 언뜻 보면 평범한 마을처럼 보일 수 있으나 천 개의 의자로 조성한 ‘낙천의자공원’을 만나면 생각이 달라진다. 다양한 의자 조형물은 주변 자연과 조화를 이루어 각각의 의자마다 한 폭의 그림을 그려내고, 의자마다 새겨진 이름의 작명 센스에 웃음꽃이 저절로 피어난다. 더불어 낙천리의 특산물인 보리를 활용해 보리피자, 보리빵, 보리수제비 만들기 체험 프로그램을 운영 중이다. 아홉굿마을의 천 가지 기쁨, 즐길 준비만 하면 된다.▸ 낙천리 아홉굿마을 : 제주시 한경면 낙수로 976. 늘 푸르러라, 소담하고 깊은 숲이여– 납읍리 난대림 지대 ‘금산공원’ 납읍리에는 사시사철 울창한 숲이 있다. 바로 난대림 지대인 금산공원이다. 상록활엽수와 난대성 식물 200여 종이 자라는 이곳은 천연기념물이기도 하다. 한 바퀴를 두르는 거리는 400m 남짓. 하지만 걷는 속도를 늦출 때, 비밀스러운 풍경을 드러낸다. 온화한 지역에서 온 나무들은 제각기 자유로운 모양새로 잎과 가지를 힘껏 뻗어 더운 계절의 생명력을 뿜어낸다. 옛 선비들이 시를 읊으며 풍류를 즐겼던 송석대와 인상정은 이제 당신만을 위한 고요를 간직하고 있는 곳이 되었고, 마을제를 지내는 포제청은 늘 푸르른 숲처럼 변함없이 마을의 안녕을 기원한다. 운이 좋다면 공원을 오가는 길목에서 저물어 가는 동백꽃과 금방이라도 꽃잎을 틔워낼 벚꽃을 모두 볼 수도 있다. 겨울에서 봄으로 걸어가는 문턱에 선 지금, 늘 푸르른 수목이 봄을 앞당겨 줄지도 모르겠다. ▸ 금산공원 : 제주시 애월읍 납읍리 1457-17. 동심으로 향하는 무지개 다리– 도두동 무지개 해안도로 &amp; 더럭초등학교 기나긴 겨울, 무엇보다 밝은 색채가 그리웠을 계절이다. 봄으로 향하는 걸음을 재촉하는 무지개 다리에 사뿐 발 디뎌보자. 제주국제공항 뒤편 도두봉 근처의 용담해안도로는 ‘무지개 도로’라고도 불린다. 바다와 땅을 나누는 무지개 담장이 길을 따라 늘어서 있어서다. 새파란 바다를 배경으로 색색의 담장에 앉아 사진을 남기는 게 인기. 얼마 전 분교에서 승격한 더럭초등학교도 알록달록한 외벽을 자랑한다. 한 광고를 통해 컬러리스트 장 필립 랑클로가 색을 입힌 곳으로 유명한데, 학생들의 공간이므로 평일에는 오후 6시 이후에 입장 가능하다. 마련되어 있는 관람로를 따라 둘러본다면 학생도 관람객도 무지개빛 학교가 주는 행복을 즐길 수 있다. 오색찬란한 빛깔에 마음이 설레 오는가. 봄은 이미 당신 곁에 도착했다. ▸ 도두동 해안도로 : 제주시 도두동 해안도로▸ 더럭초등학교 : 제주시 애월읍 하가로 1958. 평안을 약속하는 태풍의 눈– 아부오름 제주 동쪽의 중산간 마을 송당리는 크고 작은 오름이 옹기종기 모여 얼굴을 맞대고 있는 곳이다. 마을의 앞에 있어 앞오름으로도 불리는 아부오름은 봄의 기운에 떠밀려 가뿐히 오를 수 있는 야트막한 언덕이다. 정상을 향해 위를 바라보며 오르는 게 등산이라면 아부오름은 산책이라는 단어가 어울린다. 정상까지의 높이 51m, 어렵지 않게 오른 뒤 둘레를 따라 걷는 곳이라서다. 중심의 분화구가 움푹 꺼진 형태이며 위에 서면 발아래 숲이 펼쳐진다. 삼나무가 둥글게 감싸고 있는 산굼부리는 어느 때고 평온할 태풍의 눈 한가운데 같다. 한결같은 삼나무와 철마다 모양을 바꾸는 너른 수풀 주위를 천천히 걷다 보면 어느새 봄날이 곁에 다가와 있을 테다.▸ 아부오름 : 제주시 구좌읍 송당리 산 164-19. 이상한 나라를 여행하는 법– 소인국 테마파크 만약 거인이 된다면 어떤 느낌일까? 서귀포 서쪽에는 어릴 적 상상을 실현해 줄 '이상한 나라'가 있다. 모험은 준비 없이 시작되는 법이니 소인국 테마파크로 성큼 들어서 보자. 너른 공원에는 불국사, 경복궁부터 에펠탑, 만리장성까지, 작은 버전의 세계 유명 건축물이 곳곳에 있다. 큰 보폭으로 지구 곳곳을 누비는 체험은 물론 역사와 유적 공부는 덤이다. 재미나고 기발한 포즈로 포토존을 활용하는 재미도 있다. 또 다른 볼거리는 지난해 9월 시작된 '앨리스: 인투더래빗홀' 전시. &lt;이상한 나라의 앨리스&gt; 속 앨리스의 모험을 재현한 미디어 아트와 12개 팀의 일러스트가 준비되어 있다. 숲과 토끼굴, 거울 나라 등 앨리스의 여정을 따라가며 명작 동화를 나의 이야기로 만들어 보자.▸ 소인국 테마파크 : 서귀포시 안덕면 서광리 72510. 쫄깃쫀득, 탱탱~ 씹는 맛 일품 생선– 객주리 객주리는 쥐치를 일컫는 제주 말이다. 쥐치는 쥐포의 재료로 흔히 알려졌지만 제주에서는 객주리조림을 특히 즐겨 먹는다. 특유의 쫄깃하고 쫀득한 식감은 익혀도 살아 있는 데다 매콤하고 은근히 단 양념은 그야말로 밥도둑이다. 비린 맛이 없어 생선을 좋아하지 않는 사람도 쉽게 시도할 만하다. 짭조름한 양념에 찰진 생선 살, 부드럽게 익은 채소를 집어 먹다 보면 어느새 밥 한 그릇 뚝딱. 시린 바람에 잠시 잃었던 입맛을 되찾아 올 따뜻하고 푸짐한 별미다. 얼큰한 탕이나 쫄깃함을 그대로 느낄 수 있는 회로도 먹으니 취향 따라 고르는 재미가 있다. 쥐치는 연중 잡히는 어종이지만 바다 날씨에 따라 배가 뜨지 않을 때는 식당에 고기가 들어오지 않을 때도 있다. 헛걸음하지 않도록 전화문의가 필수다.‣길객주리 : 제주시 연동 291-10 / 064-744-1156‣신현대식당 : 제주시 건입동 1319-19 / 064-721-8803 제주관광공사의 2019년 3월 추천 관광 10선은 제주관광정보 사이트(www.visitjeju.net)에서 자세히 볼 수 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주-오키나와 교류 관광 추진 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도관광협회, 제주-오키나와 교류 관광 추진 (제주=뉴스1) 안서연 기자					| 2019-02-19 17:55 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 (제주도관광협회 제공) 2019.02.19/뉴스1 © 뉴스1 제주도관광협회(이하 협회)는 오키나와관광켄벤션뷰로와 함께 양 지역간 관광객 유치 활성화를 위해 공동 협력 세일즈 마케팅을 추진했다고 19일 밝혔다.협회에 따르면 최근 양 기관은 '해외 관광단체 우호 협력 사업'의 일환으로 일본 오키나와에서 열린 '2019 오키나와 마라톤대회'에 참석해 도내 레저·스포츠 체험 관광을 홍보했다.또 오키나와투어리스트 등 현지 주요 여행사와 제주 전세기 여행상품 판촉 간담회를 열고 양 지역 관광 협력체계 강화로 공동의 이익 창출 방안을 모색하는 등 실질적인 교류증진 방안에 대해 논의했다.이 자리에서 협회는 제주의 골프, 트레킹, 한류 등을 테마로 하는 제주~오키나와 직항 전세기 상품이 성황리에 판매됨에 따라 향후 실질적 수요가 커질 경우 추가적인 항공편 투입도 검토하기로 했다.협회는 2006년 오키나와관광컨벤션뷰로와 우호친선협정을, 지난해에는 공동협력 마케팅협약을 각각 체결한 바 있다. asy0104@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주종합관광안내센터 친절 캠페인 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주종합관광안내센터 친절 캠페인 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광협회, 제주종합관광안내센터 친절 캠페인 기자명 강지환 기자 입력 2019.02.19 10:15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 김영진)는 제주 방문 관광객 감소를 극복하기 위해 최근 제주국제공항, 제주항여객터미널, 성산포항, 이동형 안내소에서 국내·외 관광객을 대상으로 제주관광 친절 캠페인을 시행했다고 19일 밝혔다.주요 내용으로는 제주종합관광안내센터 친절도우미 운영, 안내센터 전 직원 고객만족서비스(CS) 교육 및 모니터링 강화, 고객 만족도 조사, 전 직원 스마일 배치 착용 등 서비스 혁신 캠페인 등이다. 도관광협회는 앞으로도 장애 유형에 따른 맞춤형 안내 교육 등 관광약자 눈높이에 맞춘 진정성 있는 친절서비스를 추진할 계획이다.제주종합관광안내센터 관계자는"제주종합관광안내센터는 관광객이 처음으로 접하는 제주의 이미지"라며 "적극적인 친절 서비스 향상으로 '다시 찾고 싶은 제주'를 위해 최선의 노력을 기울이겠다"고 말했다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>효리의단골집 SNS화제 서귀포갈치조림, 제주도 중문 관광단지 맛집 어디? &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 효리의단골집 SNS화제 서귀포갈치조림, 제주도 중문 관광단지 맛집 어디? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 효리의단골집 SNS화제 서귀포갈치조림, 제주도 중문 관광단지 맛집 어디? 기자명 장준영 기자 승인 2019.02.17 10:00 댓글 0 조회수 : 12829 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 주말을 이용해 가족,친구,연인과 함께 떠나기 좋은 국내여행지를 알아보자. 제주도는 천혜의 자연경관과 함께 즐길거리 먹거리가 풍부해 사시사철, 남녀노소 인기인 곳이다. 제주도필수여행코스로는 한라산의 백록담과 오설록티뮤지엄, 대포주상절리, 용머리해안 등이 있다. 제주도의 곳곳을 다니고 싶다면 제주공항근처에 숙소를 정하는것도 추천한다. 교통이 편리하고 제주공한 근처로 이호테우해변, 용담해안도로, 용두암 등 관광지가 많고 애월,한림,서귀포 등 제주도 대표 관광지까지 쉽게 다닐 수 있기 때문이다. 제주도 겨울여행지로 손꼽히는 제주 중문 관광단지는 중문해수욕장을 비롯해 천제연폭포, 여미지 식물원 등 볼거리와 놀거리가 충분하며, 여러 고급 숙박시설까지 자리해 단기는 물론 장기 여행에도 적합하다는 평이 많다. 때문에 중문관광단지 인근에는 관광하며 허기진 배를 채울 수 있는 음식점도 즐비한데 그중 제주 중문 맛집 ‘이조은식당’이 영양소가 풍부함은 물론, 최근 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 눈길을 끌고 있다. 이 곳은 2대째 이어온 제주 서귀포 갈치조림 맛집으로 갈치조림과 함께 갈치 회, 갈치구이를 다루며, 이를 보다 합리적으로 맛볼 수 있는 정식 메뉴도 판매하고 있다. 대표 메뉴는 갈치 회, 갈치조림을 기본으로 제공하면서 갈치구이와 고등어구이 중 하나를 선택해 총 세가지 메뉴를 즐길 수 있게 한 갈치 정식으로, 이 밖에도 네가지 정식 메뉴와 스페셜 메뉴 한 가지를 선보이고 있다. 이 외에도 1인, 혹은 2인이서 주문할 수 있는 식사류를 다루고 있다. 갈치조림과 고등어조림은 2인이서 즐길 수 있는 대표 식사류로, 그 밖에 고등어구이, 전복뚝배기, 전복죽, 성게국, 갈치덮밥, 한치회덮밥 등 해산물을 주재료로 한 메뉴를 다양하게 판매한다.제주 서귀포 맛집 이조은식당 관계자는 “갈치조림과 갈치 회를 비롯해 다양한 갈치 요리를 저렴하게 제공하고 있는데 이같은 합리적인 가격과 정성 담아 맛을 한껏 살린 요리들로 제주도민과 제주 중문관광단지를 찾는 관광객들로부터 입소문을 타 중문관광단지 맛집으로 알려지고 있다. 제주도에 거주하는 연예인도 자주 방문한다”고 전했다. 이어 “중문관광단지 인근에 있어 관광 전후로 방문하기 용이하며, 관광지 근처인 특성상 편의시설이나 교통편도 잘돼있다. 연말을 맞아 한 해를 마무리하기 위해 많은 여행객이 찾고있는데 관광과 함께 맛있는 음식을 즐기며 잊지 못할 추억을 만들고 가기 바란다”고 덧붙였다. '이조은식당'은 가까이에 위치한 여러 관광지때문에 천지연폭포 맛집, 쇠소깍 맛집,카멜리아힐 맛집,표선해수욕장 맛집, 중문색달해수욕장 맛집, 화순금모래해수욕장 맛집 등 다양한 수식어로 불리며 제주도 맛집 베스트 10에 속한다. 한편, 제주도 중문 가볼만한 곳으로는 중문색달해수욕장과 실탄사격장, 박물관은 살아있다, 플레이케이팝, 미로파크, 어촌체험, 테디베어박물관 등이 더불어 인기다. 장준영 기자 pamir63@busaneconomy.com 장준영 기자 pamir63@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>홍성군-제주도 문화관광개발 단체관광교류 활성화 '맞손' &lt; 홍성 &lt; 충남 &lt; 기사본문 - 충청일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATED : 2022-10-11 12:43 (화) 제보 로그인버튼 로그인 회원가입 실시간뉴스 맛 가격 최고 …청원생명축제 60만명 찾았다 최근 5년간 부정승차 123만건, 부가운임만 208억원 대통령 집무실 동측에 새 진입로 건설 중…"도어스테핑 피하기?" 정우택 "작년 서울 극단선택, 20대 9.3% 증가…30·40대보다 많아" 10일, 단양 소백산에 ‘첫눈’ [동정] 김창규 제천시장 제천소방서, 의용소방대기술경연대회 ‘성료’ 이장우 시장, 베트남 빈증성 보반민 성장 접견 세종대왕과 초정약수 축제 성료 공주 석장리박물관, 기획전 '한글과 구석기' 전체메뉴 버튼 뉴스 정치 경제 사회 교육 문화 포토뉴스 연예 스포츠 핫이슈 비주얼뉴스 사람과일 우리지역소식 ONLY 충청 지역 충북 충남 대전·세종 오피니언·기획 오피니언 지난오피니언 자랑스러운 忠淸人 충북 독립운동가 열전 파워인터뷰 방과후 학교 우수사례 미주알고주알 CC온라인뉴스룸 명인열전 다시 보는 충청일보, 50년 전 오늘 김명기 편집인의 오늘 이 사람 지난기획연재 충청일보TV 동영상뉴스 미니다큐 문화행사 낮은의자 충청 문화산책 뉴스있슈! 사설 돋보기 우리말툰 노메이크업 웹드라마 [도플갱어] 모션뉴스 이슈톡톡 안녕, 오늘! 부동산리포트 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 홍성군-제주도 문화관광개발 단체관광교류 활성화 '맞손' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 충남 홍성 홍성군-제주도 문화관광개발 단체관광교류 활성화 '맞손' 기자명 조병옥 기자 입력 2019.02.12 17:16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [홍성=충청일보 조병옥기자] 충남 홍성군은 다음달 부터 제주도 단체관광을 홍성으로 유치, 1박2일 이상 '머무는 관광'으로 진행한다고 12일 밝혔다. 올해를 '관광 원년의 해'로 정한  군은 이날 군청에서 제주도 한국문화관광개발과 단체관광교류 활성화를 위해 상호협력 업무협약(MOU)을 체결했다.또한 다양한 관광자원의 개발에 제주도민의 역관광의 발상으로 다음달 말부터 제주도에서 찾아오는 단체관광객들을 홍성에 지속적으로 유치할 계획이다.협약은 △숙박 여행상품 구성 및 판매 협력 △CI 및 여행 협력 지정업체 문구사용 협력 △문화관광 버스투어 지원 및 홍보 기념품 제공 △숙박영상 IPTV, 포스터, 리플렛, 지면 상품 홍보 △각 기관 간 자원, 정보 공유 및 활성화 사업을 적극 발굴 추진할 것을 담고 있다. 조병옥 기자 cbo524@naver.com 다른기사 보기 저작권자 © 충청일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 [10월 1일은 국군의날] 3대 9명이 494개월 복무... 병역명문가의 나라 사랑 청원생명축제 개막…청주 오창서 내달 10일까지 [초점] KTX 세종역 신설 '세 번째' 도전 청주 조정대상지역 해제 불구…쌓여가는 아파트 매물 [속보]개량백신 예약 저조, 접종대상 확대 검토 충북자치연수원 제천이전, ‘왜 늦어지나’ [단독]국립공원 탐방로 예약제 정부간 '엇박자' [10월 1일은 국군의날] 3대 9명이 494개월 복무... 병역명문가의 나라 사랑 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 103회 전국체전서 충북선수단 선전 국립대병원 출산비용 편차 크다... 충북대병원 전국 두 번째 '언론 화합 한마당' 2022 충북기자협회 한마음체육대회 성료 세계 한인회장단 초청 충북 발전 간담회 개최 [속보]개량백신 접종 예약 '비상' 독감 환자 1주일새 45% 급증 실시간 뉴스 맛 가격 최고 …청원생명축제 60만명 찾았다 최근 5년간 부정승차 123만건, 부가운임만 208억원 대통령 집무실 동측에 새 진입로 건설 중…"도어스테핑 피하기?" 정우택 "작년 서울 극단선택, 20대 9.3% 증가…30·40대보다 많아" 10일, 단양 소백산에 ‘첫눈’ [동정] 김창규 제천시장 제천소방서, 의용소방대기술경연대회 ‘성료’ 이장우 시장, 베트남 빈증성 보반민 성장 접견 세종대왕과 초정약수 축제 성료 공주 석장리박물관, 기획전 '한글과 구석기' 인기뉴스 1 이제는 부동산 취득세 중과를 풀어야 할 시기 2 계룡세계군문화엑스포 7일 개막 3 [속보]개량백신 예약 저조, 접종대상 확대 검토 4 은행동·대흥동 일원 '대전 0시 뮤직페스티벌' 개최 5 충북자치연수원 제천이전, ‘왜 늦어지나’ 6 [단독]국립공원 탐방로 예약제 정부간 '엇박자' 7 예산군, '6회 예산장터 삼국축제' 14~20일까지 개최 8 코로나 주춤, 가장 센 독감 온다 포토뉴스 10일, 단양 소백산에 ‘첫눈’ 이장우 시장, 베트남 빈증성 보반민 성장 접견 [장문석의 발길 디카詩] 부들어린이집 이상래 의장, 동구 노인의 날 기념행사 참석 하단영역 하단메뉴 매체소개 기사제보 광고문의 구독문의 이용약관 고충처리인 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 충청북도 청주시 흥덕구 직지대로 769 충청일보빌딩 (우편번호 28470) 대표전화 : 043)279-2000 팩스 : 043)279-2020 청소년보호책임자 : 천정훈 법인명 : 충청일보 제호 : 충청일보 등록번호 : 충북 가 00001 충청일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 충청일보. All rights reserved. mail to news1948@naver.com 위로 전체메뉴 전체기사 정치 전체 정치일반 청와대·외교 행정·지자체 국회·정당 선거현장 6.1지방선거 경제 전체 경제일반 산업·기업 건설·부동산 생활경제·유통 금융·증권 취업·창업 분양광고 사회 전체 사회일반 사건·사고 여성·복지 환경 국제 현장속으로 초록우산이야기 교육 전체 충청돋보기 문화 전체 문화일반 건강·의료 여행·레져 뷰티·패션 공연·전시 문학·출판 미스코리아 미스인터콘티넨탈 문화산업 충북 전체 보은 옥천 영동 괴산 진천 음성 충주 제천 단양 증평 종합 충남 전체 천안 공주 보령 아산 서산 논산 금산 부여 서천 청양 홍성 예산 태안 당진 계룡 내포 대전·세종 전체 대전 세종 포토뉴스 전체 충청포토 전국포토 포토스토리 장문석의 발길:디카詩 스포츠 전체 스포츠 일반 육상‧ 마라톤 축구 야구 농구 연예 전체 방송·연예 가요·음악 영화 핫트렌드 핫이슈 社告 사람과일 전체 동정 운세 우리지역소식 전체 인사·동정 모임·행사 결혼·축하 개업·홍보 부음·애사 오신 손님 알림·기타 기획연재 전체 파워인터뷰 방과후 학교 우수사례 미주알고주알 재경 출향인사를 만나다 건곤 화백(乾坤 畵伯) 영화 피터安의 골프이야기 오마이펫(PET) 자랑스러운 忠淸人 충북 독립운동가 열전 다시 보는 충청일보, 50년 전 오늘 명인열전 충청일보 2021 어젠다 '위기를 넘어 희망찬 내일로' 농촌을 살리자 '꿈나래 학교'를 가다 우리 語源 이야기 김명기 편집인의 오늘 이 사람 창간 76주년 특집 6.1지방선거 후보자 인터뷰 지난기획연재 전체 정종진교수의 속담여행 김경민의 미술이야기 동학농민혁명현장을 찾아 밥상레시피 직지포럼 경제특별도 건설 잘되고 있나? 우리동네스타 충북도, 대규모 스포츠대회유치 가능한가! 명인열전 대덕연구개발특구, 이대로는 안된다 내멋에산다 세계조정선수권 충주유치 가능한가 어린이 보호구역 안전한가 충주 세계무술축제 성공조건은? 르포 - 잊혀져가는 풍경 충청일보 연중캠페인 17대 대선공약 대전 서남부권 개발 이대론 안된다 우리동네 금고 주간낙수·도토리 한만수의 대하 장편소설 금강 대를잇는 맛자랑 선거법바로알기 Weekend 신충청기행 충북의 성씨를 찾아서 사학의 뿌리를 찾아 중국어 기본은 한다 전원학교 우수사례 고사성어 기행 충청맛집기행 발따라길따라 충청인의 젖줄 대청호500리길 한국고유의 사이언스 충청일보지상갤러리 파워인터뷰 경제특별도충북건설 행정중심복합도시 긴급제언 행정중심복합도시건설 무엇이 문제인가 우리학교최고! 18대총선후보자토론회 2008총선현장리포트 장호봉의 약초기행 꿈을 이루는 농업의 역군들 충청교육100년 희망을위해 뛰는사람들 대형마트 지역경제 상생방안은? 충청권홀대론 극복 송태호의 실크로드여행기 브랜드파워 도심 속 문화공간 김태인의 주간증시전망 이문학의 관상으로 보는 세상 불혹 앞둔 청주산단 경쟁력 강화방안은 의학칼럼 충북미술지도를 바꾸다 인물탐구 민선 4기 반환점…단체장에 듣는다 만평요지경 총선 첫 도전인물들 창간 75주년 특집 20대총선 선택! 21대 총선 지난오피니언 전체 직지포럼 시론 목민의창 성직마당 경제인칼럼 신길수칼럼 변광섭칼럽 김미혜칼럼 정현웅칼럼 의학상식 법률상식 세무상식 물이야기 한방산책 노무상식 무심천 삶의향기 문화칼럼 우리고장의역사한담 객석에서 어경선칼럼 오영미칼럼 평화의샘 전태익칼럼 권영정칼럼 운천동단상 충청포럼 김영대칼럼 김춘길 칼럼 아침의 단상 김정렬칼럼 발언대 이정칼럼 조무주칼럼 기자의눈 홍익칼럼 역술이야기 이광형의시각 이진영칼럼 세월에 새긴 그림 신찬인칼럼 똑똑한 임신 행복한 출산 김종원의 생각너머 신수용의 쓴소리 칼럼 오피니언 전체 사설 기고 데스크시각 교육의눈 충청논단 충청칼럼 충청광장 충청의창 세상을보며 월요일아침에 수요단상 목요사색 충청시론 충청시평 살며생각하며 생활안전이야기 내일을열며 우리말알기 오병익칼럼 김진웅칼럼 백목련 의학칼럼 김재영칼럼 김효겸의 세상바라보기 충청산책 건강칼럼 충청돋보기 박별 칼럼 김명기의 톺아보기 중장년 일자리 이야기 이규철의 100세 대학 장중식의 뉴스&amp;스토리 CC라이프뉴스 전체 트래블메이커 대학생의 눈 인생은 아름다워 사업·행사 충청일보TV 전체 동영상뉴스 미니다큐 낮은의자 문화행사 핫이슈영상 메디컬충청 충청 문화산책 뉴스있슈! 사설 돋보기 우리말툰 노메이크업 웹드라마 [도플갱어] 모션뉴스 이슈톡톡 안녕, 오늘! 지면보기 국제뉴스 CC온라인뉴스룸 전체 "쏙쏙" 식의약 생활정보 경제야 놀자! 1분 우리말 퀴즈 카드뉴스 똑똑한 수요일 오마이펫 미디어데스크 위클리 연예 통(通) 오늘의 충청일보 헤드라인충청 반찬뉴스 PICK 북 비주얼뉴스 동영상 전체 동영상뉴스 충청 문화산책 뉴스있슈! 이슈톡톡! 안녕, 오늘! 웹드라마[도플갱어] 우리말툰 노메이크업 문화 행사 사설 돋보기 모션뉴스 메디컬충청 미니다큐 낮은의자 충청일보어린이합창단 전체 영상갤러리 미스코리아영상 전체 세종&amp;충북 대전&amp;충남 영상사업부 전체 항공 촬영 의료 영상 토목·건축 영상 인터넷 방송 제작 CF·홍보 영상 중계영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본 고부가가치 관광객 유치 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 일본 고부가가치 관광객 유치 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도관광협회, 일본 고부가가치 관광객 유치 기자명 문서현 기자 입력 2019.02.11 15:21 수정 2019.02.11 15:24 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 아리타시관광협회와 협력마케팅 전개 제주도관광협회는 지난 8일부터 11일까지 일본 우호협력단체인 와카야마현 소재 아리다시관광협회와 양 지역간 고부가가치 레저스포츠 관광객 유치 확대를 위한 비즈니스 마케팅을 진행했다제주도관광협회는 일본 고부가가치 레저스포츠 관광객 유치 확대를 위한 비즈니스 마케팅을 진행했다.제주도관광협회(회장 김영진)에서는 지난 8일부터 11일까지 일본 우호협력단체인 와카야마현 소재 아리다시관광협회와 양 지역간 고부가가치 레저스포츠 관광객 유치 확대를 위한 비즈니스 마케팅을 진행해 큰 호응을 얻었다.도 관광협회는 아리다시관광협회가 주관하는 제11회 아리다시미캉카이도마라톤에 참가, 오는 5월 26일(일) 개최하는 제24회제주국제관광마라톤축제를 비롯해 FIT&amp;SIT 관광상품을 홍보했다.이날 간담회를 통해 양 지역 마라톤을 활성화해 나가고, 관광뿐 만 아니라 감귤 등 1차 산업과도 연계해 양 지역의 성장ㆍ발전을 견인해 나가기로 했다.올해로 24회째를 맞이하는 제주국제관광마라톤축제는 1995년을 시작으로 일반인이 참여하는 국내 최초 시민참여 마라톤대회로서 에메랄드빛 아름다운 해변을 만끽하면서 남녀노소, 가족, 연인 등 누구나 즐길 수 있는 스포츠축제의 장이다.한편 관광협회는 일본 오키나와관광컨벤션뷰로와 우호 협력을 활용한 레저·스포츠 관광객 유치를 위해 오는 15일부터 18일까지 오키나와 마라톤 대회에 참가해 제24회 제주국제관광마라톤축제를 홍보해 나 갈 예정이다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>중문관광단지 활성화 해법은? 현장 찾는 제주도의회 &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 중문관광단지 활성화 해법은? 현장 찾는 제주도의회 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 중문관광단지 활성화 해법은? 현장 찾는 제주도의회 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2019.02.11 14:04 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도의회 문화관광체육위원회, 13일 찾아가는 소통의정·정책토론회 개최 ▲ 이경용 위원장. ⓒ제주의소리 제주도의회가 중문관광단지 활성화 해법을 찾기 위해 현장을 찾는다.제주도의회 문화관광체육위원회(이경용 위원장)는 오는 2월13일 오후 4시 제주국제컨벤션센터에서 ‘중문관광단지 활성화를 통한 서귀포 지역경제 회생방안’을 주제로 정책토론회를 개최한다.이번 토론회를 주최하는 이경용 위원장은 “한국관광의 1번지로 1978년에 조성된 중문관광단지가 관광거점 역할 및 지역경제 활성화 기대에도 불구하고 점점 침체 위기에 빠져들고 있다”며 “중문관광단지의 위기극복을 통해 당초 조성 취지대로 자리매김할 수 있도록 활성화 전략을 모색하기 위해 이번 정책토론회를 준비하게 됐다”고 밝혔다. 토론회에서는 이진희 제주대학교 관광개발학과 교수가 ‘제주 중문관광단지 활성화 전략’ 주제발표를 진행한 뒤 강민숙 의원, 고동수 제주신보 논설위원, 장명선 중문관광단지협의회장, 신희섭 한국관광공사 제주지사장, 문성환 제주관광공사 면세사업단장, 신용철 서귀포시관광협의회 사무국장, 양기철 제주도 관광국장, 정윤창 서귀포시 관광진흥과장 등이 참여한 가운데 지정토론이 진행된다. 토론자로 참석하는 강민숙 의원은 “이번 토론회를 계기로 중문관광단지의 운영실태 진단과 활성화 전략 모색을 위해 중문단지 관리주체인 한국관광공사, 단지내 입주업체는 물론 도와 행정시, 인근 지역주민들이 다 함께 모여 머리를 맞대어 관광단지 활성화 전략 모색을 위한 좋은 기회와 논의의 장이 되길 기대한다”고 말했다. 이번 정책토론회를 시작으로 문화관광체육위원회에서는 문화관광현안에 대해 지속적으로 지역상생 문화관광포럼을 기획할 예정이며, 직접 현장을 찾아 목소리를 듣는 논의의 장을 확대해 나갈 계획에 있다.또한 토론회에 앞서 문화관광체육위원회 소속 의원들은 찾아가는 소통의정의 일환으로 2월에 시작되는 임시회 업무보고 준비를 위해 제주국제컨벤션센터의 MICE 다목적 복합시설 확충사업 건축 부지와 부영호텔 연결통로 현장을 둘러보고 추진상황을 보고받을 예정이다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>토러스증권 “롯데관광개발, 제주도 카지노 이전 및 확장 허가 가능성↑” - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 증권 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 증권 &gt; 토러스증권 “롯데관광개발, 제주도 카지노 이전 및 확장 허가 가능성↑” 파이낸셜뉴스입력 2019.02.11 09:39수정 2019.02.11 09:39 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 관련종목▶롯데관광개발(032350), 파라다이스(034230), 제이테크놀로지(035480) 토러스투자증권은 11일 롯데관광개발에 대해 올 10월 완공예정인 제주도 드림타워의 이전 및 확장 가능성이 높다고 내다봤다. 투자의견과 목표주가는 제시하지 않았다. 전상용 토러스투자증권 센터장은 “제주특별자치도의회 소속 이상봉의원이 도내 카지노 이전 및 확장을 금지하는 조례 개정안을 입법 예고하면서 동사의 카지노 이전 및 확장에 차질을 빚을 것이란 논란이 있었다”며 “하지만 이는 상위법인 관광진흥법 시행규칙을 위반하는 조례이다. 즉, 상위법인 관광진흥법에서 하위법인 지방자치법으로 카지노의위치 변경, 면적 변경에 대해 세부사항을 위임한다는 내용이 없으므로 현재 입법이 예고된 조례개정안은 상위법 위반으로 실효성이 없을 것으로 예상된다”고 밝혔다. 그러면서 “제주도 드림타워는 향후 제주도 향토 기업으로 제주도에 경제적으로 크게 기여할 것으로 예상된다”고 덧붙였다. 토러스투자증권에 따르면, 제주도 카지노 업체는 제주카지노(한국 파라다이스), 드림타워내카지노(롯데관광개발),공즈카지노(중국), 마제스타카지노(중국), 신화월드(중국), 메가럭카지노(중국), 로얄팔레스(일본), 제주썬카지노(필리핀) 총 8개 업체가 있다 이중 6개는 외국기업 소유이며,국내기업 소유 카지노는 '파라다이스'와 롯데관광개발이 운영주체인 드림타워 내 카지노 두 곳뿐이다. 제주 드림타워 카지노는 올해 10월 완공예정이다. 전 센터장은 “동사의 카지노 이전 및 확장이 순조롭게 진행될 것으로 예상하는 이유는 드림타워가제주도에 기여할 경제적 이점이 지대하기 때문”이라며 “우선 동사는 드림타워가 완공되는시점에 제주도로 본사를 이전할 계획이다. 이에 따라 동사는 제주도에 세금을 납부해 제주도 세수에 기여할 것이라고 밝힌 바 있다“고 전했다. 또한 드림타워가 완공된 후 롯데관광개발은 제주도에 약 3000여개의 일자리를 창출할 것으로 판단된다는 것이다. 실제 드림타워에는 호텔과 카지노뿐만 아니라 쇼핑몰과 레스토랑도 들어서기 때문에 다양한 일자리를 창출할 것으로 예상했다. 전 센터장은 “무엇보다 외국인전용 카지노이기 때문에 일각의 우려대로 제주도민들에게 영향을 끼치지 않을 것”이라며 “이처럼 드림타워의 제주도에 공헌할 경제적 효과를 고려할 시 제주도청이동사의 카지노 이전 및 확장 허가를 내줄 가능성은 매우 높다고 판단한다”고 덧붙였다. kakim@fnnews.com 김경아 기자 키워드#롯데관광개발 #제주도 드림타워 #제주도 카지노 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 세대 맞춤형 마케팅 전략으로 관광객 유치 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 세대 맞춤형 마케팅 전략으로 관광객 유치 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도, 세대 맞춤형 마케팅 전략으로 관광객 유치 기자명 김지석 기자 입력 2019.02.10 14:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 감소세에 있는 내국인 관광객 유치를 위해 온라인마케팅 강화, 뱃길관광 활성화, 제주특화 콘텐츠 발굴 등 맞춤형 마케팅 전략을 추진한다고 10일 밝혔다.최근 저출산과 고령화 등으로 소비성향, 라이프스타일이 전혀 다른 밀레니얼과 베이비붐 세대가 내국인관광의 주요 타깃층이 됨에 따라 내국인관광객 유치 활성화를 위해 세대별 차별화 마케팅을 추진한다.우선 밀레니얼 세대를 대상으로 제주돌담, 해녀, 숲속 요가 등 제주의 독특한 문화와 패러글라이딩, 서핑, 스킨스쿠버, 승마 등 제주의 청정자원을 활용한 액티비티 등을 콘텐츠로 발굴·활용한다. 베이비붐 세대를 대상으로는 알려지지 않은 마을로 들어가 마을사람들과 함께하는 체험, 오름, 꽃과 정원 등 휴양·힐링을 테마로 한 마케팅을 전개한다.또 온라인관광 트렌드에 맞춰 마케팅 수단을 기존 오프라인에서 온라인으로 전환한다.연령대별로 선호하는 페이스북, 인스타그램, 카카오스토리 등 소셜미디어네트워크(SNS) 매체를 통해 제주의 알려지지 않은 비경과 체험 중심의 관광상품 등을 온라인상에 전파한다.제주여행 체험 온라인페스티벌을 통해 전국의 아마추어 인터넷유저를 대상으로 제주여행 포스팅 공모사업을 추진한다.이와 함께 관광객 유치의 물리적 조건인 항공접근성이 포화상태에 이름에 따라 뱃길관광 활성화를 통해 극복할 방침이다.지난해 12월 운항 재개한 2척의 선박(뉴블루나래, 뉴스타)에 선박내 홍보시설물을 설치하고, 선상이벤트 지원 및 KTX 연계 마케팅 등 선사와의 협력을 강화한다.또한 운항이 중단된 제주-인천, 성산-녹동 항로가 재개될 경우에 대비해서도 홍보를 추진한다.제주도 관계자는 "내국인 관광객 집중 공략을 위해 밀레니얼, 베이비붐 세대 타깃 콘텐츠 개발과 온라인 마케팅 중심의 마케팅 방식 대전환을 통해 내국인 관광객의 제주 방문 만족도를 높일 수 있도록 노력하겠다"고 말했다.김지석 기자 김지석 기자 kjs@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[제주도 미세먼지 좋음] 자연관광지 곳곳서 매화축제…마을에선 새봄 맞이 제례 &lt; 방송/연예 &lt; 문화 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [제주도 미세먼지 좋음] 자연관광지 곳곳서 매화축제…마을에선 새봄 맞이 제례 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 문화 방송/연예 [제주도 미세먼지 좋음] 자연관광지 곳곳서 매화축제…마을에선 새봄 맞이 제례 기자명 김미영 기자 입력 2019.02.10 10:34 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [제주도 미세먼지 좋음] 자연관광지 곳곳서 매화축제…마을에선 새봄 맞이 제례 설 연휴 이후 징검다리로 이어진 이번 주말에는 만개한 봄꽃들을 보면서 봄이 다가오고 있음을 느껴보면 어떨까. 8일 오전에는 흐리다가 차차 구름 많은 날씨를 보이겠다. 9일에는 구름 많은 날씨가 예상된다. 찬바람이 불어 춥겠으니 나들이를 하려면 옷을 따뜻하게 챙겨 입어야겠다. ◇ 설레는 봄맞이 올겨울 폭설 없이 평균 기온 영상을 유지하면서 매화 등 봄꽃이 벌써 활짝 피었다. 제주 전역 자연 관광지에서는 겨울의 끝을 알리는 '매화축제'가 열리고 있다. 서귀포시 대정읍에 있는 '노리매'에서는 토요일인 9일부터 내달 10일까지 노리매 매화축제가 마련된다. 노리매는 순우리말 놀이와 매화나무의 매(梅)를 합해 만난 말이다. 노리매는 고즈넉한 자연 풍광에 매화나무를 주요한 테마로 해 조성했다. 그만큼 다양한 매화꽃을 감상할 수 있는 곳이기도 하다. 서귀포시 '휴애리'에서도 매화축제가 8일부터 내달 10일까지 열린다. 휴애리에는 매화정원이 있다. 매화나무가 숲을 이뤄 환상적인 풍광을 연출한다. 감귤, 승마, 동물 먹이 주기 등 다양한 체험 행사도 즐길 수 있다. 모래땅을 자연생태 공간으로 바꾼 제주시 한림공원에서도 지난 1일부터 매화축제가 열리고 있다. 하얀색과 분홍색의 매화꽃들이 만개해 한림공원 정원을 수놓았다. 버드나무처럼 늘어지는 능수매화가 장관을 이루며 20년 이상 된 백매화, 홍매화, 청매화 등이 만발하다. 한림공원 매화정원에서는 고고한 매화의 기품과 함께 수선화 향기를 느끼며 봄의 기운을 만끽할 수 있다. 봄 소식 매화[연합뉴스 자료 사진] ◇ '무사안녕' 기원 마을제 2019년 기해년 정월(正月·음력 1월을 달리 부르는 말)을 맞아 '신들의 고향' 제주도 곳곳에서 주민의 무사 안녕과 풍년을 기원하는 다양한 마을제가 줄지어 열린다. 제주의 마을제는 지난 6일 제주시 애월읍 유수암리 마을포제를 시작으로 다음 달 1일까지 122개 마을에서 열린다. 제주에서는 예부터 새해 정월을 맞아 처음으로 맞는 정일(丁日) 또는 해일(亥日)에 유교식으로 신에게 세배하는 마을제를 지내왔다. 송당 본향당굿 주관하는 김윤수 큰심방[연합뉴스 자료 사진] 마을마다 모시는 신의 이름은 포신, 산신, 해신, 토신 등으로 다양하게 불렸다. 명칭 역시 포제, 마을제, 동제(洞祭), 해신제, 토신제, 당제, 풍어제 등으로 불리며 전승되고 있다. 해신제는 제주시 화북포구에 있는 해신사(海神祠·제주도기념물 제22호)에서 새해 바다에서의 안전한 조업과 풍어를 기원하는 제사다. 해신사는 조선 순조 20년(1820년) 제주목(牧) 관문인 화북포구에 목사 한상묵(韓象默)이 처음 세웠으며 주민들은 매년 음력 1월 5일 해신지위(海神之位)에 제를 올린다. 올해 해신제는 2월 9일 오전 10시에 열린다. 포제와 당굿도 연이어 펼쳐진다. 제주시 애월읍 납읍리 금산공원 내 포제청에서는 2월 9일 0시를 기해 제주도 무형문화재 6호로 지정된 유교식 포제가 열린다. 제례에는 12명의 제관이 나와 마을수호신인 토신(土神) 등에게 제사를 지낸다. 제주 마을제는 주민들이 함께 참여하는 공동의례로 자연과의 친화와 이웃 간의 결속을 다지는 역할을 해왔다. '제주는 유채꽃도 활짝'[연합뉴스 자료 사진] ◇ 흐리고 쌀쌀, 가끔 비 9일 토요일은 새벽부터 아침까지 북서부 해안에는 산발적으로 빗방울이 떨어지는 곳이 있겠고 산간 이상 지역에는 눈이 날리는 곳이 있겠다. 산간 도로에는 영하의 기온으로 결빙 구간이 있겠으니 교통안전에 유의해야 한다. 기온은 1~9도로 춥겠다. 10일 일요일에는 고기압의 가장자리에 들어 구름 많다가 밤부터 흐려지겠다. 아침 최저 기온은 영하 1도, 낮 최고기온은 8도로 예상된다. 주말까지 찬 대륙고기압의 영향으로 찬바람이 강하게 불어 체감온도는 더욱 낮아지겠다. 해상에는 제주도 모든 해상과 남해 서부 먼바다에 3ｍ 이상의 높은 파도가 일 것으로 예상된다. 저작권자 © 금강일보 무단전재 및 재배포 금지 김미영 기자 kmy@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 선우은숙 나이, 전 남편 누구? [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 유영재 프로필 화제, 누구길래? 시사 지역 문화·연예 01 [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 02 전장연, 4호선 지하철 시위 11일 화요일도 강행 03 [내일 날씨] 전국 기상청 일기예보, 아침 최저기온 3도 연휴 뒤 출근길 더 추워...점차 맑은 하늘 회복 04 대전·세종 ‘끝없는 부동산 빙하기’ 05 대전·세종 ‘끝없는 부동산 빙하기’ 06 버킷스튜디오 주가 급락, 이유는? 07 제13회 대전효문화뿌리축제 성료 08 시중자금 은행 쏠림, 반작용 우려 09 1호선, 유튜브 자주 끊기는 이유 10 “지속가능한 대학 최선 다할 것” 11 [2022 국감] 사이버범죄 수사관 1인당 200건 사건 담당 12 피플바이오, 주가 강세 보여 13 비난·논란 자초하는 대전시의회 14 국민 허리띠 졸라매는데 공기업은 특혜… 전체보기 01 예산군, 예산장터 삼국축제서 나무 나눠주기 행사 02 단양군, 법정 계량기 정기검사 실시 03 영동군, 어르신 독감예방접종 12일부터 연령별 순차접종 04 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 05 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 06 보은署, 아동안전지킴이 대상 응급처치 교육 실시 07 보은군 삼승면지사체, 독거노인 주거환경 개선 사업 앞장 08 보은 동광초, 초록학교 활동 전시회 열어 09 옥천군 정신건강 홍보주간 운영 10 세종 갈산서원서 가을 수놓는 국악 선율 11 [동정] 보령시장 12 금산군, 우수 평생학습도시 선정 13 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 14 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 전체보기 01 선우은숙 나이, 전 남편 누구? 02 유영재 프로필 화제, 누구길래? 03 임영웅, ‘TMA 5관왕’ 04 박수홍 엄마 ‘카레사건’ 재조명 05 ‘복귀’ 홍진영, 근황은? 06 송가인 콘서트, 목포 다음은 천안 07 임창정 걸그룹 미미로즈, “200억 다 어디갔어?” 08 ‘공효진♥’케빈오 프로필은? 09 골프선수 박결, 국내 톱스타와 불륜설에... 10 '스맨파' 새삥 안무 표절 논란 뭐길래? 11 고두심 아들 김정환 누구? 12 ‘환승연애2’ 최초 유포자에 고소장 제출 13 비비, 비키니 끈 풀려 대형 노출사고 날 뻔... 14 '여성 골퍼와 불륜설'에 비·조정석 뿔났다 전체보기 가장 빠른 충청뉴스 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 대천해수욕장에서 15~16일 양일간 ‘2022 제1회 보령 AMC 모터페스티벌’을 개최한다.보령시가 주최하고 아주자동차가 주관하는 이번 축제는 차량 튜닝, 전시, 모터스포츠 등 자... [동정] 당진시장 [동정] 보령시장 [동정] 서산시장 스포츠 뉴스 이정후 여동생 누구길래? 고우석과 결혼 이대호 와이프 신혜정 눈물...‘왜?’ '레전드' 카시야스-푸욜, 게이설 불러 일으킨 커밍아웃 헤프닝 괴물 김민재, 파워랭킹 7위 랭크 윤이나 징계에 박세리, ‘변명은 절대 있을 수 없다’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 중 가성비 1등 &lt; 유통 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 중 가성비 1등 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 유통 효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 중 가성비 1등 기자명 장준영 기자 승인 2019.02.10 10:00 댓글 0 조회수 : 8410 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주 도민들이 말하는 제주도여행지로는 샤이니숲길, 이국적인 느낌의 월령 선인장마을, 북촌 돌하르방공원, 중문 관광단지 내에 있는 베린네오름, 상효원,휴애리자연생활공원,카멜리아힐 등이 있다. 제주도필수여행코스로 빠지지않는 곳은 한라산의 백록담과 오설록티뮤지엄, 대포주상절리, 용머리해안 등이 있다. 제주도의 곳곳을 다니고 싶다면 제주공항근처에 숙소를 정하는것도 추천한다. 교통이 편리하고 제주공한 근처로 이호테우해변, 용담해안도로, 용두암 등 관광지가 많고 애월,한림,서귀포 등 제주도 대표 관광지까지 쉽게 다닐 수 있기 때문이다. 제주도 관광지로는 국내 대규모 종합관광단지로 여겨지는 제주 중문 관광단지가 좋다.이 곳에는 인기있는 제주도 가볼만한곳이 집중돼있기 때문이다. 중문해수욕장을 비롯해 천제연폭포, 여미지 식물원 등 볼거리와 놀거리가 충분하며, 제주도 호텔과 게스트하우스 등 숙박시설까지 자리해 단기는 물론 장기 여행에도 적합하다는 평이 많기 때문. 이러한 중문관광단지 인근에는 관광하며 허기진 배를 채울 수 있는 음식점도 즐비한데 그중 제주도 중문 관광단지 맛집 ‘이조은식당’이 영양소가 풍부함은 물론, 최근 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 눈길을 끌고 있다.이 집은 2대째 이어온 제주 서귀포 갈치조림 맛집으로 갈치조림과 함께 갈치 회, 갈치구이를 다루며 이를 보다 합리적으로 맛볼 수 있는 정식 메뉴도 판매하고 있다. 제주도 맛집 베스트 10 대표 메뉴는 갈치 회, 갈치조림을 기본으로 제공하면서 갈치구이와 고등어구이 중 하나를 선택해 총 세가지 메뉴를 즐길 수 있게 한 갈치 정식으로, 이 밖에도 네가지 정식 메뉴와 스페셜 메뉴 한 가지를 선보이고 있다. 이 외에도 1인, 혹은 2인이서 주문할 수 있는 식사류를 다루고 있다. 갈치조림과 고등어조림은 2인이서 즐길 수 있는 대표 식사류로, 그 밖에 고등어구이, 전복뚝배기, 전복죽, 성게국, 갈치덮밥, 한치회덮밥 등 해산물을 주재료로 한 메뉴를 다양하게 판매한다. 제주도 서귀포 맛집 이조은식당 관계자는 “갈치조림과 갈치 회를 비롯해 다양한 갈치 요리를 저렴하게 제공하고 있는데 이같은 합리적인 가격과 정성 담아 맛을 한껏 살린 요리들로 제주도민과 제주 중문관광단지를 찾는 관광객들로부터 입소문을 타 중문관광단지 맛집으로 알려지고 있다. 제주도에 거주하는 연예인도 자주 방문한다”고 전했다.이어 “중문관광단지 인근에 있어 관광 전후로 방문하기 용이하며, 관광지 근처인 특성상 편의시설이나 교통편도 잘돼있다. 제주의 겨울을 즐기기위해 요즘도 많은 여행객이 찾고있는데 관광과 함께 맛있는 음식을 즐기며 잊지 못할 추억을 만들고 가기 바란다”고 덧붙였다.'이조은식당'은 가까이에 위치한 여러 서귀포 가볼만한 곳때문에 천지연폭포 맛집, 쇠소깍 맛집,카멜리아힐 맛집,표선해수욕장 맛집, 중문색달해수욕장 맛집, 화순금모래해수욕장 맛집 등 다양한 수식어로 불리고 있다. 장준영 기자 pamir63@busaneconomy.com 장준영 기자 pamir63@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'스마트관광' 하려다 예산만 날리고…제주도 '비콘' 폐지 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 '스마트관광' 하려다 예산만 날리고…제주도 '비콘' 폐지 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 '스마트관광' 하려다 예산만 날리고…제주도 '비콘' 폐지 송고시간2019-02-09 20:25 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 2016년부터 도입했지만 지난해 하루 평균 1명 이용할 정도로 저조 (제주=연합뉴스) 고성식 기자 = 제주도가 스마트 관광플랫폼 사업으로 추진한 위치 정보 서비스인 '비콘'(Beacon) 관리 시스템이 사실상 실패로 끝났다. 제주도는 비콘 관리 시스템의 서비스를 폐지하기로 하고 지난 7일 이를 행정 예고했다고 9일 밝혔다. 비콘은 스마트폰 사용자의 위치를 인식해 시스템에서 스마트폰 사용자에게 정보를 제공하는 방식을 말한다. 스마트폰 사용자가 특정 매장에 들어섰을 때나 매장 근처를 지나가기만 해도 상품과 매장에 대한 정보가 자동으로 사용자 스마트폰으로 전송된다. 광고 관광객으로 붐비는 제주공항 [연합뉴스 자료 사진] 도는 지난해 비콘 시스템에 로그인한 횟수가 전년 대비 50%로 감소하는 등 사용자 수가 저조해 비콘 시스템을 폐지하기로 했다. 지난해 기준 비콘 시스템 사용자 수는 하루 1명 수준인 총 363명에 그쳤다. 도는 또 활용성이 떨어지는 비콘 장비 및 시스템을 유지·보수하는 데 매년 막대한 예산이 든다는 점을 시스템 폐지 이유로 들었다. 도는 2016년 스마트 관광플랫폼 조성을 위해 제주국제공항과 동문재래시장 등을 중심으로 1천152개 비콘 시스템을 설치해 운용해 왔다. 도는 관광 빅데이터 구축 등 스마트 관광플랫폼 사업에 국비 9억원, 지방비 6억원 등 총 15억원을 들여 관련 사업을 추진하고 있다. 스마트 관광플랫폼 사업 중 하나가 비콘 시스템이다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2019/02/09 20:25 송고 #비콘 #관리 #스마트관광 #실패 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 22 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 불과 3년만에 접게 된 원희룡 제주도정의 ‘스마트 관광’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 불과 3년만에 접게 된 원희룡 제주도정의 ‘스마트 관광’ 홍석준 기자 승인 2019.02.08 20:14 댓글 1 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도, 지난 7일자로 비콘(Beacon) 관리시스템 서비스 폐지 행정예고 대체 통신기술 개발로 사용자수 급감 … 3년간 15억원 혈세 낭비 논란 [미디어제주 홍석준 기자] 민선6기 원희룡 제주도정에서 ‘스마트 관광’을 기치로 내걸고 운영해오던 비콘(Beacon) 관리시스템이 폐지된다. 제주특별자치도는 지난 7일자로 이용자수 감소로 활용률이 저조한 비콘 관리시스템 서비스 폐지를 행정예고했다. 지난 2016년 스마트관광을 구현하기 위해 KT와 업무협약을 체결, 올해까지 비콘 8000여개 설치를 추진한다는 계획이었으나 3년만에 사업을 접게 된 것이다. 특히 1기 원희룡 도정에서 시작된 사업이 2기 원 도정에서 완전 실패를 인정한 셈이 된 것은 물론, 국비 5억원을 포함해 15억원의 혈세를 낭비했다는 비판을 피하기 어렵게 됐다. 민선 6기 원희룡 제주도정에서 ‘스마트 관광’을 기치로 내걸고 운영해오던 비콘(Beacon) 관리시스템이 폐지된다. 사진은 원 지사가 지난 1일 열린 소통과 공감의 날 행사에서 인사말을 하고 있는 모습. /사진=제주특별자치도 2016년 미래부 공모사업으로 시작된 이 사업은 첫 해 국비 9억원이 투입된 데 이어 2017년과 지난해에는 제주테크노파크 디지털융합센터의 공기관 대행사업비로 각 4억원, 2억원씩 모두 15억원이 쓰였다. 문제는 지난해까지 1000개가 넘는 비콘을 설치해놓고 마땅한 활용 방안이 없다는 점이다. 블루투스를 기반으로 한 이 기술은 50~70m 정도 근거리에서 사용자의 위치를 확인해 정보를 전송하거나 무선 결제 등을 할 수 있는 모바일 통신기술로 단말기 가격이 저렴하고 전력 소모가 적다는 장점이 있다. 제주에서는 ‘안심제주 앱’에 비콘 기술을 결합시켜 긴급신고 등 서비스를 제공하고 있다. 하지만 모바일 관련 기술이 급속히 발전, 대체 기술이 개발되면서 수요가 급감할 수밖에 없는 상황이 됐다. 기업이나 사용자들의 이용이 계속 줄어들면서 사용성이 떨어지는 비콘을 유지 보수하는 데 드는 비용 때문에 무의미하게 세금이 낭비되는 상황이 이어지고 있기 때문에 사업을 중단하게 된 것이다. 실제로 지난해 1년 동안 비콘 사용자수는 모두 363명에 불과했고, 12월에는 9명밖에 사용하지 않은 것으로 나타났다. 제주도는 이번 행정예고를 통해 사업을 진행하면서 대부분의 비용이 투입된 데이터 플랫폼에 대해 “‘제주데이터 허브’를 통해 개방형 스마트관광 관련 데이터 제공 창구로 일원화해 공공 데이터 개방 및 유통 활성화와 민관 협업 빅데이터 산업 기반 조성에 기여하고자 한다”는 입장을 밝혔다. 하지만 이같은 도의 방침은 정작 애초 이 기술의 도입 취지인 ‘스마트 관광’과는 멀어지는 것 아니냐는 지적도 나오고 있어 두고두고 ‘실패한 스마트 관광’이라는 오명을 벗기 어려울 것으로 보인다. Tag #제주도 #비콘 #스마트관광 #행정예고 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 1 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 고길천 2019-02-12 20:58:13 더보기 삭제하기 이 xx 순 사기꾼! 이런 x가 도지사라니,,, 도민만 고생!!! 답글쓰기 1 1 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>카지노업관광협회 7일 제주도의회 조례 반박 의견서 제출 - 베이비타임즈 × 전체기사 출산육아 전체 임신·출산 육아 워킹맘 다문화 산업 전체 보육·교육 패션·뷰티 산업·유통 건강·의료 금융·재테크 전체 금융 보험 증권 부동산 생활문화 전체 웨딩·홈 여행·맛집 반려동물 공연·문화 취업·창업 정치·사회 전체 정치 사회·일반 정책 오피니언 전체 인터뷰 칼럼 인물·동정 취재수첩 행사이벤트 전체 산모교실 다문화 행복동행 아이지킴이 UPDATED. 2022-10-11 11:37 (화) 로그인 회원가입 모바일웹 전체 출산육아 임신·출산 육아 워킹맘 다문화 산업 보육·교육 패션·뷰티 산업·유통 건강·의료 금융·재테크 금융 보험 증권 부동산 생활문화 웨딩·홈 여행·맛집 반려동물 공연·문화 취업·창업 정치·사회 정치 사회·일반 정책 오피니언 인터뷰 칼럼 인물·동정 취재수첩 포토영상 포토 동영상 행사이벤트 산모교실 다문화 행복동행 아이지킴이 기사검색 검색 이전 다음 카지노업관광협회 7일 제주도의회 조례 반박 의견서 제출 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치·사회 사회·일반 카지노업관광협회 7일 제주도의회 조례 반박 의견서 제출 김복만 기자 승인 2019.02.07 17:25 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × “카지노 영업장 선택권 박탈은 직업의 자유 침해·과잉금지원칙 위반” 제주도의회 전경.(사진제공=한국카지노업관광협회) [베이비타임즈=김복만 기자] 한국카지노업관광협회는 제주도의회 이상봉 의원이 입법예고한 ‘카지노사업장 이전 제한’ 내용의 조례개정안에 반대하는 의견서를 도의회에 제출했다고 7일 밝혔다. 카지노업관광협회는 의견서를 통해 “제주도 외국인전용 카지노의 이전을 사실상 원천봉쇄하는 내용의 도 조례 개정안은 관광산업 발전을 저해할 것”이라며 우려를 표명했다. 카지노업관광협회는 “제주도 외국인전용 카지노의 이전을 사실상 원천봉쇄하는 내용의 도 조례 개정안으로, 관광산업 육성 및 관광 진흥이라는 상위 규범의 입법 목적에 반한다”고 지적했다. 협회는 또 “제주도 카지노사업자의 규모 확대를 저지하는 데 목적이 있을 뿐이므로 입법 목적의 정당성이 인정되지 않고, 카지노사업자의 영업장소 선택권 박탈은 목적 달성의 수단이 지나치게 직업의 자유를 침해하므로 과잉금지원칙에도 위반한다”고 강조했다. 협회는 “최근 아시아 국가들이 자국민의 외화유출 방지와 재정 수입을 위해 국가차원에서 경쟁적으로 카지노가 포함된 복합리조트 조성을 확대하고 있는 세계적인 추세에도 맞지 않는다”고 덧붙였다. 글로벌 카지노 업체들이 대규모 자금을 투입해 대형화, 테마화, 차별화를 통한 경쟁력 제고에 주력하고 있는 상황에서 글로벌 흐름과 동떨어진 제주도의회의 입법예고안은 제주도 관광산업 발전을 저해한다는 지적이다. 카지노업 관계자들은 조례 개정안과 관련해 “세계적인 관광지 제주도가 지속 발전하려면 오히려 복합리조트 등 관광인프라를 더 조성하여야 하는 데 이에 역행하는 것”이라면서 “위임입법 일탈, 법률유보의 원칙과 과잉금지 원칙에 위배하는 등 법률적으로 큰 문제가 있다”며 큰 우려를 나타냈다. 앞서 제주도의회 이상봉 의원(더불어민주당)은 지난달 28일 건물의 대수선·재건축·멸실 등 불가항력에 의한 경우에만 카지노사업장 이전을 허용하는 내용을 담은 개정 카지노업 관련 조례개정안을 입법 예고했다. Tag #카지노업 #한국카지노업관광협회 #카지노업관광협회 #제주관광산업 #제주도의회 #카지노사업장 #조례개정안 #카지노사업자 #과잉금지원칙 #이상봉의원 #제주도 저작권자 © 베이비타임즈 무단전재 및 재배포 금지 김복만 기자 다른기사 보기 관련기사 카지노관광협회 “제주카지노산업 규제보다 정책적 육성해야” 한국카지노업관광협회 2018년 대학생 서포터즈 출범 [기자수첩] 제주관광산업 발전 막는 카지노사업장 이전제한 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기뉴스 1아파트 가격, 조경이 미치는 영향은? 2에이토솔루션, 임산부 위한 ‘유기농 엽산’ 출시 3도그코리아, ‘CPC 실용코인’ 백서 짜깁기로 투자자 피해 우려 4유아 스마트 학습지 밀크티아이, 신규 학습생 이벤트 실시 5동절기 코로나19 추가접종, 11일 시작 6에버랜드, 호랑이 보전 캠페인 ‘숨을 위한 숲, 그곳에는 호랑이가 산다' 개최 7“올해만 맛볼 수 있는 특별한 할로윈” 오리온, 한정판 신제품 등 4종 선보여 8국군장병·제대군인·보훈가족 취업박람회 10월 13일 개최 9“혼저옵서예 제주마와 함께 떠나는 제주여행”, 제주경마공원, 제주馬축제 개최 10KB국민은행, 서울국제음식영화제서 ‘청춘마루’ 운영 카드뉴스 동절기 코로나19 추가접종, 11일 시작 동절기 코로나19 추가접종, 11일 시작 서울시, ‘상생주택‘ 2026년까지 공급 본격화 서울시, ‘상생주택‘ 2026년까지 공급 본격화 ‘원인불명’ 원숭이두창, 대체 뭐길래? ‘원인불명’ 원숭이두창, 대체 뭐길래? 안전하고 건강한 일상, 코로나19 후유증 바로 알기 안전하고 건강한 일상, 코로나19 후유증 바로 알기 고위험군 소아, 코로나19 예방접종 꼭 해야하는 이유는? 고위험군 소아, 코로나19 예방접종 꼭 해야하는 이유는? 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 영등포구 선유로 13길 25 에이스하이테크시티 2차 408호 대표전화 : 070-7756-6500 청소년보호책임자 : 지태섭 법인명 : ㈜베이비타임즈 제호 : 베이비타임즈 등록번호 : 서울 다 10520 등록일 : 2012-09-18 발행일 : 2012-10-02 발행인 : 송계신 편집인 : 송계신 베이비타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 베이비타임즈. All rights reserved. mail to bbtimes@babytimes.co.kr 위로</t>
+  </si>
+  <si>
+    <t>설날 연휴 제주 가볼만한곳 아이하고 같이 놀기에 좋은 제주도 관광지 성읍랜드 &lt; 경제 &lt; 기사본문 - 내외경제TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 기사제보 2022-10-11 12:18 (화) facebook naver post 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 설날 연휴 제주 가볼만한곳 아이하고 같이 놀기에 좋은 제주도 관광지 성읍랜드 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 설날 연휴 제주 가볼만한곳 아이하고 같이 놀기에 좋은 제주도 관광지 성읍랜드 기자명 김태곤 기자 입력 2019.02.01 20:42 수정 2020.03.12 01:12 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (사진제공=성읍랜드) [서울=내외경제TV]김태곤 기자 = 이번에 다가오는 설날연휴가 엄청 길어진 만큼 육지에 있는 가족들이 귀성길을 맞아 다시 제주도로 많이 내려올 예정이다. 전년도 제주도에 폭설이 있었을때와 달리 이번 황금돼지해를 맞아서 상대적으로 따뜻한 날씨가 연일 이어져서 봄이 빨리 찾아올 전망이다. 게다가 이번에 길어진 연휴만큼 많은 관광객들이 제주 가볼만한곳으로 많이 찾는 제주도 관광지로 제일 주목을 받는 성읍랜드는 제주도 아이들과 가볼만한곳으로도 모든 가족 여행객들이 즐겨찾는 단골 제주 관광지이다. 성읍랜드는 전국에서 유일하게 다양한 캐릭터 복장을 입고 카트를 탈수 있는 제주도 카트장이다. 아이들부터 어른들까지 코스튬 복장을 입고 사진도 찍고 신나게 경주를 할수 있는 이색적인 제주 카트체험으로 많은 관광객들에게 즐거움을 선사하고 있다. 이 덕분에 각종 다양한 예능방송 촬영지로 사람들에게 주목을 받을뿐만 아니라, 인기 아이돌 뮤직비디오 단골 촬영지로도 각종 방송계의 꾸준한 러브콜이 이어지고 있다 또 다른 즐길 거리로는 성읍승마장이 30년 이상 제주 승마를 운영한 노하우를 살려 멋진 제주도의 중산간과 초원을 달릴 수 있는 고퀄리티 제주도 승마체험도 여기만의 메리트가 아닐 수 없다 말을 타면서 멋진 경치를 구경하는 재미와 그 드넓은 초원을 짜릿하고 스릴이 넘치는 익사이팅한 사륜구동 제주도 atv를 직접 운전하면서 오프로드를 달리는 재미까지 한번에 느낄 수 있는 종합레저타운이다 뿐만 아니라 실내에 다양하고 알록달록한 포토존이 많이 있어서 각종 다양한 인형탈과 캐릭터 복장을 입고 이쁜 사진을 많이 건질 수가 있어서 제주 사진찍기 좋은 곳으로도 명성이 높다. 성읍랜드 관계자는 "이번 설을 맞이해서 모든 관광객들에 얼굴에서 웃음꽃을 많이 얻고 가시라고 다양하고 깨알같이 재미있는 컨텐츠와 다양한 체험거리 볼거리로 꾸준한 고객 만족을 통해 계속 발전하는 질적이고 안전한 서비스를 제공하게끔 최선을 다하겠다" 라고 전했다. 김태곤 기자 nbntv.ktg@gmail.com 다른기사 보기 저작권자 © 내외경제TV 무단전재 및 재배포 금지 당신만 안 본 뉴스 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" '나는 솔로' 9기 옥순 인스타, 수영복 패션에 정숙 "언니, 너무 섹시" '나는 솔로' 9기 정숙 인스타 "이렇게 단아하니 협찬 모델" '나는 솔로' 9기 영자 인스타, "선 넘네" 악플에 경고장? '나는 솔로' 옥순 완전체 결성되나 "7, 10기 옥순님들 들어와" '나는 솔로' 10기 영숙 인스타, 꿀피부 자랑…골프 협찬 모델 예고? '나는 솔로' 10기 현숙 인스타 "포00에서 뭐 하나" 협찬 모델 예고 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 최신뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 포토뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 인기뉴스 1 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 2 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 3 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 4 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 5 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 6 최근 3년간 불량 요소수 최소 300만 리터 이상 유통…일 평균사용량의 5배 7 식칼·망치로 위협당하는 국민연금 직원들...고독사·자살 현장 목격도 8 [UP! START] 에스테이트클라우드, 우대빵으로 부동산 중개시장 변혁 예고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 rss 매체정보 서울특별시 금천구 가산디지털1로 168, C동 12층 1209-1호(가산동, 우림라이온스밸리) 대표전화 : 070-4252-5497 청소년보호책임자 : 정동진 법인명 : (주)내외경제미디어 제호 : 내외경제TV 등록번호 : 서울 아 02225 등록일 : 2012-08-06 발행일 : 2012-08-06 발행·편집인 : 정동진 내외경제TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 내외경제TV. All rights reserved. mail to msn06s@nbntv.co.kr 위로 전체메뉴 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 체험 실내관광지 ‘제주실탄사격장’, 차별화된 색다른 경험 제공 - 아이티비즈 × 전체기사 뉴스 전체 SW 보안 인터넷 통신 네트워크 모바일·콘텐츠 산업/경제 문화/생활 기획&amp;정책 전체 특집 업체탐방 인터뷰 리뷰 이슈분석 트렌드 비즈니스모델 리서치&amp;오피니언 전체 선호도조사 만족도조사 수요조사 시장조사 디지털경제 전체 금융 통신 공공 제조·유통 서비스 의료 교육 제약·물류 라이프 전체 컬럼 기고 문화생활 피플&amp;포토 전체 인사 동정 부음 축하 사무실이전 신간 이벤트 전체 세미나 포럼 조찬회 어워드 UPDATED. 2022-10-11 12:18 (화) 로그인 회원가입 기사제보 모바일웹 전체 최신뉴스 SW 보안 인터넷 통신 네트워크 모바일·콘텐츠 산업/경제 문화/생활 기획&amp;정책 특집 업체탐방 인터뷰 리뷰 이슈분석 트렌드 비즈니스모델 리서치&amp;오피니언 선호도조사 만족도조사 수요조사 시장조사 디지털경제 금융 통신 공공 제조·유통 서비스 의료 교육 제약·물류 라이프 컬럼 기고 문화생활 피플&amp;포토 인사 동정 부음 축하 사무실이전 신간 기사검색 검색 이전 다음 제주도 체험 실내관광지 ‘제주실탄사격장’, 차별화된 색다른 경험 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 라이프 문화생활 제주도 체험 실내관광지 ‘제주실탄사격장’, 차별화된 색다른 경험 제공 김종영 기자 승인 2019.02.04 10:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 연중무휴 사시사철 각종 이색체험과 볼거리가 가득해 언제나 관광객들로 붐비는 우리나라 휴양지 제주도는 지금 설 연휴시즌에 더욱 인기가 높아지고 있다. 이에 제주도 체험 실내관광지로 알려진 ‘제주실탄사격장’에서는 연예인과 유명인들이 다수 방문하는 등 색다른 경험을 제공한다고 밝혔다. ‘제주실탄사격장’ 관계자에 따르면 “주차장이 비교적 넓고 전기차 충전기 또한 구비하는 등 찾아오는 손님들의 편의를 많이 고려하였고 실내가 넓고 쾌적하며 휴게실도 구비되어 있어 간단한 차와 자판기용 음료를 마실 수 있게 조성하였다. 따라서 가족여행객이 찾아오더라도 보다 간편하게 체험을 진행할 수 있도록 돕고 있다”라고 전했다. 이어 “직원들이 서비스를 돕고 있으며 처음 체험을 진행하는 고객들에게도 비교적 쉽게 다가갈 수 있도록 하고 있다. 또한 체험장의 장소가 중문에 위치해 있어 주변 관광지를 다녀온 후에도 쉽게 올 수 있어 여행코스로 적합하다”고 말했다. ‘제주실탄사격장’은 현재 실탄사격(신분증 필수, 14세 이상 가능)과 비비탄사격, 시뮬레이션사격 등 총 세가지로 구분된다. 실탄사격의 경우 방탄조끼와 헤드폰을 쓰고 총의 조준높이를 과녁의 십자에 맞춰 발사하면 되고 사격 이후에는 종이를 카운터로 가져와 점수 확인이 가능하다. 물론 실탄 및 탄피는 절대 외부반출이 금지되고 있다. 비비탄사격은 개머리판을 어깨에 고정하여 편하게 자세를 취한 후 가름쇠를 가늠자 안의 정중앙에 위치시키는 등 실제 사격의 자세에 임하여 체험해볼 수 있도록 도와 남녀노소 누구나 진행할 수 있도록 하고 있다. 또한 시뮬레이션사격은 다양한 화면이 나와서 지루하지 않고 마치 게임을 하듯 재미가 있어 가족단위 여행객에게 적합하다. 한편 ‘제주실탄사격장’은 연중무휴로 운영되어지고 있으며 총 8사로를 구비해 체험사격을 진행 중이다. 저작권자 © 아이티비즈 무단전재 및 재배포 금지 김종영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1이통3사, 아이폰 14 시리즈 사전예약 시작…마케팅 경쟁 돌입 2매스아시아, 中 홍지그룹과 E-모빌리티 사업 협력 3한국레노버, 씽크북 16p 3세대 출시 4팀뷰어, 현대자동차와 스마트팩토리 디지털 전환 맞손 5LG전자, 97형 올레드 TV 앞세워 북미 프리미엄 시장 공략 가속화 6티피링크, 와이파이 6E 공유기 ‘데코 XE75∙XE75 프로’ 출시 7사피온, NHN 데이터센터에 AI반도체 클라우드 인프라 구축 8KT "IPTV 넘어 새로운 홈 미디어 시대 열겠다"…'지니 TV' 출시 9LG전자, 식물생활가전 ‘LG 틔운 미니’ 파스텔톤 신제품 출시 10델테크놀로지스, 레드햇과 멀티 클라우드·데브옵스 분야 협력 강화 최신기사 네이버웹툰, 美 ‘뉴욕 코믹콘 2022’서 글로벌 플랫폼 위상 강화 KT, 듀얼 번호 가입 고객 23만 명 넘었다 '보안 위협에 선제적 대응'…지니언스, ‘버그 바운티’ 우수 신고자에 포상금 지급 라이브커넥트, 2022년 매출 세 자릿수 성장세 파수, 엔터프라이즈 문서 플랫폼 ‘랩소디’ 업데이트 버전 선보여 '키즈 디지털 금융습관 키운다'…하나은행-LG유플러스, 전략적 업무협력 과기정통부, '2022 코리아 메타버스 어워드' 수상작 9건 선정 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (우)02825 서울특별시 성북구 아리랑로5길 85, 101동 1901호 대표전화 : 02-919-8363 청소년보호책임자 : 김건우 명칭 : 아이티비즈랩 제호 : 아이티비즈 등록번호 : 서울 아02297 등록일 : 2012-10-18 발행일 : 2012-10-18 발행인 : 박미숙 편집인 : 박미숙 아이티비즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 아이티비즈. All rights reserved. mail to webmaster@it-b.co.kr 위로</t>
+  </si>
+  <si>
+    <t>올해 설 연휴 관광객, 제주도 대신 해외 선택했다 - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 올해 설 연휴 관광객, 제주도 대신 해외 선택했다 해외 항공권 예약 18% 증가…日 오사카·후쿠오카 1∼2위 디지털뉴스부 입력: 2019-02-03 09:56 올해 설 연휴, 제주도 보다 해외여행을 선택한 관광객들이 지난해 대비 늘어난 것으로 나타났다. 3일 모바일커머스 티몬에 따르면 설 연휴 일주일(1월 31∼2월 6일) 동안 자사의 국내외 항공권 예약 건수를 분석한 결과, 해외여행 항공권은 지난해 설 연휴 기간(2018년 2월 12∼18일)보다 18% 증가했다. 반면 제주도 항공권 예약 건수는 이 기간 18% 감소했다. 올해 설 연휴 해외 인기 여행지 1∼2위는 지난해와 마찬가지로 일본 오사카와 후쿠오카가 나란히 차지했다. 대만 타이베이, 베트남 다낭, 일본 도쿄 등이 그 뒤를 이었다. 추운 지역으로 떠나는 관광객이 늘었다는 것도 특징이다. 일본 삿포로 항공권 예약은 75%, 러시아 블라디보스토크행 예약은 46% 증가하는 등 우리나라보다 춥지만, 이색적인 지역이 인기 여행지로 새롭게 떠올랐다.디지털뉴스부기자 dtnews@dt.co.kr 일본 홋카이도 오타루시. 연합뉴스 제공. [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 세금방석 위에서 외치는 표현의 자유?[한기호의 정치박박] [이규화의 지리각각] `더라인`, 끝판왕 도시인가 초호화 감옥인가 [객석] 네 줄의 현으로만 느끼는 바흐… 세 번째 계절 때맞게 무르익네 [THE GAME] 언디셈버부터 퀀텀나이츠까지… 라인게임즈 야심작, 판 흔든다 이 시간 핫클릭 당정, 여성계 의견 청취 등 여가부 폐지 속도… 민주당 강력 반발 조경태 "국회의원 면책특권 없애야" 국힘 "文 4대강 감사지시 불법, 靑민정실 회전문 인사야말로 감사원 독립 훼손" 가처분 완패 이준석… `신당 창당` 고행길 걷나 가장 많이 본 기사 문화일보 핫 뉴스1[단독]새만금 풍력 7200배 수익올린 교수…애초부터 中에 지분넘길 계획이었다 2신혜성, 도난차량으로 음주운전 인정...“죄송하다” 3경찰, 지난 주말 이준석 소환조사… 주중 송치여부 결정 4미 서부 명문 스탠퍼드대학서 대낮 성폭행 사건 잇따라 5박수홍 부친이 불붙인 ‘친족상도례’ 논란 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 통갈치구이 효리의단골집을 찾아서 ‘이조은식당’ &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문 관광단지 맛집 통갈치구이 효리의단골집을 찾아서 ‘이조은식당’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 중문 관광단지 맛집 통갈치구이 효리의단골집을 찾아서 ‘이조은식당’ 기자명 장준영 기자 승인 2019.02.03 10:00 댓글 0 조회수 : 5344 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 외국으로 나가지 않아도 이국적인 휴양지의 느낌을 물씬 느낄 수 있는 제주도는 천혜의 자연경관과 함께 즐길거리 먹거리가 풍부해 사시사철, 남녀노소 인기인 곳이다. 제주도필수여행코스로는 한라산의 백록담과 오설록티뮤지엄, 대포주상절리, 용머리해안 등이 있다. 제주도의 곳곳을 다니고 싶다면 제주공항근처에 숙소를 정하는것도 추천한다. 교통이 편리하고 제주공한 근처로 이호테우해변, 용담해안도로, 용두암 등 관광지가 많고 애월,한림,서귀포 등 제주도 대표 관광지까지 쉽게 다닐 수 있기 때문이다. 제주도 겨울여행지로 손꼽히는 제주 중문 관광단지는 중문해수욕장을 비롯해 천제연폭포, 여미지 식물원 등 볼거리와 놀거리가 충분하며, 여러 고급 숙박시설까지 자리해 단기는 물론 장기 여행에도 적합하다는 평이 많다. 때문에 중문관광단지 인근에는 관광하며 허기진 배를 채울 수 있는 음식점도 즐비한데 그중 제주 중문 맛집 ‘이조은식당’이 영양소가 풍부함은 물론, 최근 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 눈길을 끌고 있다. 이 곳은 2대째 이어온 제주 서귀포 갈치조림 맛집으로 갈치조림과 함께 갈치 회, 갈치구이를 다루며, 이를 보다 합리적으로 맛볼 수 있는 정식 메뉴도 판매하고 있다. 대표 메뉴는 갈치 회, 갈치조림을 기본으로 제공하면서 갈치구이와 고등어구이 중 하나를 선택해 총 세가지 메뉴를 즐길 수 있게 한 갈치 정식으로, 이 밖에도 네가지 정식 메뉴와 스페셜 메뉴 한 가지를 선보이고 있다. 이 외에도 1인, 혹은 2인이서 주문할 수 있는 식사류를 다루고 있다. 갈치조림과 고등어조림은 2인이서 즐길 수 있는 대표 식사류로, 그 밖에 고등어구이, 전복뚝배기, 전복죽, 성게국, 갈치덮밥, 한치회덮밥 등 해산물을 주재료로 한 메뉴를 다양하게 판매한다. 제주 서귀포 맛집 이조은식당 관계자는 “갈치조림과 갈치 회를 비롯해 다양한 갈치 요리를 저렴하게 제공하고 있는데 이같은 합리적인 가격과 정성 담아 맛을 한껏 살린 요리들로 제주도민과 제주 중문관광단지를 찾는 관광객들로부터 입소문을 타 중문관광단지 맛집으로 알려지고 있다. 제주도에 거주하는 연예인도 자주 방문한다”고 전했다. 이어 “중문관광단지 인근에 있어 관광 전후로 방문하기 용이하며, 관광지 근처인 특성상 편의시설이나 교통편도 잘돼있다. 연말을 맞아 한 해를 마무리하기 위해 많은 여행객이 찾고있는데 관광과 함께 맛있는 음식을 즐기며 잊지 못할 추억을 만들고 가기 바란다”고 덧붙였다. '이조은식당'은 가까이에 위치한 여러 관광지때문에 천지연폭포 맛집, 쇠소깍 맛집,카멜리아힐 맛집,표선해수욕장 맛집, 중문색달해수욕장 맛집, 화순금모래해수욕장 맛집 등 다양한 수식어로 불리며 제주도 맛집 베스트 10에 속한다. 한편, 제주도 중문 가볼만한 곳으로는 중문색달해수욕장과 실탄사격장, 박물관은 살아있다, 플레이케이팝, 미로파크, 어촌체험, 테디베어박물관 등이 더불어 인기다. 장준영 기자 pamir63@busaneconomy.com 장준영 기자 pamir63@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>관광객·이주민 외면받는 제주도, 이유는 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 관광객·이주민 외면받는 제주도, 이유는 등록 2019.02.03 09:30:21 작게 크게 제주 찾는 내국인 관광객·이주민 급격하게 줄어 부동산가격 급등·생활환경 악화·범죄 우려 등 원인 【제주=뉴시스】제주공항 여객기들이 이륙을 준비하고 있다. 2019.02.03. (사진=뉴시스DB) 【제주=뉴시스】배상철 기자 = 가보고 싶은 섬, 살아보고 싶은 섬으로 인기를 끌었던 제주도가 외면받고 있다. 관광객은 발길을 돌렸고 제주살이 열풍은 언제 그랬냐는 듯 시들해졌다. 다양한 진단이 나오고 있는 가운데 해결방안 모색이 시급하다는 목소리가 나온다. 3일 제주관광협회에 따르면 지난 2018년 말 기준 제주를 찾은 관광객은 1431만3961명으로 전년(1475만3236명)명에 비해 3%(43만9275명) 줄었다. 이 기간 내국인 관광객은 1352만2632명에서 1308만9129명으로 3.2%(43만3503명) 줄어 감소세를 이끌었다. 외국인 관광객은 0.5%(5772명) 줄었다. 내국인 관광객 증감이 하락세로 돌아선 것은 지난 2004년 이후 14년 만이다. 그간 제주를 찾는 내국인이 매년 100만명 이상 증가할 정도로 관광지로서 각광을 받았다는 점을 고려하면 이례적인 현상이다. 관광객이 발길을 돌리기 시작한 데는 복합적인 요인이 작용했다는 분석이다. 우선 해외여행의 가격 접근성이 낮아지면서 경쟁이 심화하고 있는 데다 국내 지자체들도 관광객 유치에 적극적으로 나서면서 제주로 올 이유가 없어졌다는 지적이다. 【제주=뉴시스】배상철 기자 = 제주 방문 내국인 관광객수. 2019.02.03. (사진=제주관광협회 제공) bsc@newsis.com 최근 계속해서 전해지는 범죄 소식도 제주가 안전하지 않다는 인식을 줘 관광객의 발길을 돌리게 했다. 실제로 매년 제주를 여행한다는 황정민(31·경기)씨는 “관광객을 대상으로 하는 범죄가 연일 발생하고 있어 여행이 꺼려지는 것이 사실”이라며 “올해는 다른 곳으로 갈까 고민하고 있다”고 말했다. 이외에도 제주공항의 항공기 수용능력 포화와 골프장에 대한 개별소비세 감면혜택 폐지 등도 영향을 미쳤다. 관광객뿐만 아니라 제주에 살겠다는 이주민도 급격하게 줄었다. 통계청에 따르면 지난 2018년 기준 제주로 전입한 인구에서 전출한 인구를 뺀 순이동 인구는 8853명으로 전년(1만4005명)보다 36.8%(5152명) 감소했다. 지난 2010년을 시작으로 8년간 증가세를 보이던 순이동 인구가 감소세로 돌아선 것이다. 특히 지난해 1월 1038명이었던 순유입 인구가 12월에는 47명으로 급감할 정도로 제주로의 이주열풍은 시들해지고 있다. 【제주=뉴시스】한산한 제주공항. 2019.02.03. (사진=뉴시스DB) 이주민이 줄어들고 있는 원인으로는 그간 급격한 인구 증가에 따른 부동산 가격 상승과 이로 인한 생활환경 악화가 손에 꼽힌다. 제주 부동산 가격은 순이동 인구의 증가세와 맞물려 지난 2010년부터 상승하기 시작했고 2015년부터는 매년 10% 이상 급증했다. 지난해 행정시별 표준지 공시지가 상승률의 경우 서귀포시가 17.23%, 제주시가 15.79%로 전국 시군구 가운데 가장 높은 수준을 기록할 정도다. 쓰레기 처리 시설과 주차 공간 부족 등 급격하게 증가한 인구를 따라가지 못하는 시설도 제주를 외면받게 했다. 4년째 제주에서 살고 있다는 이주민 김모(34)씨는 “처음 이주해 올 때만 해도 교통체증과 주차난이 이렇게까지 심각하지 않았다”면서 “쓰레기 처리 문제도 그렇고 제주가 직면한 문제들을 빨리 해결해야 할 것”이라고 말했다. bsc@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 울산시교육청, 사립유치원 42개원 종합 지도·점검 창원시, 150억 규모 동읍 농촌중심지 활성화 사업 추진 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주4‧3평화재단, 제주도관광협회에 감사패 전달 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주4‧3평화재단, 제주도관광협회에 감사패 전달 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주4‧3평화재단, 제주도관광협회에 감사패 전달 제주CBS 김대휘기자 메일보내기 2019-02-01 11:44 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주4·3평화재단 이사장 양조훈(왼쪽)이 제주도관광협회 김영진 회장에게 감사패를 전달했다. 제주4·3평화재단이 제주4‧3 70주년인 지난해 4·3의 역사적 진실을 널리 알리는데 공헌한 제주도관광협회에 감사패를 전달했다. 제주4·3평화재단(이사장 양조훈)은 31일 재단 대회의실에서 제주도관광협회(회장 김영진) 주요 임원들이 참석한 가운데 감사패 전달식을 가졌다. 제주도관광협회는 4·3 70주년 2018년 제주방문의 해를 맞아 언론매체 및 블로거 취재지원, 대규모 이벤트를 유치하는 등 제주4·3을 올바르게 인식할 수 있는 기회를 제공했다.특히 개별‧단체관광객에게 IT기술을 활용해 할인쿠폰 및 기념품을 제공한 모바일 스탬프투어, 우수 4‧3엽서 수기공모 이벤트, 사진전시회 관람 등을 통해 다크투어 프로그램과 인센티브 관광 향상에 일조했다는 평가를 받고 있다.제주도관광협회를 비롯 도내외 유관기관의 협조로 4·3 70주년인 2018년 제주4·3평화공원 방문객은 전년대비 21만명이 증가(91%?)한 43만5000명을 기록했다 감사패를 받은 뒤 김영진 회장은 "앞으로도 제주4‧3이 추구하는 화해와 치유라는 가치에 관광협회 직원들이 적극 동참할 것"이라며 "현재 관광협회가 추진하고 있는 SNS(소셜 네트워크 서비스) 마케팅에 제주4‧3을 포함시켜 올해도 전년과 같은 방문객 증가를 이끌 수 있도록 노력하겠다"고 소감을 말했다. 양조훈 이사장은 "앞으로도 제주4‧3평화공원이 평화와 인권을 대표하는 역사의 산 교육장이 되도록 관광협회에 많은 협조를 바란다"고 밝혔다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 러, 우크라 폭격 '보복' 인정…"푸틴 자존심 상처 때문" 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" 복지장관 340만원, 청년 120만원…연금의 '세대격차' 제주CBS 김대휘기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>카지노업관광협회 "제주도의회 카지노 조례 개정안, 관광산업 발전 역행" 로그인 회원가입 UP2030 창업리그 일자리카페 청년리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 뉴스 정치사회 글로벌 문화 연예 스포츠 AT미디어센터 포럼&amp;컨퍼런스 PDF 보기 2022년 10월 11일 Tuesday 로그인 ㅣ 회원가입 UP2030 창업리그 일자리 카페 청년 리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 AT미디어센터 뉴스 정치사회 글로벌 문화 연예 스포츠 포럼&amp;컨퍼런스 PDF 지면보기 기사제보 공지.사고 UP2030 스페셜 리포트 기업과 경제 오피니언 전국네트워크 포럼&amp;컨퍼런스 PDF보기 AT미디어센터 포럼&amp;컨퍼런스 PDF보기 카지노업관광협회 "제주도의회 카지노 조례 개정안, 관광산업 발전 역행" 박소연 입력 2019-02-02 19:24 수정 2019-02-01 19:59 (사진제공=한국카지노업관광협회) [아시아타임즈=박소연 기자] 한국카지노업관광협회는 제주도 내 카지노 확장의 이전을 사실상 원천 금지하는 내용의 도 조례 개정안이 '관광산업 발전을 저해할 것'이라고 우려했다. 1일 카지노관광협회는 보도자료를 통해 "최근 입법예고된 조례 개정안은 롯데관광개발 등이 제주지역에 건설 중인 제주드림타워에 카지노 영업장이 들어서는 것을 막기 위한 시대착오적인 발상"이라고 주장했다. 도 의회는 지난달 28일 대수선과 재건축, 멸실 등 불가항력한 경우에만 카지노사업장 이전을 한정하는 내용의 '도 카지노업 관리 및 감독에 관한 조례 일부개정조례안'을 입법예고했다. 카지노의 대형화를 막겠다는 것이 이 조례의 취지인데, 도내 외국인전용 카지노의 이전을 사실상 원천봉쇄하고 특히 외국인이 많이 찾는 세계적인 관광지인 제주특별자치도의 관광산업 발전을 저해할 우려가 크다는게 협회의 주장이다. 카지노관광협회는 "카지노복합리조트 사업은 미래의 먹거리임에 틀림없다"며 "외국인전용 카지노의 특성을 감안해 제주도 카지노산업에 대해 과도한 규제보다는 정책적인 육성이 필요하다"고 주장했다. 또한 카지노관광협회는 이번 개정안이 고용창출과 지역경제 기여효과, 세수확대에 정면으로 역행하고, 관광산업을 육성해 관광진흥에 이바지하는 것을 목적으로 한 관광진흥법의 취지에도 반한다고 강조했다. 제주지역 카지노는 세계에서 유일한 외국인 전용으로 외국인 관광객 유치와 외화획득을 목적으로 하는 관광진흥법에서 정한 관광사업의 한 종류로 규정되어 있다. 제주특별자치도의 카지노는 총 8개로 모두 외국인전용 카지노이며, 대부분의 업체들은 호텔부속시설로서 소규모로 호텔의 한 공간을 임차해 영업하고 있다. 또한 중국인과 일본인이 주요 고객인 한국 카지노산업의 특성상 최근의 메르스 사태와 중국발 사드보복 등과 같은 부정적인 외부변수로 인해 매출 하락의 직격탄을 날렸다. 2017년 제주지역 카지노 입장객은 약 16만5천명으로 전년대비 약 22% 줄었으며, 매출액은 약 1300억원으로 전년대비 약 26% 감소했다. 영업이익 또한 2017년에 마이너스 680여억원으로 적자를 면하지 못하고 있다. 카지노관광협회는 "제주지역의 카지노는 단순한 도박이 아닌 주요 세수로, 이를 늘려 지역관광 활성화와 동시에 고용 창출과 지역소비 창출에 기여하도록 해야 하다"면서 "외국인 고객의 호텔 및 면세점, 골프장, 렌트카, 식당 이용 등으로 인한 지역경제 활성화로 이어지는 산업으로 더욱 발전시켜야 할 것"이라고 강조했다. 이어 "이는 최근 제주신화월드 개장 등으로 증명됐다고 할 수 있다"면서 "법인세 등의 일반세금과는 별도로 카지노의 매출액에 부과되고 있는 제주관광기금은 제주지역 주요 조세수입으로서 도 운영에 상당한 도움이 되고 있다"고 덧붙였다. 박소연 편집부 다른기사 보기 asiatimes@asiatime.co.kr [저작권자ⓒ 아시아타임즈. 무단전재-재배포 금지] - 띄어 쓰기를 포함하여 250자 이내로 써주세요. - 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 0 /250 등록 중요기사 [포토] “정부·여당 안전운임제 무력화 시도 좌시 않을 것” 코로나19 개량백신 접종 시작…"고위험군 접종 필수" [9월 항공실적] 성수기 지나자 해외여행객 ’뚝‘⋯국제선 8월 보다 14만명↓ [시승기] 아드레날린 '뿜뿜'…기아 'EV6 GT' [뒤끝토크] 5개월째 외친 항공 인력충원 요구⋯이젠 국회의 시간 "中 보고 있나"…K-배터리, 美 IRA·수입처 확대로 반격 타이밍 [포토] “정부·여당 안전운임제 무력화 시도 좌시 않을 것” [아시아타임즈=김영봉 기자] 민주노총 전국공공운수노동조합 화물연대본부(화물연대)가 11일 오전 서울 용산구 대통령 집무실 앞에서 '안전운임개악저지! 일몰제 폐지! 차종·품목확대! 화물연대 투쟁선포 기자회견'을 열고 총파업을 예고했다. 화물연대는 이날 "안전운임제 지속 및 품목확대에 대한 기존의 합의를 뒤집고 안전운임제를 폐지, 무력화 하려는 정부여당의 시도를 좌시 하지 않을 것"이라며 "이에 화물연대는 10월 22일 총파업 결의를 위한 조합원 비상총회를 개최하겠다"고 밝혔다. 국토교통부가 지난달 29일 민생안정경제특위에서 안전운임제가 시장경제원리에 반한다는 의견을 내면서다. 한편 '화물자동차 안전운임제'는 과로, 과속, 과적 운행을 방지하고 도로안전을 위해 필요한 최소한의 운임을 결정하는 제도다. 코로나19 개량백신 접종 시작…"고위험군 접종 필수" 코로나19 개량백신 접종 시작…예약한 날짜에 따라 진행 방역당국, 신규 백신인만큼 이상대응 체계 강화나서 전문가들 "신규 변이·재유행 등의 가능성 높아 접종 필요" [아시아타임즈=이재현 기자] 신종 코로나바이러스 감염증(코로나19) 개량백신 접종이 시작된다. 의학계에서는 면역저하자와 고령층 등 고위험군은 개량백신을 무조건 맞아야 한다고 강조했다. 11일 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가 접종이 시작된다. 이번 접종에 사용되는 개량백신은 코로나19 바이러스 초기주를 기반으로 개발된 기존 백신과 다르게 오미크론 변이 바이러스에도 대응이 가능하도록 개발됐다. 중앙방역대책본부는 개량백신은 기존백신 대비 초기주에는 1.22배, BA.1에 1.75배, BA.4와 BA.5에 1.69배 높은 중화능을 보였다. 중화능은 바이러스를 무력화해 감염을 예방하는 능력을 뜻한다. 지난달 27일부터 시작된 사전예약을 통해 예약한 사람은 이날부터 예약한 날짜에 따라 순차적으로 접종이 시작된다. 면역저하자, 요양병원·시설 등 감염취약시설 입원·입소·종사자, 60세 이상 고령층 등 건강취약계층이 우선 접종 대상이다. 18세 이상 60세 미만 기초접종 완료자도 잔여백신에 한해 개량백신 추가접종을 받을 수 있다. 사전예약 없이 당일 접종을 받으려면 의료기관에 유선으로 연락해 예비명단에 올려 당일 잔여 백신을 접종받을 수 있으며 카카오톡이나 네이버 등 소셜네트워크서비스(SNS)를 통한 잔여백신 확인·예약은 12일 오후 4시부터 가능하다. 방역당국은 개량백신이 새로운 백신인 점을 고려해 시행 초기에는 이상 반응에 더 적극적으로 대응하기로 했다. 접종자 중 문자 수신에 동의한 경우 접종 후 1주일간 능동감시를 통해 건강 상태와 일상생활 문제 여부 등을 확인하도록 하고 접종자 전원을 대상으로 접종 후 3일차 주의 사항과 이상반응시 조치 사항 등을 재안내할 계획이다. 또한 방역당국은 독감백신과 동시에 접종해도 된다고 밝혔다. 신규 변이·재유행 등 가능성 높아…고위험군 접종 필수 전문가들은 올 겨울에 코로나19이 재유행할 가능성이 높기 때문에 고위험군 접종이 필수라고 조언한다. 앞서 앤서니 파우치 국립알레르기·전염병연구소(NIAID) 소장은 미국 언론과의 인터뷰에서 올 겨울에 더 위험한 코로나19 변이가 출현할 수 있다고 경고했다. 미국 질병예방통제센터(CDC)가 발표한 데이터를 보면 지난주 보고된 환자의 79.2%는 오미크론 하위 변이인 BA.5에 감염됐다. 하지만 BA.5와 비슷한 시점에 출현한 BA.4에서 파생된 BA.4.6은 13.6%로 높아졌다. 이같이 기존에 유행하던 코로나에서 변이되거나 아예 새로운 변이가 발생될 가능성을 배제할 수 없다는 것. 국내 전문가들도 같은 의견을 내놓았다. 엄중식 가천대병원 감염내과 교수는 "올해 1분기에 겪었던 대규모 유행이 발생할 가능성은 줄었지만 작은 규모의 유행이 반복될 가능성이 높다"며 "코로나19가 풍토병이나 계절성 질환으로 바뀔 자리매김할 가능성이 높은 만큼 고위험층은 백신 접종이 필수"라고 강조했다. 한 의학계 관계자는 "2가 백신은 지금 유행하는 오미크론을 예방할 수 있기 때문에 효과적"이라며 "향후 어떠한 변이가 나올지는 모르지만 가장 유행하는 백신을 맞는 것이 효과적"이라고 설명했다. [9월 항공실적] 성수기 지나자 해외여행객 ’뚝‘⋯국제선 8월 보다 14만명↓ 9월 항공 여객 수 400만8362명⋯국내선 및 국제선 여객 수 전월 대비 모두 감소 국제선 여객 수는 121만4867명으로 8월 135만4803명 보다 10.3%↓ 성수기 지난 데다 환율 상승 등이 국제선 여객 수 감소에 영향 [아시아타임즈=김영봉 기자] 여름휴가철이 지나자 9월 해외여행객 수요가 전월 대비 10% 감소한 것으로 나타났다. 9월 입국 전 PCR검사 의무화가 폐지되며 국제선 여객 수요를 끌어 올릴 것으로 전망했지만 효과가 크지 않은 것이다. 휴가시즌이 지난 데다 높은 환율 등이 상승세를 꺾은 것으로 분석된다. 10일 아시아타임즈가 국토교통부 항공정보포털시스템의 9월 항공사별 운송실적을 분석한 결과 대한항공과 아시아나항공, 제주항공, 진에어, 티웨이항공, 에어부산, 에어서울, 에어로케이, 플라이강원, 에어프레미아 등 10개 항공사의 여객 수는 400만8362명(국내/국제 포함)으로 지난 8월 454만1753명 보다 11.7%(53만3391명) 감소했다. 이중 국내선 여객 수가 279만3495명으로 전월 318만6950명 보다 12.3%(39만3455명)감소했고, 국제선 여객 수는 121만4867명으로 한 달 전 135만4803명 보다 10.3%(13만9936명) 줄었다. 항공사별로 9월 여객수를 보면 대한항공은 102만8756명(49만5863명/53만2893명)으로 전월 109만8278명(56만9110명/52만9168명) 보다 6.3% 감소했다. 다만 국제선 여객 수는 국내 항공사 중 유일하게 전월 대비 0.7% 소폭 증가했다. 아시아나항공은 9월 여객 수가 72만8971명(39만3251명/33만5720명)으로 지난 달 80만767명(45만2737명/34만8030명) 보다 8.9%줄었다. 이중 국제선 여객 감소율은 3.5%로 나타났다. 저비용항공사(LCC)들도 여객 수가 전월대비 대부분 감소했다. 특히 국제선 여객 수는 코로나19 이후 처음으로 10만명을 돌파하며 상승세를 탔지만, 9월에는 감소세가 뚜렷했다. 제주항공은 9월 58만7543명(49만4272명/9만3271명)을 수송하며 8월 71만3305명(58만7562명/12만5743명) 대비 17.6% 줄었고, 국제선 여객 수는 한 달 사이 25.8% 급감했다. 이어 진에어는 56만2795명(49만2637명/7만158명)으로 전월 64만6063명(53만7725명/10만8338명) 보다 12.8% 감소했다. 국제선 여객 수는 35.2%나 줄었다. 티웨이항공은 49만3536명(40만280명/9만3256명)으로 지난달 50만9810명(39만788명/11만9022명) 보다 3.2% 줄었다. 이중 국제선 여객 수는 21.6% 감소했다. 에어부산과 에어서울의 여객 수도 모두 줄어들었다. 에어부산의 경우 9월 여객 수는 39만9230명(34만4554명/5만4676명)으로 전월 52만6057명(45만3333명/7만2724명) 24.1% 줄었고, 에어서울은 14만549명(11만5658명/2만4891명)으로 8월 16만2030명(12만328명/4만1702명) 보다 13.2% 감소했다. 이외 플라이강원은 9월 3만632명(2만9496명/1136명), 에어로케이는 2만7484명(국내선)을 수송했고, 국제선만 운항하는 에어프레미아는 8864명을 수송하는데 그쳤다. 항공업계 관계자는 “7월~8월 휴가철이 끝나고 9월은 원래 여객 수가 줄어드는 달”이라면서도 “입국 전 PCR 검사 의무화가 폐지되면서 국제선 여행객이 늘어날 것으로 봤는데 오히려 줄어든 것은 아쉬운 대목”이라고 말했다. 이 관계자는 “9월부터 환율이 높아진 영향도 있는 것 같다”면서 “10월은 연휴기간이 많고, 일본의 무비자 입국이 풀려 여행수요가 늘어날 것으로 기대하고 있다”고 덧붙였다. 한편 9월 총 여객 수는 전년 동월 296만3818명(253만583명/16만3235명)보다 48.7% 늘었고, 국제선 여객 수는 644.2% 급증했다. 전문가의 목소리 나하나 칼럼 워라밸이 가져온 예술의 대중화 정균화칼럼 Simple Living 박창진 칼럼 민생 위기 속 정치의 역할 김용훈 칼럼 국가재정의 전략적 운용 신문사소개 개인정보취급방침 이용약관 청소년보호정책 기사제보 제휴문의 공지.사고 서울특별시 중구 퇴계로31길 27 프라임빌딩 8층 대표전화 : 02-801-1800 FAX : 02-801-1819 제 호 : 아시아타임즈 정기간행물번호 : 서울 가 09927 등록일 : 2008-07-16 인터넷신문 : 서울 아 00624 발행인 대표이사 : 조용하 편집국장 : 송남석 청소년보호관리책임자 : 조주현 『열린보도원칙』 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 : 김재현 / TEL : 02-801-1842 / email : s891158@asiatime.co.kr 본 콘텐츠의 저작권은 아시아타임즈 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 2019 아시아타임즈 All rights reserved. email : asiatimes@asiatime.co.kr HOME LOG IN Copyright ⓒ 2019 아시아타임즈 All rights reserved.</t>
+  </si>
+  <si>
+    <t>관광객·이주민 외면받는 제주도, 이유는 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 관광객·이주민 외면받는 제주도, 이유는 등록 2019.02.03 09:30:21 작게 크게 제주 찾는 내국인 관광객·이주민 급격하게 줄어 부동산가격 급등·생활환경 악화·범죄 우려 등 원인 【제주=뉴시스】제주공항 여객기들이 이륙을 준비하고 있다. 2019.02.03. (사진=뉴시스DB) 【제주=뉴시스】배상철 기자 = 가보고 싶은 섬, 살아보고 싶은 섬으로 인기를 끌었던 제주도가 외면받고 있다. 관광객은 발길을 돌렸고 제주살이 열풍은 언제 그랬냐는 듯 시들해졌다. 다양한 진단이 나오고 있는 가운데 해결방안 모색이 시급하다는 목소리가 나온다. 3일 제주관광협회에 따르면 지난 2018년 말 기준 제주를 찾은 관광객은 1431만3961명으로 전년(1475만3236명)명에 비해 3%(43만9275명) 줄었다. 이 기간 내국인 관광객은 1352만2632명에서 1308만9129명으로 3.2%(43만3503명) 줄어 감소세를 이끌었다. 외국인 관광객은 0.5%(5772명) 줄었다. 내국인 관광객 증감이 하락세로 돌아선 것은 지난 2004년 이후 14년 만이다. 그간 제주를 찾는 내국인이 매년 100만명 이상 증가할 정도로 관광지로서 각광을 받았다는 점을 고려하면 이례적인 현상이다. 관광객이 발길을 돌리기 시작한 데는 복합적인 요인이 작용했다는 분석이다. 우선 해외여행의 가격 접근성이 낮아지면서 경쟁이 심화하고 있는 데다 국내 지자체들도 관광객 유치에 적극적으로 나서면서 제주로 올 이유가 없어졌다는 지적이다. 【제주=뉴시스】배상철 기자 = 제주 방문 내국인 관광객수. 2019.02.03. (사진=제주관광협회 제공) bsc@newsis.com 최근 계속해서 전해지는 범죄 소식도 제주가 안전하지 않다는 인식을 줘 관광객의 발길을 돌리게 했다. 실제로 매년 제주를 여행한다는 황정민(31·경기)씨는 “관광객을 대상으로 하는 범죄가 연일 발생하고 있어 여행이 꺼려지는 것이 사실”이라며 “올해는 다른 곳으로 갈까 고민하고 있다”고 말했다. 이외에도 제주공항의 항공기 수용능력 포화와 골프장에 대한 개별소비세 감면혜택 폐지 등도 영향을 미쳤다. 관광객뿐만 아니라 제주에 살겠다는 이주민도 급격하게 줄었다. 통계청에 따르면 지난 2018년 기준 제주로 전입한 인구에서 전출한 인구를 뺀 순이동 인구는 8853명으로 전년(1만4005명)보다 36.8%(5152명) 감소했다. 지난 2010년을 시작으로 8년간 증가세를 보이던 순이동 인구가 감소세로 돌아선 것이다. 특히 지난해 1월 1038명이었던 순유입 인구가 12월에는 47명으로 급감할 정도로 제주로의 이주열풍은 시들해지고 있다. 【제주=뉴시스】한산한 제주공항. 2019.02.03. (사진=뉴시스DB) 이주민이 줄어들고 있는 원인으로는 그간 급격한 인구 증가에 따른 부동산 가격 상승과 이로 인한 생활환경 악화가 손에 꼽힌다. 제주 부동산 가격은 순이동 인구의 증가세와 맞물려 지난 2010년부터 상승하기 시작했고 2015년부터는 매년 10% 이상 급증했다. 지난해 행정시별 표준지 공시지가 상승률의 경우 서귀포시가 17.23%, 제주시가 15.79%로 전국 시군구 가운데 가장 높은 수준을 기록할 정도다. 쓰레기 처리 시설과 주차 공간 부족 등 급격하게 증가한 인구를 따라가지 못하는 시설도 제주를 외면받게 했다. 4년째 제주에서 살고 있다는 이주민 김모(34)씨는 “처음 이주해 올 때만 해도 교통체증과 주차난이 이렇게까지 심각하지 않았다”면서 “쓰레기 처리 문제도 그렇고 제주가 직면한 문제들을 빨리 해결해야 할 것”이라고 말했다. bsc@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 울산시교육청, 사립유치원 42개원 종합 지도·점검 창원시, 150억 규모 동읍 농촌중심지 활성화 사업 추진 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>KB국민카드, 제주도 주요 관광지 바코드 결제 서비스 제공 &lt; 카드 &lt; 금융 &lt; 기사본문 - 파이낸셜투데이 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 11:25 (화) 기사제보 로그인 회원가입 전체메뉴 버튼 전체기사 경제 거시 재계 산업 자동차·항공 게임 4차산업혁명 IT·전자 건설 중공업·에너지 금융 일반 은행 증권 보험 카드 시사 정치 사회 소비자 유통 식음료 뷰티·패션 레저·관광 헬스·바이오 교육 오피니언 칼럼 기자수첩 피플 파투만평 기사검색 검색 실시간 이복현 “금융당국, 가계부채 총량·구조 변화 필요성 절실히 못 느껴…송구하게 생각” 마스턴투자운용, 창립 12주년 체육대회 개최…“함께 성장하는 조직문화 형성” 닺 올린 카카오페이손보…첫 상품 금융안심보험 출시 롯데카드, ‘LOCA X 구독카드’ 추가 혜택 프로모션 진행 KB자산운용, 글로벌 원자력 ETF 출시 대우조선 향한 ‘그리스 선박왕’의 사랑...“父 생전 가장 아꼈던 파트너” AGE20’S, 쿠션 팩트 ‘노블 글로우 커버 쿠션’ 출시 KT ‘듀얼번호’ 가입자 23만명 돌파 김병욱 의원 “버팀목 전세자금대출, 연체 548억원…증가 추세” CJ올리브네트웍스, AI기술로 인공지능 배우 구현한다 본문영역 이전 기사보기 다음 기사보기 KB국민카드, 제주도 주요 관광지 바코드 결제 서비스 제공 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 금융 카드 KB국민카드, 제주도 주요 관광지 바코드 결제 서비스 제공 기자명 이진명 기자 승인 2019.02.01 10:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ‘리브 메이트(Liiv Mate)’바코드 결제 시 최대 67% 할인 사진=KB국민카드 KB국민카드가 제주 여행 전문업체인 ‘제주 모바일’과 함께 제주도 내 250여개 관광지, 체험상품, 호텔·음식점 이용권을 사전 예매 없이 현장에서 바코드 결제로 최대 67% 할인된 가격에 구매할 수 있는 ‘리브 메이트(Liiv Mate) 제주 관광지 할인 서비스’를 제공한다고 1일 밝혔다. 이 서비스는 제주도 관광지 이용권을 사전에 구매하는 번거로움 또는 예매한 티켓의 취소 부담 없이 현지에서 KB금융그룹의 통합 멤버십 플랫폼인 ‘리브 메이트’ 바코드 결제 기능을 활용해 간편하게 구매하고 즉시 할인받을 수 있는 것이 특징이다. 현재 바코드 결제로 구매 가능한 상품은 ▲소인국테마파크, 제주민속촌 등 관광지 입장권 70여개 ▲마라도잠수함, 제트보트 등 체험상품 70여개 ▲호텔 뷔페 등 음식점 60여개 ▲공연, 스파, 테라피 관련 상품 40여개 등 총 250여개다. 상품별 할인율 등 자세한 사항은 ‘리브 메이트’내 ‘제주 관광지 할인 서비스 가맹점 보기’ 메뉴에서 확인 가능하다. 서비스 이용을 희망하는 고객은 ‘리브 메이트’내 간편결제 아이콘 선택→바코드 결제 탭에서 바코드 생성 및 비밀번호 입력→현지 가맹점에서 바코드 스캔 과정을 거치면 결제 및 즉시 할인 혜택을 받을 수 있다. 한편 KB국민카드는 이 서비스 시행을 기념해 이달 말까지 ‘리브 메이트’ 최초 가입회원에게 포인트 2000점을 제공하고 바코드 결제 서비스 이용금액의 10%(월 최대 1만점)를 포인트로 적립해 주는 이벤트를 진행한다. 파이낸셜투데이 이진명 기자 이진명 기자 unitrock@ftoday.co.kr 다른기사 보기 저작권자 © 파이낸셜투데이 무단전재 및 재배포 금지 당신만 안 본 뉴스 KFC, 10월1일 단 하루 치킨 메뉴 1+1 제공 풍전등화 ‘대우건설’, 한남2구역 총회 앞두고 ‘위기?’ 韓 게임업계, 애플 ‘인앱결제 인상’ 선포에도 ‘가격 유지’ 가닥 그라비티 ‘라그나로크 아레나’, 출시 첫 주 성적표는 ‘완만한 상승곡선’ SPC 파리바게뜨, 10월의 ‘파바데이’ 프로모션 진행 Green AI로 넷제로에 다가가는 SK텔레콤 [게임만담] 955억원 받는 위메이드의 ‘미르 IP 수호전’은 ‘현재진행형’ KFC, 10월1일 단 하루 치킨 메뉴 1+1 제공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 이복현 “금융당국, 가계부채 총량·구조 변화 필요성 절실히 못 느껴…송구하게 생각” 닺 올린 카카오페이손보…첫 상품 금융안심보험 출시 김병욱 의원 “버팀목 전세자금대출, 연체 548억원…증가 추세” 5G 상용화 4년, 여전히 ‘속 빈 강정’ 메리츠증권, 업황 부진 속 ‘1조클럽’ 입성 도전 풍전등화 ‘대우건설’, 한남2구역 총회 앞두고 ‘위기?’ 최신뉴스 이복현 “금융당국, 가계부채 총량·구조 변화 필요성 절실히 못 느껴…송구하게 생각” 마스턴투자운용, 창립 12주년 체육대회 개최…“함께 성장하는 조직문화 형성” 닺 올린 카카오페이손보…첫 상품 금융안심보험 출시 롯데카드, ‘LOCA X 구독카드’ 추가 혜택 프로모션 진행 KB자산운용, 글로벌 원자력 ETF 출시 포토뉴스 인기뉴스 1 KFC, 10월1일 단 하루 치킨 메뉴 1+1 제공 2 풍전등화 ‘대우건설’, 한남2구역 총회 앞두고 ‘위기?’ 3 韓 게임업계, 애플 ‘인앱결제 인상’ 선포에도 ‘가격 유지’ 가닥 4 그라비티 ‘라그나로크 아레나’, 출시 첫 주 성적표는 ‘완만한 상승곡선’ 5 SPC 파리바게뜨, 10월의 ‘파바데이’ 프로모션 진행 6 Green AI로 넷제로에 다가가는 SK텔레콤 7 [게임만담] 955억원 받는 위메이드의 ‘미르 IP 수호전’은 ‘현재진행형’ 8 크래프톤 신작 문브레이커, 스팀 얼리 액세스 평가 ‘매우 긍정적’ 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 마포구 백범로31길 8, 201동 6층 (공덕SK리더스뷰) 대표전화 : 02-2672-7114 팩스 : 02-868-7114 청소년보호책임자 : 한종민 법인명 : (주)파이낸셜투데이 제호 : 파이낸셜투데이 등록번호 : 서울 아01915 등록일 : 2005-05-21 대표이사 : 한병인 편집국장 : 김영권 파이낸셜투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 파이낸셜투데이. All rights reserved. mail to ftodayhan@hanmail.net 위로 전체메뉴 전체기사 경제 전체 거시 재계 전국 산업 전체 자동차·항공 게임 4차산업혁명 IT·전자 건설 중공업·에너지 금융 전체 일반 은행 증권 보험 카드 소비자 전체 유통 식음료 뷰티·패션 레저·관광 헬스·바이오 교육 시사 전체 정치 사회 오피니언 전체 칼럼 기자수첩 피플 파투만평 피플 전체메뉴닫기</t>
   </si>
   <si>
     <t>배 댈 곳 없는 제주항…제주도 뱃길 관광 활성화 '구호만' - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 배 댈 곳 없는 제주항…제주도 뱃길 관광 활성화 '구호만' 파이낸셜뉴스입력 2019.02.09 14:38수정 2019.02.09 17:18 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 25개 선석에 41척 정기 이용…비정기 화물선도 가세 인천·장흥·삼천포 항로 대형 카페리 잇단 취항 선석난 제주도 관문 제주항. 제주와 녹동을 잇는 아리온제주호가 입항하고 있다. /사진=fnDB [제주=좌승훈 기자] 제주특별자치도가 감소세에 있는 내국인 관광객 유치를 위해 뱃길 관광 활성화에 적극 나선다. 이는 제주공항이 여객 증가와 함께 활주로·관제처리 용량 포화로 항공 접근성이 한계에 직면했기 때문이다. 그러나 공염불에 그칠 가능성이 크다. 제주항도 공항 못지 않다. 신규 여객선 유치는커녕 관공선도 배를 댈 곳이 없어 항만 인프라 확충이 절박한 상황이다. 도는 온라인마케팅 강화·제주특화 콘텐츠 발굴과 함께 항공 접근성 한계 극복을 위한 뱃길 관광 활성화를 통해 내국인 관광객 유치에 적극 나선다고 9일 밝혔다. 도는 이에 따라 지난해 12월 운항을 재개한 뉴스타호(제주-부산)와 뉴블루나래호(제주-완도)에 제주관광 홍보 시설물을 설치하고, 선상 이벤트 지원과 KTX 연계 마케팅을 중점 추진키로 했다. 현재 제주항을 드나드는 여객선은 완도 3척(실버클라우드·한일레드펄·뉴블루나래), 목포 2척(퀸메리·산타루치노), 부산 1척(뉴스타), 우수영 1척(퀸스타2), 여수 1척(골드스텔라), 고흥(녹동) 1척(아리온제주) 등 6개 항로에 9척이다. 그러나 뱃길 관광 활성화에 앞서 포화상태에 이른 제주항 선석 확보가 먼저다. 현재 제주항은 11개 부두에 25개 선석(계류장)을 보유하고 있다. 제주항 2~7부두, 외항 9~11부두에는 화물선 14척과 연안 여객선 9척, 관공선 18척 등 모두 41척이 정기적으로 번갈아 선석을 이용하고 있다. 게다가 물동량 증가에 따른 비정기 화물선까지 포함하면 항만 사정은 더 복잡하다. 제주항에 제때 입항하지 못해 제주시 탑동에서 용담까지 3㎞에 이르는 해상에 임시로 닻을 내리고 정박하는 일은 흔한 풍경이 돼 버렸다. ■ 신규 여객선 취항·여객선 대형화 ‘언감생심' 더욱이 여객선 신규 취항과 대형화는 언감생심(焉敢生心)이다. 기존 정기 여객선도 배를 댈 곳이 없어 운항에 차질이 예상되고 있다. 인천~제주 항로에 투입될 예정인 대저건설오리엔탈펄8호. 2014년 세월호 참사 이후 끊긴 인천~제주 항로에 오는 12월 카페리 오리엔탈펄8호(2만4748톤) 운항이 재개된다. 이전 ‘세월호(6825톤)’보다 3배 이상 크다. 고정 선석이 없다보니, 선사 간 이용시간이 중복되지 않도록 사전 조율이 필요하다. 전남 장흥군도 연내 제주-장흥 항로에 여객선 운항을 재개하기로 하고, 현재 2개 선사와 협의를 진행하고 있다. 세월호 참사와 중동호흡기증후군(MERS) 사태로 경영난에 부딪혀 지난 2015년 10월 뱃길이 중단된 지 4년 만이다. 또 내년 12월에는 제주-경남 사천 삼천포를 잇는 여객선 항로에 친환경 MGO(Marine Gas Oil·선박용 경유)용 가스터빈엔진이 탑재된 1만9000t급 신조 카페리가 투입된다. 한편 도는 제주항의 만성적인 선석난을 해결하기 위해 1783억원을 들여 10만톤급 1개 선석을 비롯해 화물부두(420m), 해경 경비함 12척이 접안할 수 있는 해경부두(997m)를 조성하는 제주외항 2단계 개발사업을 추진하고 있다. 지금 상태로는 오는 2022년 제주외항 2단계 사업이 마무리되기 전까지는 선석전쟁이 계속 되풀이될 수밖에 없는 처지다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
@@ -434,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -466,6 +598,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -475,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +687,331 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
